--- a/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E01EF-D938-4E46-9B9C-17B7C127502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF83330-8808-0D41-B192-D9985288019B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="432">
   <si>
     <t>Fig Index</t>
   </si>
@@ -1241,6 +1254,81 @@
   </si>
   <si>
     <t>% of samples</t>
+  </si>
+  <si>
+    <t>15N R1rho (s-1)</t>
+  </si>
+  <si>
+    <t>Normalized counts</t>
+  </si>
+  <si>
+    <t>Cytokine concentration (pg/mL)</t>
+  </si>
+  <si>
+    <t>Se (log copies /mL)</t>
+  </si>
+  <si>
+    <t>FlipperTR lifetime (ns)</t>
+  </si>
+  <si>
+    <t>-log10 enrichment pvalue</t>
+  </si>
+  <si>
+    <t>% infected cells</t>
+  </si>
+  <si>
+    <t>Fold enrichment</t>
+  </si>
+  <si>
+    <t>Copy number ratio</t>
+  </si>
+  <si>
+    <t>Tryptophan (µM)</t>
+  </si>
+  <si>
+    <t>Tissue factor (pg/mL)</t>
+  </si>
+  <si>
+    <t>Average MK size (µM)</t>
+  </si>
+  <si>
+    <t>Platelet count (K/µL)</t>
+  </si>
+  <si>
+    <t>MCH (pg)</t>
+  </si>
+  <si>
+    <t>MCV (fL)</t>
+  </si>
+  <si>
+    <t>RBC (M/µL)</t>
+  </si>
+  <si>
+    <t>Novel object preference (%)</t>
+  </si>
+  <si>
+    <t>PTT (s)</t>
+  </si>
+  <si>
+    <t>PT (s)</t>
+  </si>
+  <si>
+    <t>MPV (fL)</t>
+  </si>
+  <si>
+    <t>CD45+ nucleus (µm3)</t>
+  </si>
+  <si>
+    <t>log10 CFU/spleen</t>
+  </si>
+  <si>
+    <t>I_p/s (au)</t>
+  </si>
+  <si>
+    <t>Occupancy fold change</t>
+  </si>
+  <si>
+    <t>Expression level/GAPDH log10</t>
   </si>
 </sst>
 </file>
@@ -1315,15 +1403,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1628,13 +1717,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="183" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="183" workbookViewId="0">
+      <selection activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1673,7 +1763,7 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1693,7 +1783,7 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1713,7 +1803,7 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1733,7 +1823,7 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1753,7 +1843,7 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1773,7 +1863,7 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1793,7 +1883,7 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1813,7 +1903,7 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1833,7 +1923,7 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1853,7 +1943,7 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1873,7 +1963,7 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1893,7 +1983,7 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1913,7 +2003,7 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1933,7 +2023,7 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1953,7 +2043,7 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1973,7 +2063,7 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -1993,7 +2083,7 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2013,7 +2103,7 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2033,7 +2123,7 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2053,7 +2143,7 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2073,7 +2163,7 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2093,7 +2183,7 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2113,7 +2203,7 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2133,7 +2223,7 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2153,7 +2243,7 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2173,7 +2263,7 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2193,7 +2283,7 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2213,7 +2303,7 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2233,7 +2323,7 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2253,7 +2343,7 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2273,7 +2363,7 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2293,7 +2383,7 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2313,7 +2403,7 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2333,7 +2423,7 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2353,7 +2443,7 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2373,7 +2463,7 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2393,7 +2483,7 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2413,7 +2503,7 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2433,7 +2523,7 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2453,7 +2543,7 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2473,7 +2563,7 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2493,7 +2583,7 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2513,7 +2603,7 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2533,7 +2623,7 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2553,7 +2643,7 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="3" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2573,7 +2663,7 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -2593,7 +2683,7 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -2613,7 +2703,7 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -2633,7 +2723,7 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -2653,7 +2743,7 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -2673,7 +2763,7 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -2693,7 +2783,7 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -2713,7 +2803,7 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -2733,7 +2823,7 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="3" t="s">
         <v>345</v>
       </c>
     </row>
@@ -2753,7 +2843,7 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="3" t="s">
         <v>345</v>
       </c>
     </row>
@@ -2773,7 +2863,7 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="3" t="s">
         <v>346</v>
       </c>
     </row>
@@ -2793,7 +2883,7 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="3" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2813,7 +2903,7 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="3" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2833,7 +2923,7 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="3" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2853,7 +2943,7 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="3" t="s">
         <v>346</v>
       </c>
     </row>
@@ -2873,7 +2963,7 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="3" t="s">
         <v>346</v>
       </c>
     </row>
@@ -2893,7 +2983,7 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -2913,7 +3003,7 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="3" t="s">
         <v>349</v>
       </c>
     </row>
@@ -2933,7 +3023,7 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2953,7 +3043,7 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2973,7 +3063,7 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2993,7 +3083,7 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="3" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3013,7 +3103,7 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="3" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3033,7 +3123,7 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="3" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3053,7 +3143,7 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3073,7 +3163,7 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="3" t="s">
         <v>354</v>
       </c>
     </row>
@@ -3093,7 +3183,7 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="3" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3113,7 +3203,7 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="3" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3133,7 +3223,7 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="3" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3153,7 +3243,7 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="3" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3173,7 +3263,7 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="3" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3193,7 +3283,7 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="3" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3213,7 +3303,7 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="3" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3233,7 +3323,7 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="3" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3253,7 +3343,7 @@
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="3" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3273,7 +3363,7 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="3" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3293,7 +3383,7 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="3" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3313,7 +3403,7 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="3" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3333,7 +3423,7 @@
       <c r="E85" t="s">
         <v>9</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3353,7 +3443,7 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3373,7 +3463,7 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3393,7 +3483,7 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3413,7 +3503,7 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="3" t="s">
         <v>361</v>
       </c>
     </row>
@@ -3433,7 +3523,7 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="3" t="s">
         <v>361</v>
       </c>
     </row>
@@ -3453,7 +3543,7 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="3" t="s">
         <v>361</v>
       </c>
     </row>
@@ -3473,7 +3563,7 @@
       <c r="E92" t="s">
         <v>9</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="3" t="s">
         <v>361</v>
       </c>
     </row>
@@ -3493,7 +3583,7 @@
       <c r="E93" t="s">
         <v>9</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="3" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3513,7 +3603,7 @@
       <c r="E94" t="s">
         <v>9</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="3" t="s">
         <v>363</v>
       </c>
     </row>
@@ -3533,7 +3623,7 @@
       <c r="E95" t="s">
         <v>9</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="3" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3553,7 +3643,7 @@
       <c r="E96" t="s">
         <v>9</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3573,7 +3663,7 @@
       <c r="E97" t="s">
         <v>9</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="3" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3593,7 +3683,7 @@
       <c r="E98" t="s">
         <v>9</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="3" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3613,7 +3703,7 @@
       <c r="E99" t="s">
         <v>9</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="3" t="s">
         <v>367</v>
       </c>
     </row>
@@ -3633,7 +3723,7 @@
       <c r="E100" t="s">
         <v>9</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="3" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3653,7 +3743,7 @@
       <c r="E101" t="s">
         <v>9</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="3" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3673,7 +3763,7 @@
       <c r="E102" t="s">
         <v>9</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="3" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3693,7 +3783,7 @@
       <c r="E103" t="s">
         <v>9</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="3" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3713,7 +3803,7 @@
       <c r="E104" t="s">
         <v>9</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="3" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3733,7 +3823,7 @@
       <c r="E105" t="s">
         <v>9</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="3" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3753,7 +3843,7 @@
       <c r="E106" t="s">
         <v>9</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="3" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3773,7 +3863,7 @@
       <c r="E107" t="s">
         <v>9</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="3" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3793,7 +3883,7 @@
       <c r="E108" t="s">
         <v>9</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="3" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3813,7 +3903,7 @@
       <c r="E109" t="s">
         <v>9</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="3" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3833,7 +3923,7 @@
       <c r="E110" t="s">
         <v>9</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="3" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3853,7 +3943,7 @@
       <c r="E111" t="s">
         <v>9</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="3" t="s">
         <v>378</v>
       </c>
     </row>
@@ -3873,7 +3963,7 @@
       <c r="E112" t="s">
         <v>9</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="3" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3893,7 +3983,7 @@
       <c r="E113" t="s">
         <v>9</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="3" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3913,7 +4003,7 @@
       <c r="E114" t="s">
         <v>9</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="3" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3933,7 +4023,7 @@
       <c r="E115" t="s">
         <v>9</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="3" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3953,7 +4043,7 @@
       <c r="E116" t="s">
         <v>9</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="3" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3973,7 +4063,7 @@
       <c r="E117" t="s">
         <v>9</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="3" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3993,7 +4083,7 @@
       <c r="E118" t="s">
         <v>9</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="3" t="s">
         <v>381</v>
       </c>
     </row>
@@ -4013,7 +4103,7 @@
       <c r="E119" t="s">
         <v>9</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="3" t="s">
         <v>374</v>
       </c>
     </row>
@@ -4033,7 +4123,7 @@
       <c r="E120" t="s">
         <v>9</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="3" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4053,7 +4143,7 @@
       <c r="E121" t="s">
         <v>9</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="3" t="s">
         <v>374</v>
       </c>
     </row>
@@ -4073,7 +4163,7 @@
       <c r="E122" t="s">
         <v>9</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="3" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4093,7 +4183,7 @@
       <c r="E123" t="s">
         <v>9</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="3" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4113,7 +4203,7 @@
       <c r="E124" t="s">
         <v>9</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="3" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4133,7 +4223,7 @@
       <c r="E125" t="s">
         <v>9</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="3" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4153,7 +4243,7 @@
       <c r="E126" t="s">
         <v>9</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="3" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4173,7 +4263,7 @@
       <c r="E127" t="s">
         <v>9</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="3" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4193,7 +4283,7 @@
       <c r="E128" t="s">
         <v>9</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="3" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4213,7 +4303,7 @@
       <c r="E129" t="s">
         <v>9</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="3" t="s">
         <v>387</v>
       </c>
     </row>
@@ -4233,7 +4323,7 @@
       <c r="E130" t="s">
         <v>9</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4253,7 +4343,7 @@
       <c r="E131" t="s">
         <v>9</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="3" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4273,7 +4363,7 @@
       <c r="E132" t="s">
         <v>9</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="3" t="s">
         <v>387</v>
       </c>
     </row>
@@ -4293,7 +4383,7 @@
       <c r="E133" t="s">
         <v>9</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="3" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4313,7 +4403,7 @@
       <c r="E134" t="s">
         <v>9</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="3" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4333,7 +4423,7 @@
       <c r="E135" t="s">
         <v>9</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="3" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4353,7 +4443,7 @@
       <c r="E136" t="s">
         <v>9</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="3" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4373,7 +4463,7 @@
       <c r="E137" t="s">
         <v>9</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4393,7 +4483,7 @@
       <c r="E138" t="s">
         <v>9</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4413,7 +4503,7 @@
       <c r="E139" t="s">
         <v>9</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4433,7 +4523,7 @@
       <c r="E140" t="s">
         <v>9</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="3" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4453,7 +4543,7 @@
       <c r="E141" t="s">
         <v>9</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="3" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4473,7 +4563,7 @@
       <c r="E142" t="s">
         <v>9</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="3" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4493,7 +4583,7 @@
       <c r="E143" t="s">
         <v>9</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4513,7 +4603,7 @@
       <c r="E144" t="s">
         <v>9</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="3" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4533,7 +4623,7 @@
       <c r="E145" t="s">
         <v>9</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="3" t="s">
         <v>391</v>
       </c>
     </row>
@@ -4553,7 +4643,7 @@
       <c r="E146" t="s">
         <v>9</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="3" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4573,7 +4663,7 @@
       <c r="E147" t="s">
         <v>9</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="3" t="s">
         <v>393</v>
       </c>
     </row>
@@ -4593,7 +4683,7 @@
       <c r="E148" t="s">
         <v>9</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="3" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4613,7 +4703,7 @@
       <c r="E149" t="s">
         <v>9</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="3" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4633,7 +4723,7 @@
       <c r="E150" t="s">
         <v>9</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="3" t="s">
         <v>395</v>
       </c>
     </row>
@@ -4653,7 +4743,7 @@
       <c r="E151" t="s">
         <v>9</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="3" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4673,7 +4763,7 @@
       <c r="E152" t="s">
         <v>9</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="3" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4693,7 +4783,7 @@
       <c r="E153" t="s">
         <v>9</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="3" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4713,7 +4803,7 @@
       <c r="E154" t="s">
         <v>9</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="3" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4733,7 +4823,7 @@
       <c r="E155" t="s">
         <v>9</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="3" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4753,7 +4843,7 @@
       <c r="E156" t="s">
         <v>9</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="3" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4773,7 +4863,7 @@
       <c r="E157" t="s">
         <v>9</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="3" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4793,7 +4883,7 @@
       <c r="E158" t="s">
         <v>9</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="3" t="s">
         <v>400</v>
       </c>
     </row>
@@ -4813,7 +4903,7 @@
       <c r="E159" t="s">
         <v>9</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="3" t="s">
         <v>401</v>
       </c>
     </row>
@@ -4833,7 +4923,7 @@
       <c r="E160" t="s">
         <v>9</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="3" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4853,7 +4943,7 @@
       <c r="E161" t="s">
         <v>9</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="3" t="s">
         <v>403</v>
       </c>
     </row>
@@ -4873,7 +4963,7 @@
       <c r="E162" t="s">
         <v>9</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="3" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4893,7 +4983,7 @@
       <c r="E163" t="s">
         <v>9</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4913,7 +5003,7 @@
       <c r="E164" t="s">
         <v>9</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="3" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4933,7 +5023,7 @@
       <c r="E165" t="s">
         <v>9</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F165" s="4" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4953,7 +5043,7 @@
       <c r="E166" t="s">
         <v>9</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4973,7 +5063,7 @@
       <c r="E167" t="s">
         <v>9</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4993,7 +5083,7 @@
       <c r="E168" t="s">
         <v>9</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5013,7 +5103,7 @@
       <c r="E169" t="s">
         <v>9</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5033,7 +5123,7 @@
       <c r="E170" t="s">
         <v>9</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5053,7 +5143,7 @@
       <c r="E171" t="s">
         <v>9</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5073,7 +5163,7 @@
       <c r="E172" t="s">
         <v>9</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5093,7 +5183,7 @@
       <c r="E173" t="s">
         <v>9</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5113,7 +5203,7 @@
       <c r="E174" t="s">
         <v>9</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5133,7 +5223,7 @@
       <c r="E175" t="s">
         <v>9</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5153,7 +5243,7 @@
       <c r="E176" t="s">
         <v>9</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5173,7 +5263,7 @@
       <c r="E177" t="s">
         <v>9</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5193,7 +5283,7 @@
       <c r="E178" t="s">
         <v>9</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="3" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5213,7 +5303,7 @@
       <c r="E179" t="s">
         <v>9</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="3" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5233,7 +5323,7 @@
       <c r="E180" t="s">
         <v>9</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5253,6 +5343,9 @@
       <c r="E181" t="s">
         <v>9</v>
       </c>
+      <c r="F181" s="3" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
@@ -5270,6 +5363,9 @@
       <c r="E182" t="s">
         <v>9</v>
       </c>
+      <c r="F182" s="3" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
@@ -5287,6 +5383,9 @@
       <c r="E183" t="s">
         <v>9</v>
       </c>
+      <c r="F183" s="3" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
@@ -5304,6 +5403,9 @@
       <c r="E184" t="s">
         <v>9</v>
       </c>
+      <c r="F184" s="3" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
@@ -5321,6 +5423,9 @@
       <c r="E185" t="s">
         <v>9</v>
       </c>
+      <c r="F185" s="3" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
@@ -5338,6 +5443,9 @@
       <c r="E186" t="s">
         <v>9</v>
       </c>
+      <c r="F186" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
@@ -5355,6 +5463,9 @@
       <c r="E187" t="s">
         <v>9</v>
       </c>
+      <c r="F187" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
@@ -5372,6 +5483,9 @@
       <c r="E188" t="s">
         <v>9</v>
       </c>
+      <c r="F188" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
@@ -5389,6 +5503,9 @@
       <c r="E189" t="s">
         <v>9</v>
       </c>
+      <c r="F189" s="3" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
@@ -5406,6 +5523,9 @@
       <c r="E190" t="s">
         <v>9</v>
       </c>
+      <c r="F190" s="3" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
@@ -5423,6 +5543,9 @@
       <c r="E191" t="s">
         <v>9</v>
       </c>
+      <c r="F191" s="3" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
@@ -5440,8 +5563,11 @@
       <c r="E192" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>271</v>
       </c>
@@ -5457,8 +5583,11 @@
       <c r="E193" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>272</v>
       </c>
@@ -5474,8 +5603,11 @@
       <c r="E194" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>273</v>
       </c>
@@ -5491,8 +5623,11 @@
       <c r="E195" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>274</v>
       </c>
@@ -5508,8 +5643,11 @@
       <c r="E196" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>275</v>
       </c>
@@ -5525,8 +5663,11 @@
       <c r="E197" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>276</v>
       </c>
@@ -5542,8 +5683,11 @@
       <c r="E198" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>277</v>
       </c>
@@ -5559,8 +5703,11 @@
       <c r="E199" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>279</v>
       </c>
@@ -5576,8 +5723,11 @@
       <c r="E200" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>281</v>
       </c>
@@ -5593,8 +5743,11 @@
       <c r="E201" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>283</v>
       </c>
@@ -5610,8 +5763,11 @@
       <c r="E202" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>284</v>
       </c>
@@ -5627,8 +5783,11 @@
       <c r="E203" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>285</v>
       </c>
@@ -5644,8 +5803,11 @@
       <c r="E204" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>287</v>
       </c>
@@ -5661,8 +5823,11 @@
       <c r="E205" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>288</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="E206" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>290</v>
       </c>
@@ -5695,8 +5863,11 @@
       <c r="E207" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>291</v>
       </c>
@@ -5712,8 +5883,11 @@
       <c r="E208" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>292</v>
       </c>
@@ -5729,8 +5903,11 @@
       <c r="E209" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>293</v>
       </c>
@@ -5746,8 +5923,11 @@
       <c r="E210" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>294</v>
       </c>
@@ -5763,8 +5943,11 @@
       <c r="E211" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>296</v>
       </c>
@@ -5780,8 +5963,11 @@
       <c r="E212" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>297</v>
       </c>
@@ -5797,8 +5983,11 @@
       <c r="E213" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>298</v>
       </c>
@@ -5814,8 +6003,11 @@
       <c r="E214" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>299</v>
       </c>
@@ -5831,8 +6023,11 @@
       <c r="E215" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>300</v>
       </c>
@@ -5848,8 +6043,11 @@
       <c r="E216" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>301</v>
       </c>
@@ -5865,8 +6063,11 @@
       <c r="E217" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>302</v>
       </c>
@@ -5882,8 +6083,11 @@
       <c r="E218" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>303</v>
       </c>
@@ -5899,8 +6103,11 @@
       <c r="E219" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>304</v>
       </c>
@@ -5916,8 +6123,11 @@
       <c r="E220" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>305</v>
       </c>
@@ -5933,8 +6143,11 @@
       <c r="E221" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>306</v>
       </c>
@@ -5950,8 +6163,11 @@
       <c r="E222" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>307</v>
       </c>
@@ -5967,8 +6183,11 @@
       <c r="E223" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>308</v>
       </c>
@@ -5984,8 +6203,11 @@
       <c r="E224" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>309</v>
       </c>
@@ -6001,8 +6223,11 @@
       <c r="E225" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>310</v>
       </c>
@@ -6018,8 +6243,11 @@
       <c r="E226" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>311</v>
       </c>
@@ -6035,8 +6263,11 @@
       <c r="E227" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>312</v>
       </c>
@@ -6052,8 +6283,11 @@
       <c r="E228" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>313</v>
       </c>
@@ -6069,8 +6303,11 @@
       <c r="E229" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>314</v>
       </c>
@@ -6086,8 +6323,11 @@
       <c r="E230" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>315</v>
       </c>
@@ -6103,8 +6343,11 @@
       <c r="E231" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>316</v>
       </c>
@@ -6120,8 +6363,11 @@
       <c r="E232" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>317</v>
       </c>
@@ -6137,8 +6383,11 @@
       <c r="E233" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>318</v>
       </c>
@@ -6154,8 +6403,11 @@
       <c r="E234" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>319</v>
       </c>
@@ -6171,8 +6423,11 @@
       <c r="E235" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>320</v>
       </c>
@@ -6188,8 +6443,11 @@
       <c r="E236" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>321</v>
       </c>
@@ -6205,8 +6463,11 @@
       <c r="E237" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>323</v>
       </c>
@@ -6222,8 +6483,11 @@
       <c r="E238" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>324</v>
       </c>
@@ -6239,8 +6503,11 @@
       <c r="E239" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>325</v>
       </c>
@@ -6256,8 +6523,11 @@
       <c r="E240" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>326</v>
       </c>
@@ -6273,8 +6543,11 @@
       <c r="E241" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>328</v>
       </c>
@@ -6290,8 +6563,11 @@
       <c r="E242" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>329</v>
       </c>
@@ -6307,8 +6583,11 @@
       <c r="E243" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>330</v>
       </c>
@@ -6324,8 +6603,11 @@
       <c r="E244" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>331</v>
       </c>
@@ -6341,8 +6623,11 @@
       <c r="E245" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>332</v>
       </c>
@@ -6357,6 +6642,9 @@
       </c>
       <c r="E246" t="s">
         <v>9</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF83330-8808-0D41-B192-D9985288019B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6416A-D03B-D342-ADC0-0EDE94DA33DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="464">
   <si>
     <t>Fig Index</t>
   </si>
@@ -1067,9 +1067,6 @@
     <t>Fold change</t>
   </si>
   <si>
-    <t>Lymphatic vessel densitu (%)</t>
-  </si>
-  <si>
     <t>HSC frequency (%)</t>
   </si>
   <si>
@@ -1097,9 +1094,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Log20 CFU/mL</t>
-  </si>
-  <si>
     <t>MIC (µg/mL)</t>
   </si>
   <si>
@@ -1121,9 +1115,6 @@
     <t>Relative percent error</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>AUROC</t>
   </si>
   <si>
@@ -1329,13 +1320,118 @@
   </si>
   <si>
     <t>Expression level/GAPDH log10</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Prediction metric</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Lymphatic vessel density (%)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Log10 CFU/mL</t>
+  </si>
+  <si>
+    <t>Colony count</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Equilibrium constant</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Colon length</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Conservation</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,6 +1452,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1365,7 +1469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1399,11 +1503,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1413,6 +1526,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1715,19 +1835,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" zoomScale="183" workbookViewId="0">
-      <selection activeCell="F245" sqref="F245"/>
+      <selection activeCell="K241" sqref="K241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3"/>
+    <col min="6" max="6" width="31.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,8 +1869,23 @@
       <c r="F1" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,8 +1904,23 @@
       <c r="F2" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1786,8 +1939,23 @@
       <c r="F3" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H3" t="s">
+        <v>435</v>
+      </c>
+      <c r="I3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1806,8 +1974,23 @@
       <c r="F4" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1826,8 +2009,23 @@
       <c r="F5" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H5" t="s">
+        <v>435</v>
+      </c>
+      <c r="I5" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" t="s">
+        <v>436</v>
+      </c>
+      <c r="K5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1846,8 +2044,23 @@
       <c r="F6" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J6" t="s">
+        <v>436</v>
+      </c>
+      <c r="K6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1866,8 +2079,23 @@
       <c r="F7" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I7" t="s">
+        <v>336</v>
+      </c>
+      <c r="J7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1886,8 +2114,23 @@
       <c r="F8" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1906,8 +2149,23 @@
       <c r="F9" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H9" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J9" t="s">
+        <v>436</v>
+      </c>
+      <c r="K9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +2184,23 @@
       <c r="F10" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>434</v>
+      </c>
+      <c r="H10" t="s">
+        <v>435</v>
+      </c>
+      <c r="I10" t="s">
+        <v>336</v>
+      </c>
+      <c r="J10" t="s">
+        <v>436</v>
+      </c>
+      <c r="K10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1946,8 +2219,23 @@
       <c r="F11" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I11" t="s">
+        <v>336</v>
+      </c>
+      <c r="J11" t="s">
+        <v>436</v>
+      </c>
+      <c r="K11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1966,8 +2254,23 @@
       <c r="F12" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>434</v>
+      </c>
+      <c r="H12" t="s">
+        <v>435</v>
+      </c>
+      <c r="I12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J12" t="s">
+        <v>436</v>
+      </c>
+      <c r="K12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1986,8 +2289,23 @@
       <c r="F13" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>434</v>
+      </c>
+      <c r="H13" t="s">
+        <v>435</v>
+      </c>
+      <c r="I13" t="s">
+        <v>336</v>
+      </c>
+      <c r="J13" t="s">
+        <v>436</v>
+      </c>
+      <c r="K13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2006,8 +2324,23 @@
       <c r="F14" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>434</v>
+      </c>
+      <c r="H14" t="s">
+        <v>435</v>
+      </c>
+      <c r="I14" t="s">
+        <v>336</v>
+      </c>
+      <c r="J14" t="s">
+        <v>436</v>
+      </c>
+      <c r="K14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -2026,8 +2359,23 @@
       <c r="F15" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>434</v>
+      </c>
+      <c r="H15" t="s">
+        <v>435</v>
+      </c>
+      <c r="I15" t="s">
+        <v>336</v>
+      </c>
+      <c r="J15" t="s">
+        <v>436</v>
+      </c>
+      <c r="K15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2046,8 +2394,23 @@
       <c r="F16" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>434</v>
+      </c>
+      <c r="H16" t="s">
+        <v>435</v>
+      </c>
+      <c r="I16" t="s">
+        <v>336</v>
+      </c>
+      <c r="J16" t="s">
+        <v>436</v>
+      </c>
+      <c r="K16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2066,8 +2429,23 @@
       <c r="F17" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>434</v>
+      </c>
+      <c r="H17" t="s">
+        <v>435</v>
+      </c>
+      <c r="I17" t="s">
+        <v>336</v>
+      </c>
+      <c r="J17" t="s">
+        <v>436</v>
+      </c>
+      <c r="K17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2086,8 +2464,23 @@
       <c r="F18" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>434</v>
+      </c>
+      <c r="H18" t="s">
+        <v>435</v>
+      </c>
+      <c r="I18" t="s">
+        <v>336</v>
+      </c>
+      <c r="J18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2106,8 +2499,23 @@
       <c r="F19" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H19" t="s">
+        <v>435</v>
+      </c>
+      <c r="I19" t="s">
+        <v>336</v>
+      </c>
+      <c r="J19" t="s">
+        <v>436</v>
+      </c>
+      <c r="K19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -2126,8 +2534,23 @@
       <c r="F20" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>434</v>
+      </c>
+      <c r="H20" t="s">
+        <v>435</v>
+      </c>
+      <c r="I20" t="s">
+        <v>336</v>
+      </c>
+      <c r="J20" t="s">
+        <v>436</v>
+      </c>
+      <c r="K20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2146,8 +2569,23 @@
       <c r="F21" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>434</v>
+      </c>
+      <c r="H21" t="s">
+        <v>435</v>
+      </c>
+      <c r="I21" t="s">
+        <v>336</v>
+      </c>
+      <c r="J21" t="s">
+        <v>436</v>
+      </c>
+      <c r="K21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2166,8 +2604,23 @@
       <c r="F22" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>434</v>
+      </c>
+      <c r="H22" t="s">
+        <v>435</v>
+      </c>
+      <c r="I22" t="s">
+        <v>336</v>
+      </c>
+      <c r="J22" t="s">
+        <v>436</v>
+      </c>
+      <c r="K22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2186,8 +2639,23 @@
       <c r="F23" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>434</v>
+      </c>
+      <c r="H23" t="s">
+        <v>435</v>
+      </c>
+      <c r="I23" t="s">
+        <v>336</v>
+      </c>
+      <c r="J23" t="s">
+        <v>436</v>
+      </c>
+      <c r="K23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2206,8 +2674,23 @@
       <c r="F24" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" t="s">
+        <v>435</v>
+      </c>
+      <c r="I24" t="s">
+        <v>336</v>
+      </c>
+      <c r="J24" t="s">
+        <v>436</v>
+      </c>
+      <c r="K24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2226,8 +2709,23 @@
       <c r="F25" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" t="s">
+        <v>435</v>
+      </c>
+      <c r="I25" t="s">
+        <v>336</v>
+      </c>
+      <c r="J25" t="s">
+        <v>436</v>
+      </c>
+      <c r="K25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2246,8 +2744,23 @@
       <c r="F26" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>434</v>
+      </c>
+      <c r="H26" t="s">
+        <v>435</v>
+      </c>
+      <c r="I26" t="s">
+        <v>336</v>
+      </c>
+      <c r="J26" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -2266,8 +2779,23 @@
       <c r="F27" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>438</v>
+      </c>
+      <c r="H27" t="s">
+        <v>439</v>
+      </c>
+      <c r="I27" t="s">
+        <v>440</v>
+      </c>
+      <c r="J27" t="s">
+        <v>440</v>
+      </c>
+      <c r="K27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -2286,8 +2814,23 @@
       <c r="F28" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>434</v>
+      </c>
+      <c r="H28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I28" t="s">
+        <v>441</v>
+      </c>
+      <c r="J28" t="s">
+        <v>441</v>
+      </c>
+      <c r="K28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -2306,8 +2849,23 @@
       <c r="F29" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>434</v>
+      </c>
+      <c r="H29" t="s">
+        <v>439</v>
+      </c>
+      <c r="I29" t="s">
+        <v>441</v>
+      </c>
+      <c r="J29" t="s">
+        <v>441</v>
+      </c>
+      <c r="K29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -2326,8 +2884,23 @@
       <c r="F30" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>434</v>
+      </c>
+      <c r="H30" t="s">
+        <v>439</v>
+      </c>
+      <c r="I30" t="s">
+        <v>441</v>
+      </c>
+      <c r="J30" t="s">
+        <v>441</v>
+      </c>
+      <c r="K30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2346,8 +2919,23 @@
       <c r="F31" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>434</v>
+      </c>
+      <c r="H31" t="s">
+        <v>439</v>
+      </c>
+      <c r="I31" t="s">
+        <v>441</v>
+      </c>
+      <c r="J31" t="s">
+        <v>441</v>
+      </c>
+      <c r="K31" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -2366,8 +2954,23 @@
       <c r="F32" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" t="s">
+        <v>439</v>
+      </c>
+      <c r="I32" t="s">
+        <v>441</v>
+      </c>
+      <c r="J32" t="s">
+        <v>441</v>
+      </c>
+      <c r="K32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -2386,8 +2989,23 @@
       <c r="F33" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>434</v>
+      </c>
+      <c r="H33" t="s">
+        <v>439</v>
+      </c>
+      <c r="I33" t="s">
+        <v>441</v>
+      </c>
+      <c r="J33" t="s">
+        <v>441</v>
+      </c>
+      <c r="K33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -2406,8 +3024,23 @@
       <c r="F34" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>434</v>
+      </c>
+      <c r="H34" t="s">
+        <v>439</v>
+      </c>
+      <c r="I34" t="s">
+        <v>441</v>
+      </c>
+      <c r="J34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2426,8 +3059,23 @@
       <c r="F35" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>434</v>
+      </c>
+      <c r="H35" t="s">
+        <v>439</v>
+      </c>
+      <c r="I35" t="s">
+        <v>441</v>
+      </c>
+      <c r="J35" t="s">
+        <v>441</v>
+      </c>
+      <c r="K35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -2446,8 +3094,23 @@
       <c r="F36" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>434</v>
+      </c>
+      <c r="H36" t="s">
+        <v>439</v>
+      </c>
+      <c r="I36" t="s">
+        <v>441</v>
+      </c>
+      <c r="J36" t="s">
+        <v>441</v>
+      </c>
+      <c r="K36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -2466,8 +3129,23 @@
       <c r="F37" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>434</v>
+      </c>
+      <c r="H37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I37" t="s">
+        <v>441</v>
+      </c>
+      <c r="J37" t="s">
+        <v>441</v>
+      </c>
+      <c r="K37" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -2486,8 +3164,23 @@
       <c r="F38" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>434</v>
+      </c>
+      <c r="H38" t="s">
+        <v>439</v>
+      </c>
+      <c r="I38" t="s">
+        <v>441</v>
+      </c>
+      <c r="J38" t="s">
+        <v>441</v>
+      </c>
+      <c r="K38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
@@ -2506,8 +3199,23 @@
       <c r="F39" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H39" t="s">
+        <v>439</v>
+      </c>
+      <c r="I39" t="s">
+        <v>441</v>
+      </c>
+      <c r="J39" t="s">
+        <v>441</v>
+      </c>
+      <c r="K39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -2526,8 +3234,23 @@
       <c r="F40" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>434</v>
+      </c>
+      <c r="H40" t="s">
+        <v>439</v>
+      </c>
+      <c r="I40" t="s">
+        <v>441</v>
+      </c>
+      <c r="J40" t="s">
+        <v>441</v>
+      </c>
+      <c r="K40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -2546,8 +3269,23 @@
       <c r="F41" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>434</v>
+      </c>
+      <c r="H41" t="s">
+        <v>439</v>
+      </c>
+      <c r="I41" t="s">
+        <v>441</v>
+      </c>
+      <c r="J41" t="s">
+        <v>441</v>
+      </c>
+      <c r="K41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -2566,8 +3304,23 @@
       <c r="F42" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>434</v>
+      </c>
+      <c r="H42" t="s">
+        <v>439</v>
+      </c>
+      <c r="I42" t="s">
+        <v>441</v>
+      </c>
+      <c r="J42" t="s">
+        <v>441</v>
+      </c>
+      <c r="K42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -2586,8 +3339,23 @@
       <c r="F43" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>434</v>
+      </c>
+      <c r="H43" t="s">
+        <v>439</v>
+      </c>
+      <c r="I43" t="s">
+        <v>441</v>
+      </c>
+      <c r="J43" t="s">
+        <v>441</v>
+      </c>
+      <c r="K43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -2606,8 +3374,23 @@
       <c r="F44" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>434</v>
+      </c>
+      <c r="H44" t="s">
+        <v>439</v>
+      </c>
+      <c r="I44" t="s">
+        <v>441</v>
+      </c>
+      <c r="J44" t="s">
+        <v>441</v>
+      </c>
+      <c r="K44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
@@ -2626,8 +3409,23 @@
       <c r="F45" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>438</v>
+      </c>
+      <c r="H45" t="s">
+        <v>439</v>
+      </c>
+      <c r="I45" t="s">
+        <v>443</v>
+      </c>
+      <c r="J45" t="s">
+        <v>443</v>
+      </c>
+      <c r="K45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -2646,8 +3444,23 @@
       <c r="F46" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>438</v>
+      </c>
+      <c r="H46" t="s">
+        <v>439</v>
+      </c>
+      <c r="I46" t="s">
+        <v>444</v>
+      </c>
+      <c r="J46" t="s">
+        <v>444</v>
+      </c>
+      <c r="K46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
@@ -2666,8 +3479,23 @@
       <c r="F47" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>438</v>
+      </c>
+      <c r="H47" t="s">
+        <v>439</v>
+      </c>
+      <c r="I47" t="s">
+        <v>444</v>
+      </c>
+      <c r="J47" t="s">
+        <v>444</v>
+      </c>
+      <c r="K47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -2686,8 +3514,23 @@
       <c r="F48" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>438</v>
+      </c>
+      <c r="H48" t="s">
+        <v>439</v>
+      </c>
+      <c r="I48" t="s">
+        <v>444</v>
+      </c>
+      <c r="J48" t="s">
+        <v>444</v>
+      </c>
+      <c r="K48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>83</v>
       </c>
@@ -2706,8 +3549,23 @@
       <c r="F49" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>438</v>
+      </c>
+      <c r="H49" t="s">
+        <v>439</v>
+      </c>
+      <c r="I49" t="s">
+        <v>444</v>
+      </c>
+      <c r="J49" t="s">
+        <v>444</v>
+      </c>
+      <c r="K49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -2726,8 +3584,23 @@
       <c r="F50" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>438</v>
+      </c>
+      <c r="H50" t="s">
+        <v>439</v>
+      </c>
+      <c r="I50" t="s">
+        <v>443</v>
+      </c>
+      <c r="J50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -2746,8 +3619,23 @@
       <c r="F51" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -2764,10 +3652,25 @@
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>434</v>
+      </c>
+      <c r="H52" t="s">
+        <v>352</v>
+      </c>
+      <c r="I52" t="s">
+        <v>352</v>
+      </c>
+      <c r="J52" t="s">
+        <v>352</v>
+      </c>
+      <c r="K52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
@@ -2784,10 +3687,25 @@
         <v>9</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="G53" t="s">
+        <v>434</v>
+      </c>
+      <c r="H53" t="s">
+        <v>352</v>
+      </c>
+      <c r="I53" t="s">
+        <v>352</v>
+      </c>
+      <c r="J53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -2804,10 +3722,25 @@
         <v>9</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="G54" t="s">
+        <v>434</v>
+      </c>
+      <c r="H54" t="s">
+        <v>352</v>
+      </c>
+      <c r="I54" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" t="s">
+        <v>352</v>
+      </c>
+      <c r="K54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
@@ -2824,10 +3757,25 @@
         <v>9</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="G55" t="s">
+        <v>434</v>
+      </c>
+      <c r="H55" t="s">
+        <v>352</v>
+      </c>
+      <c r="I55" t="s">
+        <v>352</v>
+      </c>
+      <c r="J55" t="s">
+        <v>352</v>
+      </c>
+      <c r="K55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
@@ -2844,10 +3792,25 @@
         <v>9</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="G56" t="s">
+        <v>434</v>
+      </c>
+      <c r="H56" t="s">
+        <v>352</v>
+      </c>
+      <c r="I56" t="s">
+        <v>352</v>
+      </c>
+      <c r="J56" t="s">
+        <v>352</v>
+      </c>
+      <c r="K56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>92</v>
       </c>
@@ -2864,10 +3827,25 @@
         <v>9</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="G57" t="s">
+        <v>434</v>
+      </c>
+      <c r="H57" t="s">
+        <v>352</v>
+      </c>
+      <c r="I57" t="s">
+        <v>352</v>
+      </c>
+      <c r="J57" t="s">
+        <v>352</v>
+      </c>
+      <c r="K57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -2884,10 +3862,25 @@
         <v>9</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
@@ -2904,10 +3897,25 @@
         <v>9</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
@@ -2924,10 +3932,25 @@
         <v>9</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>97</v>
       </c>
@@ -2944,10 +3967,25 @@
         <v>9</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="G61" t="s">
+        <v>434</v>
+      </c>
+      <c r="H61" t="s">
+        <v>352</v>
+      </c>
+      <c r="I61" t="s">
+        <v>352</v>
+      </c>
+      <c r="J61" t="s">
+        <v>352</v>
+      </c>
+      <c r="K61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -2964,10 +4002,25 @@
         <v>9</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="G62" t="s">
+        <v>434</v>
+      </c>
+      <c r="H62" t="s">
+        <v>352</v>
+      </c>
+      <c r="I62" t="s">
+        <v>352</v>
+      </c>
+      <c r="J62" t="s">
+        <v>352</v>
+      </c>
+      <c r="K62" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
@@ -2984,10 +4037,25 @@
         <v>9</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>101</v>
       </c>
@@ -3004,10 +4072,25 @@
         <v>9</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="G64" t="s">
+        <v>434</v>
+      </c>
+      <c r="H64" t="s">
+        <v>335</v>
+      </c>
+      <c r="I64" t="s">
+        <v>335</v>
+      </c>
+      <c r="J64" t="s">
+        <v>335</v>
+      </c>
+      <c r="K64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
@@ -3024,10 +4107,25 @@
         <v>9</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="G65" t="s">
+        <v>438</v>
+      </c>
+      <c r="H65" t="s">
+        <v>439</v>
+      </c>
+      <c r="I65" t="s">
+        <v>443</v>
+      </c>
+      <c r="J65" t="s">
+        <v>443</v>
+      </c>
+      <c r="K65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
@@ -3044,10 +4142,25 @@
         <v>9</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="G66" t="s">
+        <v>438</v>
+      </c>
+      <c r="H66" t="s">
+        <v>439</v>
+      </c>
+      <c r="I66" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" t="s">
+        <v>443</v>
+      </c>
+      <c r="K66" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
@@ -3064,10 +4177,25 @@
         <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="G67" t="s">
+        <v>438</v>
+      </c>
+      <c r="H67" t="s">
+        <v>439</v>
+      </c>
+      <c r="I67" t="s">
+        <v>443</v>
+      </c>
+      <c r="J67" t="s">
+        <v>443</v>
+      </c>
+      <c r="K67" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
@@ -3084,10 +4212,25 @@
         <v>9</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K68" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -3104,10 +4247,25 @@
         <v>9</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>110</v>
       </c>
@@ -3124,10 +4282,25 @@
         <v>9</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="G70" t="s">
+        <v>434</v>
+      </c>
+      <c r="H70" t="s">
+        <v>352</v>
+      </c>
+      <c r="I70" t="s">
+        <v>352</v>
+      </c>
+      <c r="J70" t="s">
+        <v>352</v>
+      </c>
+      <c r="K70" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>111</v>
       </c>
@@ -3144,10 +4317,25 @@
         <v>9</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="G71" t="s">
+        <v>434</v>
+      </c>
+      <c r="H71" t="s">
+        <v>352</v>
+      </c>
+      <c r="I71" t="s">
+        <v>352</v>
+      </c>
+      <c r="J71" t="s">
+        <v>352</v>
+      </c>
+      <c r="K71" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -3164,10 +4352,25 @@
         <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+      <c r="G72" t="s">
+        <v>438</v>
+      </c>
+      <c r="H72" t="s">
+        <v>439</v>
+      </c>
+      <c r="I72" t="s">
+        <v>448</v>
+      </c>
+      <c r="J72" t="s">
+        <v>443</v>
+      </c>
+      <c r="K72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
@@ -3184,10 +4387,25 @@
         <v>9</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="G73" t="s">
+        <v>438</v>
+      </c>
+      <c r="H73" t="s">
+        <v>439</v>
+      </c>
+      <c r="I73" t="s">
+        <v>444</v>
+      </c>
+      <c r="J73" t="s">
+        <v>444</v>
+      </c>
+      <c r="K73" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>115</v>
       </c>
@@ -3204,10 +4422,25 @@
         <v>9</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="G74" t="s">
+        <v>434</v>
+      </c>
+      <c r="H74" t="s">
+        <v>352</v>
+      </c>
+      <c r="I74" t="s">
+        <v>352</v>
+      </c>
+      <c r="J74" t="s">
+        <v>352</v>
+      </c>
+      <c r="K74" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
@@ -3224,10 +4457,25 @@
         <v>9</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="G75" t="s">
+        <v>434</v>
+      </c>
+      <c r="H75" t="s">
+        <v>352</v>
+      </c>
+      <c r="I75" t="s">
+        <v>352</v>
+      </c>
+      <c r="J75" t="s">
+        <v>352</v>
+      </c>
+      <c r="K75" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -3244,10 +4492,25 @@
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="G76" t="s">
+        <v>434</v>
+      </c>
+      <c r="H76" t="s">
+        <v>352</v>
+      </c>
+      <c r="I76" t="s">
+        <v>352</v>
+      </c>
+      <c r="J76" t="s">
+        <v>352</v>
+      </c>
+      <c r="K76" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>119</v>
       </c>
@@ -3264,10 +4527,25 @@
         <v>9</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="G77" t="s">
+        <v>434</v>
+      </c>
+      <c r="H77" t="s">
+        <v>335</v>
+      </c>
+      <c r="I77" t="s">
+        <v>335</v>
+      </c>
+      <c r="J77" t="s">
+        <v>335</v>
+      </c>
+      <c r="K77" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
@@ -3284,10 +4562,25 @@
         <v>9</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+      <c r="G78" t="s">
+        <v>438</v>
+      </c>
+      <c r="H78" t="s">
+        <v>439</v>
+      </c>
+      <c r="I78" t="s">
+        <v>394</v>
+      </c>
+      <c r="J78" t="s">
+        <v>394</v>
+      </c>
+      <c r="K78" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
@@ -3304,10 +4597,25 @@
         <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="G79" t="s">
+        <v>434</v>
+      </c>
+      <c r="H79" t="s">
+        <v>335</v>
+      </c>
+      <c r="I79" t="s">
+        <v>335</v>
+      </c>
+      <c r="J79" t="s">
+        <v>335</v>
+      </c>
+      <c r="K79" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
@@ -3324,10 +4632,25 @@
         <v>9</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="G80" t="s">
+        <v>434</v>
+      </c>
+      <c r="H80" t="s">
+        <v>335</v>
+      </c>
+      <c r="I80" t="s">
+        <v>335</v>
+      </c>
+      <c r="J80" t="s">
+        <v>335</v>
+      </c>
+      <c r="K80" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>124</v>
       </c>
@@ -3344,10 +4667,25 @@
         <v>9</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="G81" t="s">
+        <v>434</v>
+      </c>
+      <c r="H81" t="s">
+        <v>335</v>
+      </c>
+      <c r="I81" t="s">
+        <v>335</v>
+      </c>
+      <c r="J81" t="s">
+        <v>335</v>
+      </c>
+      <c r="K81" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>125</v>
       </c>
@@ -3364,10 +4702,25 @@
         <v>9</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="G82" t="s">
+        <v>434</v>
+      </c>
+      <c r="H82" t="s">
+        <v>335</v>
+      </c>
+      <c r="I82" t="s">
+        <v>335</v>
+      </c>
+      <c r="J82" t="s">
+        <v>335</v>
+      </c>
+      <c r="K82" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>126</v>
       </c>
@@ -3384,10 +4737,25 @@
         <v>9</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="G83" t="s">
+        <v>438</v>
+      </c>
+      <c r="H83" t="s">
+        <v>439</v>
+      </c>
+      <c r="I83" t="s">
+        <v>443</v>
+      </c>
+      <c r="J83" t="s">
+        <v>443</v>
+      </c>
+      <c r="K83" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>127</v>
       </c>
@@ -3404,10 +4772,25 @@
         <v>9</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="G84" t="s">
+        <v>434</v>
+      </c>
+      <c r="H84" t="s">
+        <v>335</v>
+      </c>
+      <c r="I84" t="s">
+        <v>335</v>
+      </c>
+      <c r="J84" t="s">
+        <v>335</v>
+      </c>
+      <c r="K84" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>128</v>
       </c>
@@ -3424,10 +4807,25 @@
         <v>9</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="G85" t="s">
+        <v>438</v>
+      </c>
+      <c r="H85" t="s">
+        <v>439</v>
+      </c>
+      <c r="I85" t="s">
+        <v>448</v>
+      </c>
+      <c r="J85" t="s">
+        <v>443</v>
+      </c>
+      <c r="K85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>130</v>
       </c>
@@ -3444,10 +4842,25 @@
         <v>9</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="G86" t="s">
+        <v>438</v>
+      </c>
+      <c r="H86" t="s">
+        <v>439</v>
+      </c>
+      <c r="I86" t="s">
+        <v>448</v>
+      </c>
+      <c r="J86" t="s">
+        <v>443</v>
+      </c>
+      <c r="K86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>131</v>
       </c>
@@ -3464,10 +4877,25 @@
         <v>9</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="G87" t="s">
+        <v>438</v>
+      </c>
+      <c r="H87" t="s">
+        <v>439</v>
+      </c>
+      <c r="I87" t="s">
+        <v>448</v>
+      </c>
+      <c r="J87" t="s">
+        <v>443</v>
+      </c>
+      <c r="K87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>132</v>
       </c>
@@ -3484,10 +4912,25 @@
         <v>9</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="G88" t="s">
+        <v>438</v>
+      </c>
+      <c r="H88" t="s">
+        <v>439</v>
+      </c>
+      <c r="I88" t="s">
+        <v>448</v>
+      </c>
+      <c r="J88" t="s">
+        <v>443</v>
+      </c>
+      <c r="K88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>133</v>
       </c>
@@ -3504,10 +4947,25 @@
         <v>9</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="G89" t="s">
+        <v>434</v>
+      </c>
+      <c r="H89" t="s">
+        <v>435</v>
+      </c>
+      <c r="I89" t="s">
+        <v>359</v>
+      </c>
+      <c r="J89" t="s">
+        <v>436</v>
+      </c>
+      <c r="K89" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>135</v>
       </c>
@@ -3524,10 +4982,25 @@
         <v>9</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="G90" t="s">
+        <v>434</v>
+      </c>
+      <c r="H90" t="s">
+        <v>435</v>
+      </c>
+      <c r="I90" t="s">
+        <v>359</v>
+      </c>
+      <c r="J90" t="s">
+        <v>436</v>
+      </c>
+      <c r="K90" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>136</v>
       </c>
@@ -3544,10 +5017,25 @@
         <v>9</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="G91" t="s">
+        <v>434</v>
+      </c>
+      <c r="H91" t="s">
+        <v>435</v>
+      </c>
+      <c r="I91" t="s">
+        <v>359</v>
+      </c>
+      <c r="J91" t="s">
+        <v>436</v>
+      </c>
+      <c r="K91" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>137</v>
       </c>
@@ -3564,10 +5052,25 @@
         <v>9</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="G92" t="s">
+        <v>434</v>
+      </c>
+      <c r="H92" t="s">
+        <v>435</v>
+      </c>
+      <c r="I92" t="s">
+        <v>359</v>
+      </c>
+      <c r="J92" t="s">
+        <v>436</v>
+      </c>
+      <c r="K92" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>138</v>
       </c>
@@ -3584,10 +5087,25 @@
         <v>9</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="G93" t="s">
+        <v>434</v>
+      </c>
+      <c r="H93" t="s">
+        <v>352</v>
+      </c>
+      <c r="I93" t="s">
+        <v>352</v>
+      </c>
+      <c r="J93" t="s">
+        <v>352</v>
+      </c>
+      <c r="K93" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>140</v>
       </c>
@@ -3604,10 +5122,25 @@
         <v>9</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="G94" t="s">
+        <v>434</v>
+      </c>
+      <c r="H94" t="s">
+        <v>435</v>
+      </c>
+      <c r="I94" t="s">
+        <v>449</v>
+      </c>
+      <c r="J94" t="s">
+        <v>436</v>
+      </c>
+      <c r="K94" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>141</v>
       </c>
@@ -3624,10 +5157,25 @@
         <v>9</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="G95" t="s">
+        <v>438</v>
+      </c>
+      <c r="H95" t="s">
+        <v>439</v>
+      </c>
+      <c r="I95" t="s">
+        <v>394</v>
+      </c>
+      <c r="J95" t="s">
+        <v>394</v>
+      </c>
+      <c r="K95" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>143</v>
       </c>
@@ -3644,10 +5192,25 @@
         <v>9</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+      <c r="G96" t="s">
+        <v>438</v>
+      </c>
+      <c r="H96" t="s">
+        <v>439</v>
+      </c>
+      <c r="I96" t="s">
+        <v>443</v>
+      </c>
+      <c r="J96" t="s">
+        <v>443</v>
+      </c>
+      <c r="K96" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>144</v>
       </c>
@@ -3664,10 +5227,25 @@
         <v>9</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="G97" t="s">
+        <v>438</v>
+      </c>
+      <c r="H97" t="s">
+        <v>439</v>
+      </c>
+      <c r="I97" t="s">
+        <v>394</v>
+      </c>
+      <c r="J97" t="s">
+        <v>394</v>
+      </c>
+      <c r="K97" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>145</v>
       </c>
@@ -3684,10 +5262,25 @@
         <v>9</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+      <c r="G98" t="s">
+        <v>438</v>
+      </c>
+      <c r="H98" t="s">
+        <v>439</v>
+      </c>
+      <c r="I98" t="s">
+        <v>450</v>
+      </c>
+      <c r="J98" t="s">
+        <v>443</v>
+      </c>
+      <c r="K98" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>146</v>
       </c>
@@ -3704,10 +5297,25 @@
         <v>9</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="G99" t="s">
+        <v>438</v>
+      </c>
+      <c r="H99" t="s">
+        <v>439</v>
+      </c>
+      <c r="I99" t="s">
+        <v>451</v>
+      </c>
+      <c r="J99" t="s">
+        <v>446</v>
+      </c>
+      <c r="K99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>148</v>
       </c>
@@ -3724,10 +5332,25 @@
         <v>9</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="G100" t="s">
+        <v>434</v>
+      </c>
+      <c r="H100" t="s">
+        <v>335</v>
+      </c>
+      <c r="I100" t="s">
+        <v>335</v>
+      </c>
+      <c r="J100" t="s">
+        <v>335</v>
+      </c>
+      <c r="K100" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>150</v>
       </c>
@@ -3744,10 +5367,25 @@
         <v>9</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="G101" t="s">
+        <v>438</v>
+      </c>
+      <c r="H101" t="s">
+        <v>439</v>
+      </c>
+      <c r="I101" t="s">
+        <v>450</v>
+      </c>
+      <c r="J101" t="s">
+        <v>443</v>
+      </c>
+      <c r="K101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>151</v>
       </c>
@@ -3764,10 +5402,25 @@
         <v>9</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="G102" t="s">
+        <v>438</v>
+      </c>
+      <c r="H102" t="s">
+        <v>439</v>
+      </c>
+      <c r="I102" t="s">
+        <v>394</v>
+      </c>
+      <c r="J102" t="s">
+        <v>394</v>
+      </c>
+      <c r="K102" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>152</v>
       </c>
@@ -3784,10 +5437,25 @@
         <v>9</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="G103" t="s">
+        <v>434</v>
+      </c>
+      <c r="H103" t="s">
+        <v>335</v>
+      </c>
+      <c r="I103" t="s">
+        <v>335</v>
+      </c>
+      <c r="J103" t="s">
+        <v>335</v>
+      </c>
+      <c r="K103" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>153</v>
       </c>
@@ -3804,10 +5472,25 @@
         <v>9</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="G104" t="s">
+        <v>434</v>
+      </c>
+      <c r="H104" t="s">
+        <v>335</v>
+      </c>
+      <c r="I104" t="s">
+        <v>335</v>
+      </c>
+      <c r="J104" t="s">
+        <v>335</v>
+      </c>
+      <c r="K104" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>154</v>
       </c>
@@ -3824,10 +5507,25 @@
         <v>9</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="G105" t="s">
+        <v>434</v>
+      </c>
+      <c r="H105" t="s">
+        <v>335</v>
+      </c>
+      <c r="I105" t="s">
+        <v>335</v>
+      </c>
+      <c r="J105" t="s">
+        <v>335</v>
+      </c>
+      <c r="K105" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>156</v>
       </c>
@@ -3844,10 +5542,25 @@
         <v>9</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="G106" t="s">
+        <v>434</v>
+      </c>
+      <c r="H106" t="s">
+        <v>335</v>
+      </c>
+      <c r="I106" t="s">
+        <v>335</v>
+      </c>
+      <c r="J106" t="s">
+        <v>335</v>
+      </c>
+      <c r="K106" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>158</v>
       </c>
@@ -3864,10 +5577,25 @@
         <v>9</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="G107" t="s">
+        <v>434</v>
+      </c>
+      <c r="H107" t="s">
+        <v>335</v>
+      </c>
+      <c r="I107" t="s">
+        <v>335</v>
+      </c>
+      <c r="J107" t="s">
+        <v>335</v>
+      </c>
+      <c r="K107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>159</v>
       </c>
@@ -3884,10 +5612,25 @@
         <v>9</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G108" t="s">
+        <v>438</v>
+      </c>
+      <c r="H108" t="s">
+        <v>439</v>
+      </c>
+      <c r="I108" t="s">
+        <v>450</v>
+      </c>
+      <c r="J108" t="s">
+        <v>443</v>
+      </c>
+      <c r="K108" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -3904,10 +5647,25 @@
         <v>9</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="G109" t="s">
+        <v>438</v>
+      </c>
+      <c r="H109" t="s">
+        <v>439</v>
+      </c>
+      <c r="I109" t="s">
+        <v>452</v>
+      </c>
+      <c r="J109" t="s">
+        <v>452</v>
+      </c>
+      <c r="K109" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>162</v>
       </c>
@@ -3924,10 +5682,25 @@
         <v>9</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="G110" t="s">
+        <v>434</v>
+      </c>
+      <c r="H110" t="s">
+        <v>335</v>
+      </c>
+      <c r="I110" t="s">
+        <v>335</v>
+      </c>
+      <c r="J110" t="s">
+        <v>335</v>
+      </c>
+      <c r="K110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>163</v>
       </c>
@@ -3944,10 +5717,25 @@
         <v>9</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="G111" t="s">
+        <v>434</v>
+      </c>
+      <c r="H111" t="s">
+        <v>352</v>
+      </c>
+      <c r="I111" t="s">
+        <v>352</v>
+      </c>
+      <c r="J111" t="s">
+        <v>352</v>
+      </c>
+      <c r="K111" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>164</v>
       </c>
@@ -3964,10 +5752,25 @@
         <v>9</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="G112" t="s">
+        <v>434</v>
+      </c>
+      <c r="H112" t="s">
+        <v>352</v>
+      </c>
+      <c r="I112" t="s">
+        <v>352</v>
+      </c>
+      <c r="J112" t="s">
+        <v>352</v>
+      </c>
+      <c r="K112" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>165</v>
       </c>
@@ -3984,10 +5787,25 @@
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G113" t="s">
+        <v>438</v>
+      </c>
+      <c r="H113" t="s">
+        <v>439</v>
+      </c>
+      <c r="I113" t="s">
+        <v>453</v>
+      </c>
+      <c r="J113" t="s">
+        <v>393</v>
+      </c>
+      <c r="K113" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>166</v>
       </c>
@@ -4004,10 +5822,25 @@
         <v>9</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G114" t="s">
+        <v>438</v>
+      </c>
+      <c r="H114" t="s">
+        <v>439</v>
+      </c>
+      <c r="I114" t="s">
+        <v>453</v>
+      </c>
+      <c r="J114" t="s">
+        <v>393</v>
+      </c>
+      <c r="K114" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>167</v>
       </c>
@@ -4024,10 +5857,25 @@
         <v>9</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G115" t="s">
+        <v>438</v>
+      </c>
+      <c r="H115" t="s">
+        <v>439</v>
+      </c>
+      <c r="I115" t="s">
+        <v>453</v>
+      </c>
+      <c r="J115" t="s">
+        <v>393</v>
+      </c>
+      <c r="K115" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>168</v>
       </c>
@@ -4044,10 +5892,25 @@
         <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G116" t="s">
+        <v>438</v>
+      </c>
+      <c r="H116" t="s">
+        <v>439</v>
+      </c>
+      <c r="I116" t="s">
+        <v>453</v>
+      </c>
+      <c r="J116" t="s">
+        <v>393</v>
+      </c>
+      <c r="K116" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>169</v>
       </c>
@@ -4064,10 +5927,25 @@
         <v>9</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G117" t="s">
+        <v>438</v>
+      </c>
+      <c r="H117" t="s">
+        <v>439</v>
+      </c>
+      <c r="I117" t="s">
+        <v>453</v>
+      </c>
+      <c r="J117" t="s">
+        <v>393</v>
+      </c>
+      <c r="K117" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>170</v>
       </c>
@@ -4084,10 +5962,25 @@
         <v>9</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="G118" t="s">
+        <v>434</v>
+      </c>
+      <c r="H118" t="s">
+        <v>435</v>
+      </c>
+      <c r="I118" t="s">
+        <v>445</v>
+      </c>
+      <c r="J118" t="s">
+        <v>446</v>
+      </c>
+      <c r="K118" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>171</v>
       </c>
@@ -4104,10 +5997,25 @@
         <v>9</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G119" t="s">
+        <v>438</v>
+      </c>
+      <c r="H119" t="s">
+        <v>439</v>
+      </c>
+      <c r="I119" t="s">
+        <v>450</v>
+      </c>
+      <c r="J119" t="s">
+        <v>443</v>
+      </c>
+      <c r="K119" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>172</v>
       </c>
@@ -4124,10 +6032,25 @@
         <v>9</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="G120" t="s">
+        <v>438</v>
+      </c>
+      <c r="H120" t="s">
+        <v>352</v>
+      </c>
+      <c r="I120" t="s">
+        <v>352</v>
+      </c>
+      <c r="J120" t="s">
+        <v>352</v>
+      </c>
+      <c r="K120" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>173</v>
       </c>
@@ -4144,10 +6067,25 @@
         <v>9</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G121" t="s">
+        <v>438</v>
+      </c>
+      <c r="H121" t="s">
+        <v>439</v>
+      </c>
+      <c r="I121" t="s">
+        <v>450</v>
+      </c>
+      <c r="J121" t="s">
+        <v>443</v>
+      </c>
+      <c r="K121" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>174</v>
       </c>
@@ -4164,10 +6102,25 @@
         <v>9</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="G122" t="s">
+        <v>438</v>
+      </c>
+      <c r="H122" t="s">
+        <v>439</v>
+      </c>
+      <c r="I122" t="s">
+        <v>450</v>
+      </c>
+      <c r="J122" t="s">
+        <v>443</v>
+      </c>
+      <c r="K122" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>175</v>
       </c>
@@ -4184,10 +6137,25 @@
         <v>9</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="G123" t="s">
+        <v>438</v>
+      </c>
+      <c r="H123" t="s">
+        <v>439</v>
+      </c>
+      <c r="I123" t="s">
+        <v>444</v>
+      </c>
+      <c r="J123" t="s">
+        <v>444</v>
+      </c>
+      <c r="K123" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>176</v>
       </c>
@@ -4204,10 +6172,25 @@
         <v>9</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="G124" t="s">
+        <v>438</v>
+      </c>
+      <c r="H124" t="s">
+        <v>439</v>
+      </c>
+      <c r="I124" t="s">
+        <v>452</v>
+      </c>
+      <c r="J124" t="s">
+        <v>452</v>
+      </c>
+      <c r="K124" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>177</v>
       </c>
@@ -4224,10 +6207,25 @@
         <v>9</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="G125" t="s">
+        <v>438</v>
+      </c>
+      <c r="H125" t="s">
+        <v>439</v>
+      </c>
+      <c r="I125" t="s">
+        <v>450</v>
+      </c>
+      <c r="J125" t="s">
+        <v>443</v>
+      </c>
+      <c r="K125" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>178</v>
       </c>
@@ -4244,10 +6242,25 @@
         <v>9</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+      <c r="G126" t="s">
+        <v>438</v>
+      </c>
+      <c r="H126" t="s">
+        <v>439</v>
+      </c>
+      <c r="I126" t="s">
+        <v>444</v>
+      </c>
+      <c r="J126" t="s">
+        <v>444</v>
+      </c>
+      <c r="K126" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>180</v>
       </c>
@@ -4264,10 +6277,25 @@
         <v>9</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G127" t="s">
+        <v>434</v>
+      </c>
+      <c r="H127" t="s">
+        <v>335</v>
+      </c>
+      <c r="I127" t="s">
+        <v>335</v>
+      </c>
+      <c r="J127" t="s">
+        <v>335</v>
+      </c>
+      <c r="K127" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>182</v>
       </c>
@@ -4284,10 +6312,25 @@
         <v>9</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="G128" t="s">
+        <v>438</v>
+      </c>
+      <c r="H128" t="s">
+        <v>439</v>
+      </c>
+      <c r="I128" t="s">
+        <v>452</v>
+      </c>
+      <c r="J128" t="s">
+        <v>452</v>
+      </c>
+      <c r="K128" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>184</v>
       </c>
@@ -4304,10 +6347,25 @@
         <v>9</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="G129" t="s">
+        <v>438</v>
+      </c>
+      <c r="H129" t="s">
+        <v>439</v>
+      </c>
+      <c r="I129" t="s">
+        <v>444</v>
+      </c>
+      <c r="J129" t="s">
+        <v>444</v>
+      </c>
+      <c r="K129" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>186</v>
       </c>
@@ -4324,10 +6382,25 @@
         <v>9</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="G130" t="s">
+        <v>434</v>
+      </c>
+      <c r="H130" t="s">
+        <v>352</v>
+      </c>
+      <c r="I130" t="s">
+        <v>352</v>
+      </c>
+      <c r="J130" t="s">
+        <v>352</v>
+      </c>
+      <c r="K130" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>187</v>
       </c>
@@ -4344,10 +6417,25 @@
         <v>9</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="G131" t="s">
+        <v>438</v>
+      </c>
+      <c r="H131" t="s">
+        <v>439</v>
+      </c>
+      <c r="I131" t="s">
+        <v>450</v>
+      </c>
+      <c r="J131" t="s">
+        <v>443</v>
+      </c>
+      <c r="K131" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>189</v>
       </c>
@@ -4364,10 +6452,25 @@
         <v>9</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="G132" t="s">
+        <v>438</v>
+      </c>
+      <c r="H132" t="s">
+        <v>439</v>
+      </c>
+      <c r="I132" t="s">
+        <v>444</v>
+      </c>
+      <c r="J132" t="s">
+        <v>444</v>
+      </c>
+      <c r="K132" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>191</v>
       </c>
@@ -4384,10 +6487,25 @@
         <v>9</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="G133" t="s">
+        <v>438</v>
+      </c>
+      <c r="H133" t="s">
+        <v>439</v>
+      </c>
+      <c r="I133" t="s">
+        <v>452</v>
+      </c>
+      <c r="J133" t="s">
+        <v>452</v>
+      </c>
+      <c r="K133" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>193</v>
       </c>
@@ -4404,10 +6522,25 @@
         <v>9</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="G134" t="s">
+        <v>438</v>
+      </c>
+      <c r="H134" t="s">
+        <v>439</v>
+      </c>
+      <c r="I134" t="s">
+        <v>452</v>
+      </c>
+      <c r="J134" t="s">
+        <v>452</v>
+      </c>
+      <c r="K134" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>195</v>
       </c>
@@ -4424,10 +6557,25 @@
         <v>9</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G135" t="s">
+        <v>438</v>
+      </c>
+      <c r="H135" t="s">
+        <v>439</v>
+      </c>
+      <c r="I135" t="s">
+        <v>453</v>
+      </c>
+      <c r="J135" t="s">
+        <v>393</v>
+      </c>
+      <c r="K135" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>197</v>
       </c>
@@ -4444,10 +6592,25 @@
         <v>9</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G136" t="s">
+        <v>438</v>
+      </c>
+      <c r="H136" t="s">
+        <v>439</v>
+      </c>
+      <c r="I136" t="s">
+        <v>453</v>
+      </c>
+      <c r="J136" t="s">
+        <v>393</v>
+      </c>
+      <c r="K136" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>199</v>
       </c>
@@ -4464,10 +6627,25 @@
         <v>9</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="G137" t="s">
+        <v>434</v>
+      </c>
+      <c r="H137" t="s">
+        <v>352</v>
+      </c>
+      <c r="I137" t="s">
+        <v>352</v>
+      </c>
+      <c r="J137" t="s">
+        <v>352</v>
+      </c>
+      <c r="K137" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>200</v>
       </c>
@@ -4484,10 +6662,25 @@
         <v>9</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="G138" t="s">
+        <v>434</v>
+      </c>
+      <c r="H138" t="s">
+        <v>352</v>
+      </c>
+      <c r="I138" t="s">
+        <v>352</v>
+      </c>
+      <c r="J138" t="s">
+        <v>352</v>
+      </c>
+      <c r="K138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>201</v>
       </c>
@@ -4504,10 +6697,25 @@
         <v>9</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="G139" t="s">
+        <v>434</v>
+      </c>
+      <c r="H139" t="s">
+        <v>352</v>
+      </c>
+      <c r="I139" t="s">
+        <v>352</v>
+      </c>
+      <c r="J139" t="s">
+        <v>352</v>
+      </c>
+      <c r="K139" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>202</v>
       </c>
@@ -4524,10 +6732,25 @@
         <v>9</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="G140" t="s">
+        <v>438</v>
+      </c>
+      <c r="H140" t="s">
+        <v>439</v>
+      </c>
+      <c r="I140" t="s">
+        <v>450</v>
+      </c>
+      <c r="J140" t="s">
+        <v>443</v>
+      </c>
+      <c r="K140" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>203</v>
       </c>
@@ -4544,10 +6767,25 @@
         <v>9</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="G141" t="s">
+        <v>438</v>
+      </c>
+      <c r="H141" t="s">
+        <v>439</v>
+      </c>
+      <c r="I141" t="s">
+        <v>450</v>
+      </c>
+      <c r="J141" t="s">
+        <v>443</v>
+      </c>
+      <c r="K141" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>204</v>
       </c>
@@ -4564,10 +6802,25 @@
         <v>9</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="G142" t="s">
+        <v>434</v>
+      </c>
+      <c r="H142" t="s">
+        <v>352</v>
+      </c>
+      <c r="I142" t="s">
+        <v>352</v>
+      </c>
+      <c r="J142" t="s">
+        <v>352</v>
+      </c>
+      <c r="K142" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>205</v>
       </c>
@@ -4586,8 +6839,23 @@
       <c r="F143" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>434</v>
+      </c>
+      <c r="H143" t="s">
+        <v>335</v>
+      </c>
+      <c r="I143" t="s">
+        <v>335</v>
+      </c>
+      <c r="J143" t="s">
+        <v>335</v>
+      </c>
+      <c r="K143" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>207</v>
       </c>
@@ -4604,10 +6872,25 @@
         <v>9</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+      <c r="G144" t="s">
+        <v>434</v>
+      </c>
+      <c r="H144" t="s">
+        <v>435</v>
+      </c>
+      <c r="I144" t="s">
+        <v>462</v>
+      </c>
+      <c r="J144" t="s">
+        <v>463</v>
+      </c>
+      <c r="K144" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>208</v>
       </c>
@@ -4624,10 +6907,25 @@
         <v>9</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="G145" t="s">
+        <v>438</v>
+      </c>
+      <c r="H145" t="s">
+        <v>439</v>
+      </c>
+      <c r="I145" t="s">
+        <v>393</v>
+      </c>
+      <c r="J145" t="s">
+        <v>393</v>
+      </c>
+      <c r="K145" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>210</v>
       </c>
@@ -4644,10 +6942,25 @@
         <v>9</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+      <c r="G146" t="s">
+        <v>438</v>
+      </c>
+      <c r="H146" t="s">
+        <v>439</v>
+      </c>
+      <c r="I146" t="s">
+        <v>444</v>
+      </c>
+      <c r="J146" t="s">
+        <v>444</v>
+      </c>
+      <c r="K146" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>212</v>
       </c>
@@ -4664,10 +6977,25 @@
         <v>9</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="G147" t="s">
+        <v>434</v>
+      </c>
+      <c r="H147" t="s">
+        <v>352</v>
+      </c>
+      <c r="I147" t="s">
+        <v>352</v>
+      </c>
+      <c r="J147" t="s">
+        <v>352</v>
+      </c>
+      <c r="K147" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>213</v>
       </c>
@@ -4684,10 +7012,25 @@
         <v>9</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+      <c r="G148" t="s">
+        <v>438</v>
+      </c>
+      <c r="H148" t="s">
+        <v>439</v>
+      </c>
+      <c r="I148" t="s">
+        <v>444</v>
+      </c>
+      <c r="J148" t="s">
+        <v>444</v>
+      </c>
+      <c r="K148" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>214</v>
       </c>
@@ -4704,10 +7047,25 @@
         <v>9</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="G149" t="s">
+        <v>434</v>
+      </c>
+      <c r="H149" t="s">
+        <v>352</v>
+      </c>
+      <c r="I149" t="s">
+        <v>352</v>
+      </c>
+      <c r="J149" t="s">
+        <v>352</v>
+      </c>
+      <c r="K149" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>216</v>
       </c>
@@ -4724,10 +7082,25 @@
         <v>9</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="G150" t="s">
+        <v>434</v>
+      </c>
+      <c r="H150" t="s">
+        <v>352</v>
+      </c>
+      <c r="I150" t="s">
+        <v>352</v>
+      </c>
+      <c r="J150" t="s">
+        <v>352</v>
+      </c>
+      <c r="K150" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>218</v>
       </c>
@@ -4744,10 +7117,25 @@
         <v>9</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="G151" t="s">
+        <v>438</v>
+      </c>
+      <c r="H151" t="s">
+        <v>439</v>
+      </c>
+      <c r="I151" t="s">
+        <v>393</v>
+      </c>
+      <c r="J151" t="s">
+        <v>393</v>
+      </c>
+      <c r="K151" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>219</v>
       </c>
@@ -4764,10 +7152,25 @@
         <v>9</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="G152" t="s">
+        <v>438</v>
+      </c>
+      <c r="H152" t="s">
+        <v>439</v>
+      </c>
+      <c r="I152" t="s">
+        <v>393</v>
+      </c>
+      <c r="J152" t="s">
+        <v>393</v>
+      </c>
+      <c r="K152" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>220</v>
       </c>
@@ -4784,10 +7187,25 @@
         <v>9</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="G153" t="s">
+        <v>438</v>
+      </c>
+      <c r="H153" t="s">
+        <v>439</v>
+      </c>
+      <c r="I153" t="s">
+        <v>393</v>
+      </c>
+      <c r="J153" t="s">
+        <v>393</v>
+      </c>
+      <c r="K153" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>221</v>
       </c>
@@ -4804,10 +7222,25 @@
         <v>9</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="G154" t="s">
+        <v>438</v>
+      </c>
+      <c r="H154" t="s">
+        <v>439</v>
+      </c>
+      <c r="I154" t="s">
+        <v>394</v>
+      </c>
+      <c r="J154" t="s">
+        <v>394</v>
+      </c>
+      <c r="K154" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>222</v>
       </c>
@@ -4824,10 +7257,25 @@
         <v>9</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="G155" t="s">
+        <v>434</v>
+      </c>
+      <c r="H155" t="s">
+        <v>352</v>
+      </c>
+      <c r="I155" t="s">
+        <v>352</v>
+      </c>
+      <c r="J155" t="s">
+        <v>352</v>
+      </c>
+      <c r="K155" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>223</v>
       </c>
@@ -4844,10 +7292,25 @@
         <v>9</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="G156" t="s">
+        <v>434</v>
+      </c>
+      <c r="H156" t="s">
+        <v>352</v>
+      </c>
+      <c r="I156" t="s">
+        <v>396</v>
+      </c>
+      <c r="J156" t="s">
+        <v>352</v>
+      </c>
+      <c r="K156" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>225</v>
       </c>
@@ -4864,10 +7327,25 @@
         <v>9</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="G157" t="s">
+        <v>434</v>
+      </c>
+      <c r="H157" t="s">
+        <v>352</v>
+      </c>
+      <c r="I157" t="s">
+        <v>396</v>
+      </c>
+      <c r="J157" t="s">
+        <v>352</v>
+      </c>
+      <c r="K157" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>226</v>
       </c>
@@ -4884,10 +7362,25 @@
         <v>9</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="G158" t="s">
+        <v>438</v>
+      </c>
+      <c r="H158" t="s">
+        <v>439</v>
+      </c>
+      <c r="I158" t="s">
+        <v>452</v>
+      </c>
+      <c r="J158" t="s">
+        <v>452</v>
+      </c>
+      <c r="K158" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>228</v>
       </c>
@@ -4904,10 +7397,25 @@
         <v>9</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="G159" t="s">
+        <v>438</v>
+      </c>
+      <c r="H159" t="s">
+        <v>439</v>
+      </c>
+      <c r="I159" t="s">
+        <v>452</v>
+      </c>
+      <c r="J159" t="s">
+        <v>452</v>
+      </c>
+      <c r="K159" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>229</v>
       </c>
@@ -4924,10 +7432,25 @@
         <v>9</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="G160" t="s">
+        <v>438</v>
+      </c>
+      <c r="H160" t="s">
+        <v>439</v>
+      </c>
+      <c r="I160" t="s">
+        <v>440</v>
+      </c>
+      <c r="J160" t="s">
+        <v>440</v>
+      </c>
+      <c r="K160" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>231</v>
       </c>
@@ -4944,10 +7467,25 @@
         <v>9</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="G161" t="s">
+        <v>434</v>
+      </c>
+      <c r="H161" t="s">
+        <v>335</v>
+      </c>
+      <c r="I161" t="s">
+        <v>335</v>
+      </c>
+      <c r="J161" t="s">
+        <v>335</v>
+      </c>
+      <c r="K161" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>233</v>
       </c>
@@ -4966,8 +7504,23 @@
       <c r="F162" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162" t="s">
+        <v>434</v>
+      </c>
+      <c r="H162" t="s">
+        <v>335</v>
+      </c>
+      <c r="I162" t="s">
+        <v>335</v>
+      </c>
+      <c r="J162" t="s">
+        <v>335</v>
+      </c>
+      <c r="K162" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>235</v>
       </c>
@@ -4984,10 +7537,25 @@
         <v>9</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G163" t="s">
+        <v>438</v>
+      </c>
+      <c r="H163" t="s">
+        <v>439</v>
+      </c>
+      <c r="I163" t="s">
+        <v>443</v>
+      </c>
+      <c r="J163" t="s">
+        <v>443</v>
+      </c>
+      <c r="K163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>237</v>
       </c>
@@ -5004,10 +7572,25 @@
         <v>9</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="G164" t="s">
+        <v>438</v>
+      </c>
+      <c r="H164" t="s">
+        <v>439</v>
+      </c>
+      <c r="I164" t="s">
+        <v>454</v>
+      </c>
+      <c r="J164" t="s">
+        <v>444</v>
+      </c>
+      <c r="K164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>238</v>
       </c>
@@ -5024,10 +7607,25 @@
         <v>9</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G165" t="s">
+        <v>438</v>
+      </c>
+      <c r="H165" t="s">
+        <v>439</v>
+      </c>
+      <c r="I165" t="s">
+        <v>443</v>
+      </c>
+      <c r="J165" t="s">
+        <v>443</v>
+      </c>
+      <c r="K165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>239</v>
       </c>
@@ -5044,10 +7642,25 @@
         <v>9</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G166" t="s">
+        <v>438</v>
+      </c>
+      <c r="H166" t="s">
+        <v>439</v>
+      </c>
+      <c r="I166" t="s">
+        <v>443</v>
+      </c>
+      <c r="J166" t="s">
+        <v>443</v>
+      </c>
+      <c r="K166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>240</v>
       </c>
@@ -5064,10 +7677,25 @@
         <v>9</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G167" t="s">
+        <v>438</v>
+      </c>
+      <c r="H167" t="s">
+        <v>439</v>
+      </c>
+      <c r="I167" t="s">
+        <v>443</v>
+      </c>
+      <c r="J167" t="s">
+        <v>443</v>
+      </c>
+      <c r="K167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>241</v>
       </c>
@@ -5084,10 +7712,25 @@
         <v>9</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G168" t="s">
+        <v>438</v>
+      </c>
+      <c r="H168" t="s">
+        <v>439</v>
+      </c>
+      <c r="I168" t="s">
+        <v>443</v>
+      </c>
+      <c r="J168" t="s">
+        <v>443</v>
+      </c>
+      <c r="K168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>242</v>
       </c>
@@ -5104,10 +7747,25 @@
         <v>9</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G169" t="s">
+        <v>438</v>
+      </c>
+      <c r="H169" t="s">
+        <v>439</v>
+      </c>
+      <c r="I169" t="s">
+        <v>443</v>
+      </c>
+      <c r="J169" t="s">
+        <v>443</v>
+      </c>
+      <c r="K169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>243</v>
       </c>
@@ -5124,10 +7782,25 @@
         <v>9</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G170" t="s">
+        <v>438</v>
+      </c>
+      <c r="H170" t="s">
+        <v>439</v>
+      </c>
+      <c r="I170" t="s">
+        <v>443</v>
+      </c>
+      <c r="J170" t="s">
+        <v>443</v>
+      </c>
+      <c r="K170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>244</v>
       </c>
@@ -5144,10 +7817,25 @@
         <v>9</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G171" t="s">
+        <v>438</v>
+      </c>
+      <c r="H171" t="s">
+        <v>439</v>
+      </c>
+      <c r="I171" t="s">
+        <v>443</v>
+      </c>
+      <c r="J171" t="s">
+        <v>443</v>
+      </c>
+      <c r="K171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>245</v>
       </c>
@@ -5164,10 +7852,25 @@
         <v>9</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G172" t="s">
+        <v>438</v>
+      </c>
+      <c r="H172" t="s">
+        <v>439</v>
+      </c>
+      <c r="I172" t="s">
+        <v>443</v>
+      </c>
+      <c r="J172" t="s">
+        <v>443</v>
+      </c>
+      <c r="K172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>246</v>
       </c>
@@ -5184,10 +7887,25 @@
         <v>9</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G173" t="s">
+        <v>438</v>
+      </c>
+      <c r="H173" t="s">
+        <v>439</v>
+      </c>
+      <c r="I173" t="s">
+        <v>443</v>
+      </c>
+      <c r="J173" t="s">
+        <v>443</v>
+      </c>
+      <c r="K173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>247</v>
       </c>
@@ -5204,10 +7922,25 @@
         <v>9</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G174" t="s">
+        <v>438</v>
+      </c>
+      <c r="H174" t="s">
+        <v>439</v>
+      </c>
+      <c r="I174" t="s">
+        <v>443</v>
+      </c>
+      <c r="J174" t="s">
+        <v>443</v>
+      </c>
+      <c r="K174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>248</v>
       </c>
@@ -5224,10 +7957,25 @@
         <v>9</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G175" t="s">
+        <v>438</v>
+      </c>
+      <c r="H175" t="s">
+        <v>439</v>
+      </c>
+      <c r="I175" t="s">
+        <v>443</v>
+      </c>
+      <c r="J175" t="s">
+        <v>443</v>
+      </c>
+      <c r="K175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>249</v>
       </c>
@@ -5244,10 +7992,25 @@
         <v>9</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G176" t="s">
+        <v>438</v>
+      </c>
+      <c r="H176" t="s">
+        <v>439</v>
+      </c>
+      <c r="I176" t="s">
+        <v>443</v>
+      </c>
+      <c r="J176" t="s">
+        <v>443</v>
+      </c>
+      <c r="K176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>250</v>
       </c>
@@ -5264,10 +8027,25 @@
         <v>9</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G177" t="s">
+        <v>438</v>
+      </c>
+      <c r="H177" t="s">
+        <v>439</v>
+      </c>
+      <c r="I177" t="s">
+        <v>443</v>
+      </c>
+      <c r="J177" t="s">
+        <v>443</v>
+      </c>
+      <c r="K177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>251</v>
       </c>
@@ -5284,10 +8062,25 @@
         <v>9</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="G178" t="s">
+        <v>438</v>
+      </c>
+      <c r="H178" t="s">
+        <v>439</v>
+      </c>
+      <c r="I178" t="s">
+        <v>454</v>
+      </c>
+      <c r="J178" t="s">
+        <v>444</v>
+      </c>
+      <c r="K178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>252</v>
       </c>
@@ -5304,10 +8097,25 @@
         <v>9</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="G179" t="s">
+        <v>434</v>
+      </c>
+      <c r="H179" t="s">
+        <v>352</v>
+      </c>
+      <c r="I179" t="s">
+        <v>352</v>
+      </c>
+      <c r="J179" t="s">
+        <v>352</v>
+      </c>
+      <c r="K179" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>254</v>
       </c>
@@ -5326,8 +8134,23 @@
       <c r="F180" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G180" t="s">
+        <v>434</v>
+      </c>
+      <c r="H180" t="s">
+        <v>335</v>
+      </c>
+      <c r="I180" t="s">
+        <v>335</v>
+      </c>
+      <c r="J180" t="s">
+        <v>335</v>
+      </c>
+      <c r="K180" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>256</v>
       </c>
@@ -5346,8 +8169,23 @@
       <c r="F181" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G181" t="s">
+        <v>434</v>
+      </c>
+      <c r="H181" t="s">
+        <v>335</v>
+      </c>
+      <c r="I181" t="s">
+        <v>335</v>
+      </c>
+      <c r="J181" t="s">
+        <v>335</v>
+      </c>
+      <c r="K181" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>258</v>
       </c>
@@ -5364,10 +8202,25 @@
         <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="G182" t="s">
+        <v>438</v>
+      </c>
+      <c r="H182" t="s">
+        <v>439</v>
+      </c>
+      <c r="I182" t="s">
+        <v>455</v>
+      </c>
+      <c r="J182" t="s">
+        <v>456</v>
+      </c>
+      <c r="K182" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>260</v>
       </c>
@@ -5384,10 +8237,25 @@
         <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="G183" t="s">
+        <v>438</v>
+      </c>
+      <c r="H183" t="s">
+        <v>439</v>
+      </c>
+      <c r="I183" t="s">
+        <v>455</v>
+      </c>
+      <c r="J183" t="s">
+        <v>456</v>
+      </c>
+      <c r="K183" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>261</v>
       </c>
@@ -5404,10 +8272,25 @@
         <v>9</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="G184" t="s">
+        <v>438</v>
+      </c>
+      <c r="H184" t="s">
+        <v>439</v>
+      </c>
+      <c r="I184" t="s">
+        <v>455</v>
+      </c>
+      <c r="J184" t="s">
+        <v>456</v>
+      </c>
+      <c r="K184" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>262</v>
       </c>
@@ -5424,10 +8307,25 @@
         <v>9</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="G185" t="s">
+        <v>434</v>
+      </c>
+      <c r="H185" t="s">
+        <v>335</v>
+      </c>
+      <c r="I185" t="s">
+        <v>335</v>
+      </c>
+      <c r="J185" t="s">
+        <v>335</v>
+      </c>
+      <c r="K185" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>264</v>
       </c>
@@ -5444,10 +8342,25 @@
         <v>9</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G186" t="s">
+        <v>434</v>
+      </c>
+      <c r="H186" t="s">
+        <v>335</v>
+      </c>
+      <c r="I186" t="s">
+        <v>335</v>
+      </c>
+      <c r="J186" t="s">
+        <v>335</v>
+      </c>
+      <c r="K186" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>265</v>
       </c>
@@ -5464,10 +8377,25 @@
         <v>9</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G187" t="s">
+        <v>434</v>
+      </c>
+      <c r="H187" t="s">
+        <v>335</v>
+      </c>
+      <c r="I187" t="s">
+        <v>335</v>
+      </c>
+      <c r="J187" t="s">
+        <v>335</v>
+      </c>
+      <c r="K187" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>266</v>
       </c>
@@ -5484,10 +8412,25 @@
         <v>9</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G188" t="s">
+        <v>434</v>
+      </c>
+      <c r="H188" t="s">
+        <v>335</v>
+      </c>
+      <c r="I188" t="s">
+        <v>335</v>
+      </c>
+      <c r="J188" t="s">
+        <v>335</v>
+      </c>
+      <c r="K188" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>267</v>
       </c>
@@ -5504,10 +8447,25 @@
         <v>9</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="G189" t="s">
+        <v>438</v>
+      </c>
+      <c r="H189" t="s">
+        <v>439</v>
+      </c>
+      <c r="I189" t="s">
+        <v>457</v>
+      </c>
+      <c r="J189" t="s">
+        <v>444</v>
+      </c>
+      <c r="K189" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>268</v>
       </c>
@@ -5524,10 +8482,25 @@
         <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="G190" t="s">
+        <v>438</v>
+      </c>
+      <c r="H190" t="s">
+        <v>439</v>
+      </c>
+      <c r="I190" t="s">
+        <v>457</v>
+      </c>
+      <c r="J190" t="s">
+        <v>444</v>
+      </c>
+      <c r="K190" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>269</v>
       </c>
@@ -5544,10 +8517,25 @@
         <v>9</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="G191" t="s">
+        <v>434</v>
+      </c>
+      <c r="H191" t="s">
+        <v>335</v>
+      </c>
+      <c r="I191" t="s">
+        <v>335</v>
+      </c>
+      <c r="J191" t="s">
+        <v>335</v>
+      </c>
+      <c r="K191" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>270</v>
       </c>
@@ -5564,10 +8552,25 @@
         <v>9</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G192" t="s">
+        <v>434</v>
+      </c>
+      <c r="H192" t="s">
+        <v>335</v>
+      </c>
+      <c r="I192" t="s">
+        <v>335</v>
+      </c>
+      <c r="J192" t="s">
+        <v>335</v>
+      </c>
+      <c r="K192" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>271</v>
       </c>
@@ -5584,10 +8587,25 @@
         <v>9</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G193" t="s">
+        <v>434</v>
+      </c>
+      <c r="H193" t="s">
+        <v>335</v>
+      </c>
+      <c r="I193" t="s">
+        <v>335</v>
+      </c>
+      <c r="J193" t="s">
+        <v>335</v>
+      </c>
+      <c r="K193" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>272</v>
       </c>
@@ -5604,10 +8622,25 @@
         <v>9</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G194" t="s">
+        <v>434</v>
+      </c>
+      <c r="H194" t="s">
+        <v>335</v>
+      </c>
+      <c r="I194" t="s">
+        <v>335</v>
+      </c>
+      <c r="J194" t="s">
+        <v>335</v>
+      </c>
+      <c r="K194" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>273</v>
       </c>
@@ -5624,10 +8657,25 @@
         <v>9</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G195" t="s">
+        <v>434</v>
+      </c>
+      <c r="H195" t="s">
+        <v>335</v>
+      </c>
+      <c r="I195" t="s">
+        <v>335</v>
+      </c>
+      <c r="J195" t="s">
+        <v>335</v>
+      </c>
+      <c r="K195" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>274</v>
       </c>
@@ -5644,10 +8692,25 @@
         <v>9</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G196" t="s">
+        <v>434</v>
+      </c>
+      <c r="H196" t="s">
+        <v>335</v>
+      </c>
+      <c r="I196" t="s">
+        <v>335</v>
+      </c>
+      <c r="J196" t="s">
+        <v>335</v>
+      </c>
+      <c r="K196" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>275</v>
       </c>
@@ -5664,10 +8727,25 @@
         <v>9</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G197" t="s">
+        <v>434</v>
+      </c>
+      <c r="H197" t="s">
+        <v>335</v>
+      </c>
+      <c r="I197" t="s">
+        <v>335</v>
+      </c>
+      <c r="J197" t="s">
+        <v>335</v>
+      </c>
+      <c r="K197" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>276</v>
       </c>
@@ -5684,10 +8762,25 @@
         <v>9</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G198" t="s">
+        <v>434</v>
+      </c>
+      <c r="H198" t="s">
+        <v>335</v>
+      </c>
+      <c r="I198" t="s">
+        <v>335</v>
+      </c>
+      <c r="J198" t="s">
+        <v>335</v>
+      </c>
+      <c r="K198" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>277</v>
       </c>
@@ -5704,10 +8797,25 @@
         <v>9</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="G199" t="s">
+        <v>438</v>
+      </c>
+      <c r="H199" t="s">
+        <v>439</v>
+      </c>
+      <c r="I199" t="s">
+        <v>443</v>
+      </c>
+      <c r="J199" t="s">
+        <v>443</v>
+      </c>
+      <c r="K199" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>279</v>
       </c>
@@ -5724,10 +8832,25 @@
         <v>9</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="G200" t="s">
+        <v>438</v>
+      </c>
+      <c r="H200" t="s">
+        <v>439</v>
+      </c>
+      <c r="I200" t="s">
+        <v>452</v>
+      </c>
+      <c r="J200" t="s">
+        <v>452</v>
+      </c>
+      <c r="K200" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>281</v>
       </c>
@@ -5744,10 +8867,25 @@
         <v>9</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="G201" t="s">
+        <v>438</v>
+      </c>
+      <c r="H201" t="s">
+        <v>439</v>
+      </c>
+      <c r="I201" t="s">
+        <v>458</v>
+      </c>
+      <c r="J201" t="s">
+        <v>440</v>
+      </c>
+      <c r="K201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>283</v>
       </c>
@@ -5764,10 +8902,25 @@
         <v>9</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="G202" t="s">
+        <v>438</v>
+      </c>
+      <c r="H202" t="s">
+        <v>439</v>
+      </c>
+      <c r="I202" t="s">
+        <v>458</v>
+      </c>
+      <c r="J202" t="s">
+        <v>440</v>
+      </c>
+      <c r="K202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>284</v>
       </c>
@@ -5784,10 +8937,25 @@
         <v>9</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="G203" t="s">
+        <v>438</v>
+      </c>
+      <c r="H203" t="s">
+        <v>439</v>
+      </c>
+      <c r="I203" t="s">
+        <v>449</v>
+      </c>
+      <c r="J203" t="s">
+        <v>436</v>
+      </c>
+      <c r="K203" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>285</v>
       </c>
@@ -5804,10 +8972,25 @@
         <v>9</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="G204" t="s">
+        <v>434</v>
+      </c>
+      <c r="H204" t="s">
+        <v>352</v>
+      </c>
+      <c r="I204" t="s">
+        <v>352</v>
+      </c>
+      <c r="J204" t="s">
+        <v>352</v>
+      </c>
+      <c r="K204" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>287</v>
       </c>
@@ -5824,10 +9007,25 @@
         <v>9</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="G205" t="s">
+        <v>434</v>
+      </c>
+      <c r="H205" t="s">
+        <v>352</v>
+      </c>
+      <c r="I205" t="s">
+        <v>352</v>
+      </c>
+      <c r="J205" t="s">
+        <v>352</v>
+      </c>
+      <c r="K205" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>288</v>
       </c>
@@ -5844,10 +9042,25 @@
         <v>9</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="G206" t="s">
+        <v>434</v>
+      </c>
+      <c r="H206" t="s">
+        <v>335</v>
+      </c>
+      <c r="I206" t="s">
+        <v>335</v>
+      </c>
+      <c r="J206" t="s">
+        <v>335</v>
+      </c>
+      <c r="K206" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>290</v>
       </c>
@@ -5864,10 +9077,25 @@
         <v>9</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="G207" t="s">
+        <v>434</v>
+      </c>
+      <c r="H207" t="s">
+        <v>335</v>
+      </c>
+      <c r="I207" t="s">
+        <v>335</v>
+      </c>
+      <c r="J207" t="s">
+        <v>335</v>
+      </c>
+      <c r="K207" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>291</v>
       </c>
@@ -5884,10 +9112,25 @@
         <v>9</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="G208" t="s">
+        <v>434</v>
+      </c>
+      <c r="H208" t="s">
+        <v>335</v>
+      </c>
+      <c r="I208" t="s">
+        <v>335</v>
+      </c>
+      <c r="J208" t="s">
+        <v>335</v>
+      </c>
+      <c r="K208" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>292</v>
       </c>
@@ -5904,10 +9147,25 @@
         <v>9</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="G209" t="s">
+        <v>434</v>
+      </c>
+      <c r="H209" t="s">
+        <v>335</v>
+      </c>
+      <c r="I209" t="s">
+        <v>335</v>
+      </c>
+      <c r="J209" t="s">
+        <v>335</v>
+      </c>
+      <c r="K209" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>293</v>
       </c>
@@ -5924,10 +9182,25 @@
         <v>9</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="G210" t="s">
+        <v>434</v>
+      </c>
+      <c r="H210" t="s">
+        <v>335</v>
+      </c>
+      <c r="I210" t="s">
+        <v>335</v>
+      </c>
+      <c r="J210" t="s">
+        <v>335</v>
+      </c>
+      <c r="K210" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>294</v>
       </c>
@@ -5944,10 +9217,25 @@
         <v>9</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="G211" t="s">
+        <v>438</v>
+      </c>
+      <c r="H211" t="s">
+        <v>439</v>
+      </c>
+      <c r="I211" t="s">
+        <v>444</v>
+      </c>
+      <c r="J211" t="s">
+        <v>444</v>
+      </c>
+      <c r="K211" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>296</v>
       </c>
@@ -5964,10 +9252,25 @@
         <v>9</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G212" t="s">
+        <v>434</v>
+      </c>
+      <c r="H212" t="s">
+        <v>352</v>
+      </c>
+      <c r="I212" t="s">
+        <v>352</v>
+      </c>
+      <c r="J212" t="s">
+        <v>352</v>
+      </c>
+      <c r="K212" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>297</v>
       </c>
@@ -5984,10 +9287,25 @@
         <v>9</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G213" t="s">
+        <v>434</v>
+      </c>
+      <c r="H213" t="s">
+        <v>352</v>
+      </c>
+      <c r="I213" t="s">
+        <v>352</v>
+      </c>
+      <c r="J213" t="s">
+        <v>352</v>
+      </c>
+      <c r="K213" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>298</v>
       </c>
@@ -6004,10 +9322,25 @@
         <v>9</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G214" t="s">
+        <v>434</v>
+      </c>
+      <c r="H214" t="s">
+        <v>352</v>
+      </c>
+      <c r="I214" t="s">
+        <v>352</v>
+      </c>
+      <c r="J214" t="s">
+        <v>352</v>
+      </c>
+      <c r="K214" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>299</v>
       </c>
@@ -6024,10 +9357,25 @@
         <v>9</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G215" t="s">
+        <v>434</v>
+      </c>
+      <c r="H215" t="s">
+        <v>352</v>
+      </c>
+      <c r="I215" t="s">
+        <v>352</v>
+      </c>
+      <c r="J215" t="s">
+        <v>352</v>
+      </c>
+      <c r="K215" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>300</v>
       </c>
@@ -6044,10 +9392,25 @@
         <v>9</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G216" t="s">
+        <v>434</v>
+      </c>
+      <c r="H216" t="s">
+        <v>352</v>
+      </c>
+      <c r="I216" t="s">
+        <v>352</v>
+      </c>
+      <c r="J216" t="s">
+        <v>352</v>
+      </c>
+      <c r="K216" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>301</v>
       </c>
@@ -6064,10 +9427,25 @@
         <v>9</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G217" t="s">
+        <v>434</v>
+      </c>
+      <c r="H217" t="s">
+        <v>352</v>
+      </c>
+      <c r="I217" t="s">
+        <v>352</v>
+      </c>
+      <c r="J217" t="s">
+        <v>352</v>
+      </c>
+      <c r="K217" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>302</v>
       </c>
@@ -6084,10 +9462,25 @@
         <v>9</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G218" t="s">
+        <v>434</v>
+      </c>
+      <c r="H218" t="s">
+        <v>352</v>
+      </c>
+      <c r="I218" t="s">
+        <v>352</v>
+      </c>
+      <c r="J218" t="s">
+        <v>352</v>
+      </c>
+      <c r="K218" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>303</v>
       </c>
@@ -6104,10 +9497,25 @@
         <v>9</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G219" t="s">
+        <v>434</v>
+      </c>
+      <c r="H219" t="s">
+        <v>352</v>
+      </c>
+      <c r="I219" t="s">
+        <v>352</v>
+      </c>
+      <c r="J219" t="s">
+        <v>352</v>
+      </c>
+      <c r="K219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>304</v>
       </c>
@@ -6124,10 +9532,25 @@
         <v>9</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G220" t="s">
+        <v>434</v>
+      </c>
+      <c r="H220" t="s">
+        <v>352</v>
+      </c>
+      <c r="I220" t="s">
+        <v>352</v>
+      </c>
+      <c r="J220" t="s">
+        <v>352</v>
+      </c>
+      <c r="K220" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>305</v>
       </c>
@@ -6144,10 +9567,25 @@
         <v>9</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G221" t="s">
+        <v>434</v>
+      </c>
+      <c r="H221" t="s">
+        <v>352</v>
+      </c>
+      <c r="I221" t="s">
+        <v>352</v>
+      </c>
+      <c r="J221" t="s">
+        <v>352</v>
+      </c>
+      <c r="K221" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>306</v>
       </c>
@@ -6164,10 +9602,25 @@
         <v>9</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="G222" t="s">
+        <v>438</v>
+      </c>
+      <c r="H222" t="s">
+        <v>439</v>
+      </c>
+      <c r="I222" t="s">
+        <v>444</v>
+      </c>
+      <c r="J222" t="s">
+        <v>444</v>
+      </c>
+      <c r="K222" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>307</v>
       </c>
@@ -6184,10 +9637,25 @@
         <v>9</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="G223" t="s">
+        <v>438</v>
+      </c>
+      <c r="H223" t="s">
+        <v>439</v>
+      </c>
+      <c r="I223" t="s">
+        <v>452</v>
+      </c>
+      <c r="J223" t="s">
+        <v>452</v>
+      </c>
+      <c r="K223" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>308</v>
       </c>
@@ -6204,10 +9672,25 @@
         <v>9</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="G224" t="s">
+        <v>438</v>
+      </c>
+      <c r="H224" t="s">
+        <v>439</v>
+      </c>
+      <c r="I224" t="s">
+        <v>452</v>
+      </c>
+      <c r="J224" t="s">
+        <v>452</v>
+      </c>
+      <c r="K224" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>309</v>
       </c>
@@ -6224,10 +9707,25 @@
         <v>9</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="G225" t="s">
+        <v>438</v>
+      </c>
+      <c r="H225" t="s">
+        <v>439</v>
+      </c>
+      <c r="I225" t="s">
+        <v>459</v>
+      </c>
+      <c r="J225" t="s">
+        <v>456</v>
+      </c>
+      <c r="K225" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>310</v>
       </c>
@@ -6244,10 +9742,25 @@
         <v>9</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="G226" t="s">
+        <v>438</v>
+      </c>
+      <c r="H226" t="s">
+        <v>439</v>
+      </c>
+      <c r="I226" t="s">
+        <v>459</v>
+      </c>
+      <c r="J226" t="s">
+        <v>456</v>
+      </c>
+      <c r="K226" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>311</v>
       </c>
@@ -6264,10 +9777,25 @@
         <v>9</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="G227" t="s">
+        <v>438</v>
+      </c>
+      <c r="H227" t="s">
+        <v>439</v>
+      </c>
+      <c r="I227" t="s">
+        <v>459</v>
+      </c>
+      <c r="J227" t="s">
+        <v>456</v>
+      </c>
+      <c r="K227" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>312</v>
       </c>
@@ -6284,10 +9812,25 @@
         <v>9</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="G228" t="s">
+        <v>438</v>
+      </c>
+      <c r="H228" t="s">
+        <v>439</v>
+      </c>
+      <c r="I228" t="s">
+        <v>459</v>
+      </c>
+      <c r="J228" t="s">
+        <v>456</v>
+      </c>
+      <c r="K228" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>313</v>
       </c>
@@ -6304,10 +9847,25 @@
         <v>9</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="G229" t="s">
+        <v>438</v>
+      </c>
+      <c r="H229" t="s">
+        <v>439</v>
+      </c>
+      <c r="I229" t="s">
+        <v>459</v>
+      </c>
+      <c r="J229" t="s">
+        <v>456</v>
+      </c>
+      <c r="K229" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>314</v>
       </c>
@@ -6324,10 +9882,25 @@
         <v>9</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="G230" t="s">
+        <v>438</v>
+      </c>
+      <c r="H230" t="s">
+        <v>439</v>
+      </c>
+      <c r="I230" t="s">
+        <v>444</v>
+      </c>
+      <c r="J230" t="s">
+        <v>444</v>
+      </c>
+      <c r="K230" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>315</v>
       </c>
@@ -6344,10 +9917,25 @@
         <v>9</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="G231" t="s">
+        <v>438</v>
+      </c>
+      <c r="H231" t="s">
+        <v>439</v>
+      </c>
+      <c r="I231" t="s">
+        <v>450</v>
+      </c>
+      <c r="J231" t="s">
+        <v>443</v>
+      </c>
+      <c r="K231" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>316</v>
       </c>
@@ -6364,10 +9952,25 @@
         <v>9</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="G232" t="s">
+        <v>438</v>
+      </c>
+      <c r="H232" t="s">
+        <v>439</v>
+      </c>
+      <c r="I232" t="s">
+        <v>394</v>
+      </c>
+      <c r="J232" t="s">
+        <v>394</v>
+      </c>
+      <c r="K232" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>317</v>
       </c>
@@ -6384,10 +9987,25 @@
         <v>9</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="G233" t="s">
+        <v>438</v>
+      </c>
+      <c r="H233" t="s">
+        <v>439</v>
+      </c>
+      <c r="I233" t="s">
+        <v>459</v>
+      </c>
+      <c r="J233" t="s">
+        <v>456</v>
+      </c>
+      <c r="K233" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>318</v>
       </c>
@@ -6404,10 +10022,25 @@
         <v>9</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="G234" t="s">
+        <v>438</v>
+      </c>
+      <c r="H234" t="s">
+        <v>439</v>
+      </c>
+      <c r="I234" t="s">
+        <v>444</v>
+      </c>
+      <c r="J234" t="s">
+        <v>444</v>
+      </c>
+      <c r="K234" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>319</v>
       </c>
@@ -6424,10 +10057,25 @@
         <v>9</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G235" t="s">
+        <v>434</v>
+      </c>
+      <c r="H235" t="s">
+        <v>352</v>
+      </c>
+      <c r="I235" t="s">
+        <v>352</v>
+      </c>
+      <c r="J235" t="s">
+        <v>352</v>
+      </c>
+      <c r="K235" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>320</v>
       </c>
@@ -6444,10 +10092,25 @@
         <v>9</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G236" t="s">
+        <v>434</v>
+      </c>
+      <c r="H236" t="s">
+        <v>352</v>
+      </c>
+      <c r="I236" t="s">
+        <v>352</v>
+      </c>
+      <c r="J236" t="s">
+        <v>352</v>
+      </c>
+      <c r="K236" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>321</v>
       </c>
@@ -6464,10 +10127,25 @@
         <v>9</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="G237" t="s">
+        <v>438</v>
+      </c>
+      <c r="H237" t="s">
+        <v>439</v>
+      </c>
+      <c r="I237" t="s">
+        <v>459</v>
+      </c>
+      <c r="J237" t="s">
+        <v>456</v>
+      </c>
+      <c r="K237" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>323</v>
       </c>
@@ -6484,10 +10162,25 @@
         <v>9</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="G238" t="s">
+        <v>438</v>
+      </c>
+      <c r="H238" t="s">
+        <v>439</v>
+      </c>
+      <c r="I238" t="s">
+        <v>448</v>
+      </c>
+      <c r="J238" t="s">
+        <v>443</v>
+      </c>
+      <c r="K238">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>324</v>
       </c>
@@ -6504,10 +10197,25 @@
         <v>9</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="G239" t="s">
+        <v>438</v>
+      </c>
+      <c r="H239" t="s">
+        <v>439</v>
+      </c>
+      <c r="I239" t="s">
+        <v>448</v>
+      </c>
+      <c r="J239" t="s">
+        <v>443</v>
+      </c>
+      <c r="K239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>325</v>
       </c>
@@ -6524,10 +10232,25 @@
         <v>9</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="G240" t="s">
+        <v>434</v>
+      </c>
+      <c r="H240" t="s">
+        <v>435</v>
+      </c>
+      <c r="I240" t="s">
+        <v>460</v>
+      </c>
+      <c r="J240" t="s">
+        <v>460</v>
+      </c>
+      <c r="K240" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>326</v>
       </c>
@@ -6544,10 +10267,25 @@
         <v>9</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="G241" t="s">
+        <v>434</v>
+      </c>
+      <c r="H241" t="s">
+        <v>335</v>
+      </c>
+      <c r="I241" t="s">
+        <v>335</v>
+      </c>
+      <c r="J241" t="s">
+        <v>335</v>
+      </c>
+      <c r="K241" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>328</v>
       </c>
@@ -6564,10 +10302,25 @@
         <v>9</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="G242" t="s">
+        <v>434</v>
+      </c>
+      <c r="H242" t="s">
+        <v>335</v>
+      </c>
+      <c r="I242" t="s">
+        <v>335</v>
+      </c>
+      <c r="J242" t="s">
+        <v>335</v>
+      </c>
+      <c r="K242" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>329</v>
       </c>
@@ -6584,10 +10337,25 @@
         <v>9</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="G243" t="s">
+        <v>434</v>
+      </c>
+      <c r="H243" t="s">
+        <v>335</v>
+      </c>
+      <c r="I243" t="s">
+        <v>335</v>
+      </c>
+      <c r="J243" t="s">
+        <v>335</v>
+      </c>
+      <c r="K243" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>330</v>
       </c>
@@ -6604,10 +10372,25 @@
         <v>9</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="G244" t="s">
+        <v>434</v>
+      </c>
+      <c r="H244" t="s">
+        <v>335</v>
+      </c>
+      <c r="I244" t="s">
+        <v>335</v>
+      </c>
+      <c r="J244" t="s">
+        <v>335</v>
+      </c>
+      <c r="K244" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>331</v>
       </c>
@@ -6624,10 +10407,25 @@
         <v>9</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="G245" t="s">
+        <v>434</v>
+      </c>
+      <c r="H245" t="s">
+        <v>335</v>
+      </c>
+      <c r="I245" t="s">
+        <v>335</v>
+      </c>
+      <c r="J245" t="s">
+        <v>335</v>
+      </c>
+      <c r="K245" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>332</v>
       </c>
@@ -6644,7 +10442,22 @@
         <v>9</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
+      </c>
+      <c r="G246" t="s">
+        <v>434</v>
+      </c>
+      <c r="H246" t="s">
+        <v>335</v>
+      </c>
+      <c r="I246" t="s">
+        <v>335</v>
+      </c>
+      <c r="J246" t="s">
+        <v>335</v>
+      </c>
+      <c r="K246">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6416A-D03B-D342-ADC0-0EDE94DA33DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0089665-33C2-8C4E-A4C3-1FCD346CFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="462">
   <si>
     <t>Fig Index</t>
   </si>
@@ -1388,9 +1388,6 @@
     <t>Cell count</t>
   </si>
   <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -1400,9 +1397,6 @@
     <t>Titer</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
@@ -1415,9 +1409,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Signal</t>
-  </si>
-  <si>
     <t>Conservation</t>
   </si>
   <si>
@@ -1425,6 +1416,9 @@
   </si>
   <si>
     <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
   </si>
 </sst>
 </file>
@@ -1837,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="183" workbookViewId="0">
-      <selection activeCell="K241" sqref="K241"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1911,7 +1905,7 @@
         <v>435</v>
       </c>
       <c r="I2" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J2" t="s">
         <v>436</v>
@@ -1946,7 +1940,7 @@
         <v>435</v>
       </c>
       <c r="I3" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J3" t="s">
         <v>436</v>
@@ -1981,7 +1975,7 @@
         <v>435</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J4" t="s">
         <v>436</v>
@@ -2016,7 +2010,7 @@
         <v>435</v>
       </c>
       <c r="I5" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J5" t="s">
         <v>436</v>
@@ -2051,7 +2045,7 @@
         <v>435</v>
       </c>
       <c r="I6" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J6" t="s">
         <v>436</v>
@@ -2086,7 +2080,7 @@
         <v>435</v>
       </c>
       <c r="I7" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J7" t="s">
         <v>436</v>
@@ -2121,7 +2115,7 @@
         <v>435</v>
       </c>
       <c r="I8" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J8" t="s">
         <v>436</v>
@@ -2156,7 +2150,7 @@
         <v>435</v>
       </c>
       <c r="I9" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J9" t="s">
         <v>436</v>
@@ -2191,7 +2185,7 @@
         <v>435</v>
       </c>
       <c r="I10" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J10" t="s">
         <v>436</v>
@@ -2226,7 +2220,7 @@
         <v>435</v>
       </c>
       <c r="I11" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J11" t="s">
         <v>436</v>
@@ -2261,7 +2255,7 @@
         <v>435</v>
       </c>
       <c r="I12" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J12" t="s">
         <v>436</v>
@@ -2296,7 +2290,7 @@
         <v>435</v>
       </c>
       <c r="I13" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J13" t="s">
         <v>436</v>
@@ -2331,7 +2325,7 @@
         <v>435</v>
       </c>
       <c r="I14" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J14" t="s">
         <v>436</v>
@@ -2366,7 +2360,7 @@
         <v>435</v>
       </c>
       <c r="I15" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J15" t="s">
         <v>436</v>
@@ -2401,7 +2395,7 @@
         <v>435</v>
       </c>
       <c r="I16" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J16" t="s">
         <v>436</v>
@@ -2436,7 +2430,7 @@
         <v>435</v>
       </c>
       <c r="I17" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J17" t="s">
         <v>436</v>
@@ -2471,7 +2465,7 @@
         <v>435</v>
       </c>
       <c r="I18" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J18" t="s">
         <v>436</v>
@@ -2506,7 +2500,7 @@
         <v>435</v>
       </c>
       <c r="I19" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J19" t="s">
         <v>436</v>
@@ -2541,7 +2535,7 @@
         <v>435</v>
       </c>
       <c r="I20" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J20" t="s">
         <v>436</v>
@@ -2576,7 +2570,7 @@
         <v>435</v>
       </c>
       <c r="I21" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J21" t="s">
         <v>436</v>
@@ -2611,7 +2605,7 @@
         <v>435</v>
       </c>
       <c r="I22" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J22" t="s">
         <v>436</v>
@@ -2646,7 +2640,7 @@
         <v>435</v>
       </c>
       <c r="I23" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J23" t="s">
         <v>436</v>
@@ -2681,7 +2675,7 @@
         <v>435</v>
       </c>
       <c r="I24" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J24" t="s">
         <v>436</v>
@@ -2716,7 +2710,7 @@
         <v>435</v>
       </c>
       <c r="I25" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J25" t="s">
         <v>436</v>
@@ -2751,7 +2745,7 @@
         <v>435</v>
       </c>
       <c r="I26" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J26" t="s">
         <v>436</v>
@@ -4956,7 +4950,7 @@
         <v>435</v>
       </c>
       <c r="I89" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="J89" t="s">
         <v>436</v>
@@ -4991,7 +4985,7 @@
         <v>435</v>
       </c>
       <c r="I90" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="J90" t="s">
         <v>436</v>
@@ -5026,7 +5020,7 @@
         <v>435</v>
       </c>
       <c r="I91" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="J91" t="s">
         <v>436</v>
@@ -5061,7 +5055,7 @@
         <v>435</v>
       </c>
       <c r="I92" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="J92" t="s">
         <v>436</v>
@@ -5087,7 +5081,7 @@
         <v>9</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G93" t="s">
         <v>434</v>
@@ -5306,10 +5300,10 @@
         <v>439</v>
       </c>
       <c r="I99" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="J99" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K99">
         <v>10</v>
@@ -5656,10 +5650,10 @@
         <v>439</v>
       </c>
       <c r="I109" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J109" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K109" t="s">
         <v>437</v>
@@ -5796,7 +5790,7 @@
         <v>439</v>
       </c>
       <c r="I113" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J113" t="s">
         <v>393</v>
@@ -5831,7 +5825,7 @@
         <v>439</v>
       </c>
       <c r="I114" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J114" t="s">
         <v>393</v>
@@ -5866,7 +5860,7 @@
         <v>439</v>
       </c>
       <c r="I115" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J115" t="s">
         <v>393</v>
@@ -5901,7 +5895,7 @@
         <v>439</v>
       </c>
       <c r="I116" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J116" t="s">
         <v>393</v>
@@ -5936,7 +5930,7 @@
         <v>439</v>
       </c>
       <c r="I117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J117" t="s">
         <v>393</v>
@@ -6181,10 +6175,10 @@
         <v>439</v>
       </c>
       <c r="I124" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J124" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K124" t="s">
         <v>437</v>
@@ -6321,10 +6315,10 @@
         <v>439</v>
       </c>
       <c r="I128" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J128" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K128" t="s">
         <v>437</v>
@@ -6496,10 +6490,10 @@
         <v>439</v>
       </c>
       <c r="I133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K133" t="s">
         <v>437</v>
@@ -6531,10 +6525,10 @@
         <v>439</v>
       </c>
       <c r="I134" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J134" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K134" t="s">
         <v>437</v>
@@ -6566,7 +6560,7 @@
         <v>439</v>
       </c>
       <c r="I135" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J135" t="s">
         <v>393</v>
@@ -6601,7 +6595,7 @@
         <v>439</v>
       </c>
       <c r="I136" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J136" t="s">
         <v>393</v>
@@ -6881,10 +6875,10 @@
         <v>435</v>
       </c>
       <c r="I144" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J144" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K144" t="s">
         <v>437</v>
@@ -7371,10 +7365,10 @@
         <v>439</v>
       </c>
       <c r="I158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K158" t="s">
         <v>437</v>
@@ -7406,10 +7400,10 @@
         <v>439</v>
       </c>
       <c r="I159" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J159" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K159" t="s">
         <v>437</v>
@@ -7581,7 +7575,7 @@
         <v>439</v>
       </c>
       <c r="I164" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J164" t="s">
         <v>444</v>
@@ -8071,7 +8065,7 @@
         <v>439</v>
       </c>
       <c r="I178" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J178" t="s">
         <v>444</v>
@@ -8211,10 +8205,10 @@
         <v>439</v>
       </c>
       <c r="I182" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J182" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K182" t="s">
         <v>437</v>
@@ -8246,10 +8240,10 @@
         <v>439</v>
       </c>
       <c r="I183" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J183" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K183" t="s">
         <v>437</v>
@@ -8281,10 +8275,10 @@
         <v>439</v>
       </c>
       <c r="I184" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J184" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K184" t="s">
         <v>437</v>
@@ -8456,7 +8450,7 @@
         <v>439</v>
       </c>
       <c r="I189" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J189" t="s">
         <v>444</v>
@@ -8491,7 +8485,7 @@
         <v>439</v>
       </c>
       <c r="I190" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J190" t="s">
         <v>444</v>
@@ -8841,10 +8835,10 @@
         <v>439</v>
       </c>
       <c r="I200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K200" t="s">
         <v>437</v>
@@ -8876,7 +8870,7 @@
         <v>439</v>
       </c>
       <c r="I201" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J201" t="s">
         <v>440</v>
@@ -8911,7 +8905,7 @@
         <v>439</v>
       </c>
       <c r="I202" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J202" t="s">
         <v>440</v>
@@ -9646,10 +9640,10 @@
         <v>439</v>
       </c>
       <c r="I223" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J223" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K223" t="s">
         <v>437</v>
@@ -9681,10 +9675,10 @@
         <v>439</v>
       </c>
       <c r="I224" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J224" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K224" t="s">
         <v>437</v>
@@ -9716,10 +9710,10 @@
         <v>439</v>
       </c>
       <c r="I225" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J225" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K225" t="s">
         <v>437</v>
@@ -9751,10 +9745,10 @@
         <v>439</v>
       </c>
       <c r="I226" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J226" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K226" t="s">
         <v>437</v>
@@ -9786,10 +9780,10 @@
         <v>439</v>
       </c>
       <c r="I227" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J227" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K227" t="s">
         <v>437</v>
@@ -9821,10 +9815,10 @@
         <v>439</v>
       </c>
       <c r="I228" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K228" t="s">
         <v>437</v>
@@ -9856,10 +9850,10 @@
         <v>439</v>
       </c>
       <c r="I229" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K229" t="s">
         <v>437</v>
@@ -9996,10 +9990,10 @@
         <v>439</v>
       </c>
       <c r="I233" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J233" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K233" t="s">
         <v>437</v>
@@ -10136,10 +10130,10 @@
         <v>439</v>
       </c>
       <c r="I237" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J237" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K237" t="s">
         <v>437</v>
@@ -10241,10 +10235,10 @@
         <v>435</v>
       </c>
       <c r="I240" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="J240" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K240" t="s">
         <v>437</v>

--- a/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0089665-33C2-8C4E-A4C3-1FCD346CFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7524A0CD-E458-4B47-A68E-D5D938F46518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="460">
   <si>
     <t>Fig Index</t>
   </si>
@@ -377,9 +377,6 @@
     <t>10.1016:j.cell.2023.01.002_zero_fig2</t>
   </si>
   <si>
-    <t>10.1016:j.cell.2023.01.002_zero_fig3</t>
-  </si>
-  <si>
     <t>10.1016:j.cell.2023.01.012_zero_fig1</t>
   </si>
   <si>
@@ -1377,9 +1374,6 @@
   </si>
   <si>
     <t>Log10 CFU/mL</t>
-  </si>
-  <si>
-    <t>Colony count</t>
   </si>
   <si>
     <t>AUC</t>
@@ -1829,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="183" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1861,22 +1855,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1896,22 +1890,22 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" t="s">
         <v>434</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>435</v>
       </c>
-      <c r="I2" t="s">
-        <v>436</v>
-      </c>
       <c r="J2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1931,22 +1925,22 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" t="s">
         <v>434</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>435</v>
       </c>
-      <c r="I3" t="s">
-        <v>436</v>
-      </c>
       <c r="J3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1966,22 +1960,22 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" t="s">
         <v>434</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>435</v>
       </c>
-      <c r="I4" t="s">
-        <v>436</v>
-      </c>
       <c r="J4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2001,22 +1995,22 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" t="s">
+        <v>433</v>
+      </c>
+      <c r="H5" t="s">
         <v>434</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>435</v>
       </c>
-      <c r="I5" t="s">
-        <v>436</v>
-      </c>
       <c r="J5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2036,22 +2030,22 @@
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G6" t="s">
+        <v>433</v>
+      </c>
+      <c r="H6" t="s">
         <v>434</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>435</v>
       </c>
-      <c r="I6" t="s">
-        <v>436</v>
-      </c>
       <c r="J6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2071,22 +2065,22 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" t="s">
         <v>434</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>435</v>
       </c>
-      <c r="I7" t="s">
-        <v>436</v>
-      </c>
       <c r="J7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2106,22 +2100,22 @@
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" t="s">
         <v>434</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>435</v>
       </c>
-      <c r="I8" t="s">
-        <v>436</v>
-      </c>
       <c r="J8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2141,22 +2135,22 @@
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H9" t="s">
         <v>434</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>435</v>
       </c>
-      <c r="I9" t="s">
-        <v>436</v>
-      </c>
       <c r="J9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2176,22 +2170,22 @@
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" t="s">
         <v>434</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>435</v>
       </c>
-      <c r="I10" t="s">
-        <v>436</v>
-      </c>
       <c r="J10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2211,22 +2205,22 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G11" t="s">
+        <v>433</v>
+      </c>
+      <c r="H11" t="s">
         <v>434</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>435</v>
       </c>
-      <c r="I11" t="s">
-        <v>436</v>
-      </c>
       <c r="J11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2246,22 +2240,22 @@
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H12" t="s">
         <v>434</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>435</v>
       </c>
-      <c r="I12" t="s">
-        <v>436</v>
-      </c>
       <c r="J12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2281,22 +2275,22 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G13" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" t="s">
         <v>434</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>435</v>
       </c>
-      <c r="I13" t="s">
-        <v>436</v>
-      </c>
       <c r="J13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2316,22 +2310,22 @@
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G14" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" t="s">
         <v>434</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>435</v>
       </c>
-      <c r="I14" t="s">
-        <v>436</v>
-      </c>
       <c r="J14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2351,22 +2345,22 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H15" t="s">
         <v>434</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>435</v>
       </c>
-      <c r="I15" t="s">
-        <v>436</v>
-      </c>
       <c r="J15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2386,22 +2380,22 @@
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" t="s">
         <v>434</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>435</v>
       </c>
-      <c r="I16" t="s">
-        <v>436</v>
-      </c>
       <c r="J16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2421,22 +2415,22 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H17" t="s">
         <v>434</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>435</v>
       </c>
-      <c r="I17" t="s">
-        <v>436</v>
-      </c>
       <c r="J17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2456,22 +2450,22 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G18" t="s">
+        <v>433</v>
+      </c>
+      <c r="H18" t="s">
         <v>434</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>435</v>
       </c>
-      <c r="I18" t="s">
-        <v>436</v>
-      </c>
       <c r="J18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2491,22 +2485,22 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G19" t="s">
+        <v>433</v>
+      </c>
+      <c r="H19" t="s">
         <v>434</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>435</v>
       </c>
-      <c r="I19" t="s">
-        <v>436</v>
-      </c>
       <c r="J19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2526,22 +2520,22 @@
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G20" t="s">
+        <v>433</v>
+      </c>
+      <c r="H20" t="s">
         <v>434</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>435</v>
       </c>
-      <c r="I20" t="s">
-        <v>436</v>
-      </c>
       <c r="J20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2561,22 +2555,22 @@
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G21" t="s">
+        <v>433</v>
+      </c>
+      <c r="H21" t="s">
         <v>434</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>435</v>
       </c>
-      <c r="I21" t="s">
-        <v>436</v>
-      </c>
       <c r="J21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2596,22 +2590,22 @@
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
+        <v>433</v>
+      </c>
+      <c r="H22" t="s">
         <v>434</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>435</v>
       </c>
-      <c r="I22" t="s">
-        <v>436</v>
-      </c>
       <c r="J22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2631,22 +2625,22 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G23" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" t="s">
         <v>434</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>435</v>
       </c>
-      <c r="I23" t="s">
-        <v>436</v>
-      </c>
       <c r="J23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2666,22 +2660,22 @@
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G24" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" t="s">
         <v>434</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>435</v>
       </c>
-      <c r="I24" t="s">
-        <v>436</v>
-      </c>
       <c r="J24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2701,22 +2695,22 @@
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G25" t="s">
+        <v>433</v>
+      </c>
+      <c r="H25" t="s">
         <v>434</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>435</v>
       </c>
-      <c r="I25" t="s">
-        <v>436</v>
-      </c>
       <c r="J25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2736,22 +2730,22 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G26" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" t="s">
         <v>434</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>435</v>
       </c>
-      <c r="I26" t="s">
-        <v>436</v>
-      </c>
       <c r="J26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2771,22 +2765,22 @@
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H27" t="s">
+        <v>438</v>
+      </c>
+      <c r="I27" t="s">
         <v>439</v>
       </c>
-      <c r="I27" t="s">
-        <v>440</v>
-      </c>
       <c r="J27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2806,22 +2800,22 @@
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2841,22 +2835,22 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2876,22 +2870,22 @@
         <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2911,22 +2905,22 @@
         <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2946,22 +2940,22 @@
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2981,22 +2975,22 @@
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3016,22 +3010,22 @@
         <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3051,22 +3045,22 @@
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3086,22 +3080,22 @@
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3121,22 +3115,22 @@
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3156,22 +3150,22 @@
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3191,22 +3185,22 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3226,22 +3220,22 @@
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3261,22 +3255,22 @@
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3296,22 +3290,22 @@
         <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3331,22 +3325,22 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3366,22 +3360,22 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3401,22 +3395,22 @@
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3436,22 +3430,22 @@
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3471,22 +3465,22 @@
         <v>9</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3506,22 +3500,22 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3541,22 +3535,22 @@
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3576,22 +3570,22 @@
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3611,22 +3605,22 @@
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -3646,22 +3640,22 @@
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -3681,22 +3675,22 @@
         <v>9</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -3716,22 +3710,22 @@
         <v>9</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -3751,22 +3745,22 @@
         <v>9</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -3786,22 +3780,22 @@
         <v>9</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3821,22 +3815,22 @@
         <v>9</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -3856,22 +3850,22 @@
         <v>9</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -3891,22 +3885,22 @@
         <v>9</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -3926,22 +3920,22 @@
         <v>9</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -3961,22 +3955,22 @@
         <v>9</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3996,22 +3990,22 @@
         <v>9</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4031,22 +4025,22 @@
         <v>9</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="I63" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="J63" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="K63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4066,19 +4060,19 @@
         <v>9</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K64">
         <v>10</v>
@@ -4101,22 +4095,22 @@
         <v>9</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -4136,22 +4130,22 @@
         <v>9</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -4171,22 +4165,22 @@
         <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -4206,22 +4200,22 @@
         <v>9</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="I68" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="J68" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="K68" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -4241,22 +4235,22 @@
         <v>9</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G69" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="I69" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="K69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -4276,22 +4270,22 @@
         <v>9</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G70" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K70" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -4314,19 +4308,19 @@
         <v>352</v>
       </c>
       <c r="G71" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H71" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I71" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="J71" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="K71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -4346,16 +4340,16 @@
         <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G72" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I72" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J72" t="s">
         <v>443</v>
@@ -4369,13 +4363,13 @@
         <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -4384,54 +4378,54 @@
         <v>353</v>
       </c>
       <c r="G73" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H73" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I73" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="J73" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="K73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
         <v>115</v>
       </c>
-      <c r="B74" t="s">
-        <v>116</v>
-      </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -4439,34 +4433,34 @@
         <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -4474,13 +4468,13 @@
         <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -4489,33 +4483,33 @@
         <v>354</v>
       </c>
       <c r="G76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H76" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="I76" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="J76" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="K76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
         <v>119</v>
       </c>
-      <c r="B77" t="s">
-        <v>120</v>
-      </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -4524,19 +4518,19 @@
         <v>355</v>
       </c>
       <c r="G77" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H77" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I77" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="J77" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="K77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -4544,34 +4538,34 @@
         <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G78" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H78" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I78" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="J78" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="K78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -4579,34 +4573,34 @@
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -4614,34 +4608,34 @@
         <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -4649,34 +4643,34 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G81" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K81" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -4684,34 +4678,34 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G82" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H82" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I82" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="J82" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="K82" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -4719,34 +4713,34 @@
         <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G83" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H83" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I83" t="s">
-        <v>443</v>
+        <v>334</v>
       </c>
       <c r="J83" t="s">
-        <v>443</v>
+        <v>334</v>
       </c>
       <c r="K83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -4754,63 +4748,63 @@
         <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G84" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H84" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I84" t="s">
-        <v>335</v>
+        <v>451</v>
       </c>
       <c r="J84" t="s">
-        <v>335</v>
-      </c>
-      <c r="K84" t="s">
-        <v>437</v>
+        <v>443</v>
+      </c>
+      <c r="K84">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" t="s">
         <v>128</v>
       </c>
-      <c r="B85" t="s">
-        <v>129</v>
-      </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G85" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I85" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J85" t="s">
         <v>443</v>
@@ -4824,28 +4818,28 @@
         <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H86" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I86" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J86" t="s">
         <v>443</v>
@@ -4859,28 +4853,28 @@
         <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I87" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J87" t="s">
         <v>443</v>
@@ -4894,13 +4888,13 @@
         <v>132</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -4909,54 +4903,54 @@
         <v>358</v>
       </c>
       <c r="G88" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H88" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I88" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="J88" t="s">
-        <v>443</v>
-      </c>
-      <c r="K88">
-        <v>10</v>
+        <v>435</v>
+      </c>
+      <c r="K88" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
         <v>133</v>
       </c>
-      <c r="B89" t="s">
-        <v>134</v>
-      </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G89" t="s">
+        <v>433</v>
+      </c>
+      <c r="H89" t="s">
         <v>434</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>435</v>
       </c>
-      <c r="I89" t="s">
-        <v>436</v>
-      </c>
       <c r="J89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4964,34 +4958,34 @@
         <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G90" t="s">
+        <v>433</v>
+      </c>
+      <c r="H90" t="s">
         <v>434</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>435</v>
       </c>
-      <c r="I90" t="s">
-        <v>436</v>
-      </c>
       <c r="J90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4999,34 +4993,34 @@
         <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G91" t="s">
+        <v>433</v>
+      </c>
+      <c r="H91" t="s">
         <v>434</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>435</v>
       </c>
-      <c r="I91" t="s">
-        <v>436</v>
-      </c>
       <c r="J91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -5034,69 +5028,69 @@
         <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G92" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H92" t="s">
-        <v>435</v>
+        <v>351</v>
       </c>
       <c r="I92" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="J92" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="K92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" t="s">
         <v>138</v>
       </c>
-      <c r="B93" t="s">
-        <v>139</v>
-      </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="G93" t="s">
+        <v>433</v>
+      </c>
+      <c r="H93" t="s">
         <v>434</v>
       </c>
-      <c r="H93" t="s">
-        <v>352</v>
-      </c>
       <c r="I93" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="J93" t="s">
-        <v>352</v>
+        <v>435</v>
       </c>
       <c r="K93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -5104,13 +5098,13 @@
         <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -5119,54 +5113,54 @@
         <v>360</v>
       </c>
       <c r="G94" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H94" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="I94" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="J94" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="K94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" t="s">
         <v>141</v>
       </c>
-      <c r="B95" t="s">
-        <v>142</v>
-      </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G95" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I95" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="J95" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="K95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -5174,34 +5168,34 @@
         <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G96" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I96" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="J96" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="K96" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -5209,13 +5203,13 @@
         <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -5224,19 +5218,19 @@
         <v>361</v>
       </c>
       <c r="G97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H97" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I97" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="J97" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="K97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -5244,42 +5238,42 @@
         <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I98" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="J98" t="s">
         <v>443</v>
       </c>
-      <c r="K98" t="s">
-        <v>437</v>
+      <c r="K98">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -5291,57 +5285,57 @@
         <v>9</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G99" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H99" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I99" t="s">
-        <v>461</v>
+        <v>334</v>
       </c>
       <c r="J99" t="s">
-        <v>444</v>
-      </c>
-      <c r="K99">
-        <v>10</v>
+        <v>334</v>
+      </c>
+      <c r="K99" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" t="s">
         <v>148</v>
       </c>
-      <c r="B100" t="s">
-        <v>149</v>
-      </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G100" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H100" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I100" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="J100" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="K100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -5349,34 +5343,34 @@
         <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G101" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H101" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I101" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="J101" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="K101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -5384,13 +5378,13 @@
         <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -5399,19 +5393,19 @@
         <v>367</v>
       </c>
       <c r="G102" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H102" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I102" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="J102" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="K102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -5419,34 +5413,34 @@
         <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G103" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H103" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I103" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J103" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K103" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -5454,42 +5448,42 @@
         <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G104" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H104" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I104" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J104" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K104" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -5504,54 +5498,54 @@
         <v>369</v>
       </c>
       <c r="G105" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K105" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" t="s">
         <v>156</v>
       </c>
-      <c r="B106" t="s">
-        <v>157</v>
-      </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G106" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K106" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -5559,13 +5553,13 @@
         <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -5574,54 +5568,54 @@
         <v>370</v>
       </c>
       <c r="G107" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H107" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I107" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="J107" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="K107" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" t="s">
         <v>159</v>
       </c>
-      <c r="B108" t="s">
-        <v>160</v>
-      </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I108" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J108" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K108" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -5629,34 +5623,34 @@
         <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G109" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H109" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I109" t="s">
-        <v>451</v>
+        <v>334</v>
       </c>
       <c r="J109" t="s">
-        <v>451</v>
+        <v>334</v>
       </c>
       <c r="K109" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -5664,34 +5658,34 @@
         <v>162</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H110" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="I110" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="J110" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="K110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -5699,13 +5693,13 @@
         <v>163</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -5714,19 +5708,19 @@
         <v>375</v>
       </c>
       <c r="G111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K111" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -5734,13 +5728,13 @@
         <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -5749,19 +5743,19 @@
         <v>376</v>
       </c>
       <c r="G112" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H112" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I112" t="s">
-        <v>352</v>
+        <v>450</v>
       </c>
       <c r="J112" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="K112" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -5769,34 +5763,34 @@
         <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G113" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I113" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -5804,34 +5798,34 @@
         <v>166</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G114" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H114" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I114" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J114" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K114" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -5839,34 +5833,34 @@
         <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G115" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J115" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K115" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -5874,34 +5868,34 @@
         <v>168</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G116" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I116" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K116" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -5909,13 +5903,13 @@
         <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -5924,19 +5918,19 @@
         <v>377</v>
       </c>
       <c r="G117" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H117" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I117" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J117" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="K117" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -5944,34 +5938,34 @@
         <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G118" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H118" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="I118" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J118" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K118" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -5979,34 +5973,34 @@
         <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H119" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I119" t="s">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="J119" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="K119" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -6014,34 +6008,34 @@
         <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G120" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H120" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I120" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="J120" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="K120" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -6049,13 +6043,13 @@
         <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -6064,19 +6058,19 @@
         <v>371</v>
       </c>
       <c r="G121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I121" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K121" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -6084,34 +6078,34 @@
         <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G122" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I122" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="J122" t="s">
         <v>443</v>
       </c>
       <c r="K122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -6119,34 +6113,34 @@
         <v>175</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G123" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H123" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I123" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="J123" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K123" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -6154,34 +6148,34 @@
         <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I124" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J124" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="K124" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -6189,13 +6183,13 @@
         <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -6204,33 +6198,33 @@
         <v>381</v>
       </c>
       <c r="G125" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I125" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="J125" t="s">
         <v>443</v>
       </c>
       <c r="K125" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -6239,124 +6233,124 @@
         <v>382</v>
       </c>
       <c r="G126" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H126" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I126" t="s">
-        <v>444</v>
+        <v>334</v>
       </c>
       <c r="J126" t="s">
-        <v>444</v>
+        <v>334</v>
       </c>
       <c r="K126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G127" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H127" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I127" t="s">
-        <v>335</v>
+        <v>449</v>
       </c>
       <c r="J127" t="s">
-        <v>335</v>
+        <v>449</v>
       </c>
       <c r="K127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G128" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I128" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="J128" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="G129" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H129" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I129" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="J129" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="K129" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -6364,244 +6358,244 @@
         <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="G130" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H130" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I130" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="J130" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="K130" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G131" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H131" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I131" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="J131" t="s">
         <v>443</v>
       </c>
       <c r="K131" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G132" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H132" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I132" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="J132" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K132" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G133" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H133" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I133" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J133" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K133" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G134" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H134" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I134" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J134" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="K134" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G135" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H135" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I135" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J135" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K135" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="G136" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H136" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I136" t="s">
-        <v>452</v>
+        <v>351</v>
       </c>
       <c r="J136" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="K136" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -6609,34 +6603,34 @@
         <v>199</v>
       </c>
       <c r="B137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H137" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I137" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J137" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -6644,34 +6638,34 @@
         <v>200</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G138" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K138" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -6679,34 +6673,34 @@
         <v>201</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E139" t="s">
         <v>9</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="G139" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H139" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I139" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="J139" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="K139" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -6714,34 +6708,34 @@
         <v>202</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G140" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H140" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I140" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J140" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K140" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -6749,13 +6743,13 @@
         <v>203</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
@@ -6764,19 +6758,19 @@
         <v>372</v>
       </c>
       <c r="G141" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H141" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I141" t="s">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="J141" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="K141" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -6784,69 +6778,69 @@
         <v>204</v>
       </c>
       <c r="B142" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E142" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="G142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H142" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="I142" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="J142" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="K142" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B143" t="s">
         <v>205</v>
       </c>
-      <c r="B143" t="s">
-        <v>206</v>
-      </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
         <v>9</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="G143" t="s">
+        <v>433</v>
+      </c>
+      <c r="H143" t="s">
         <v>434</v>
       </c>
-      <c r="H143" t="s">
-        <v>335</v>
-      </c>
       <c r="I143" t="s">
-        <v>335</v>
+        <v>457</v>
       </c>
       <c r="J143" t="s">
-        <v>335</v>
+        <v>458</v>
       </c>
       <c r="K143" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -6854,13 +6848,13 @@
         <v>207</v>
       </c>
       <c r="B144" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
@@ -6869,27 +6863,27 @@
         <v>387</v>
       </c>
       <c r="G144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H144" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="I144" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="J144" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="K144" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B145" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -6904,33 +6898,33 @@
         <v>388</v>
       </c>
       <c r="G145" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H145" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I145" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="J145" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="K145" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B146" t="s">
         <v>210</v>
       </c>
-      <c r="B146" t="s">
-        <v>211</v>
-      </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
@@ -6939,19 +6933,19 @@
         <v>389</v>
       </c>
       <c r="G146" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H146" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I146" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="J146" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="K146" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -6959,34 +6953,34 @@
         <v>212</v>
       </c>
       <c r="B147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E147" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G147" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H147" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I147" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="J147" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="K147" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -6994,42 +6988,42 @@
         <v>213</v>
       </c>
       <c r="B148" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G148" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H148" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I148" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="J148" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="K148" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -7044,33 +7038,33 @@
         <v>391</v>
       </c>
       <c r="G149" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K149" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B150" t="s">
         <v>216</v>
       </c>
-      <c r="B150" t="s">
-        <v>217</v>
-      </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
@@ -7079,19 +7073,19 @@
         <v>392</v>
       </c>
       <c r="G150" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H150" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I150" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="J150" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="K150" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -7099,34 +7093,34 @@
         <v>218</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G151" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H151" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I151" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J151" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K151" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -7134,34 +7128,34 @@
         <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G152" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H152" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K152" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -7169,13 +7163,13 @@
         <v>220</v>
       </c>
       <c r="B153" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
@@ -7184,10 +7178,10 @@
         <v>393</v>
       </c>
       <c r="G153" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H153" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I153" t="s">
         <v>393</v>
@@ -7196,7 +7190,7 @@
         <v>393</v>
       </c>
       <c r="K153" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -7204,13 +7198,13 @@
         <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
@@ -7219,19 +7213,19 @@
         <v>394</v>
       </c>
       <c r="G154" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H154" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I154" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="J154" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="K154" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -7239,13 +7233,13 @@
         <v>222</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
@@ -7254,54 +7248,54 @@
         <v>395</v>
       </c>
       <c r="G155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H155" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I155" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="J155" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" t="s">
         <v>223</v>
       </c>
-      <c r="B156" t="s">
-        <v>224</v>
-      </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G156" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H156" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I156" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J156" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K156" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -7309,13 +7303,13 @@
         <v>225</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
@@ -7324,33 +7318,33 @@
         <v>396</v>
       </c>
       <c r="G157" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H157" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I157" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="J157" t="s">
-        <v>352</v>
+        <v>449</v>
       </c>
       <c r="K157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B158" t="s">
         <v>226</v>
       </c>
-      <c r="B158" t="s">
-        <v>227</v>
-      </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -7359,19 +7353,19 @@
         <v>397</v>
       </c>
       <c r="G158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H158" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I158" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J158" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K158" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -7379,13 +7373,13 @@
         <v>228</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
@@ -7394,27 +7388,27 @@
         <v>398</v>
       </c>
       <c r="G159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H159" t="s">
+        <v>438</v>
+      </c>
+      <c r="I159" t="s">
         <v>439</v>
       </c>
-      <c r="I159" t="s">
-        <v>451</v>
-      </c>
       <c r="J159" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B160" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -7429,27 +7423,27 @@
         <v>399</v>
       </c>
       <c r="G160" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H160" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I160" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="J160" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="K160" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -7461,30 +7455,30 @@
         <v>9</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="G161" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H161" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I161" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J161" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K161" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B162" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -7496,36 +7490,36 @@
         <v>9</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="G162" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H162" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I162" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="J162" t="s">
-        <v>335</v>
-      </c>
-      <c r="K162" t="s">
-        <v>437</v>
+        <v>442</v>
+      </c>
+      <c r="K162">
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B163" t="s">
         <v>235</v>
       </c>
-      <c r="B163" t="s">
-        <v>236</v>
-      </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
@@ -7534,13 +7528,13 @@
         <v>401</v>
       </c>
       <c r="G163" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H163" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I163" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="J163" t="s">
         <v>443</v>
@@ -7554,31 +7548,31 @@
         <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>402</v>
+      <c r="F164" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="G164" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H164" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I164" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J164" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K164">
         <v>10</v>
@@ -7589,31 +7583,31 @@
         <v>238</v>
       </c>
       <c r="B165" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
       </c>
-      <c r="F165" s="4" t="s">
-        <v>401</v>
+      <c r="F165" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="G165" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H165" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I165" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J165" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K165">
         <v>10</v>
@@ -7624,31 +7618,31 @@
         <v>239</v>
       </c>
       <c r="B166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G166" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H166" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I166" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J166" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K166">
         <v>10</v>
@@ -7659,31 +7653,31 @@
         <v>240</v>
       </c>
       <c r="B167" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G167" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H167" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I167" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J167" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K167">
         <v>10</v>
@@ -7694,31 +7688,31 @@
         <v>241</v>
       </c>
       <c r="B168" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G168" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H168" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I168" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J168" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K168">
         <v>10</v>
@@ -7729,31 +7723,31 @@
         <v>242</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G169" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I169" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J169" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K169">
         <v>10</v>
@@ -7764,31 +7758,31 @@
         <v>243</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G170" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H170" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I170" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J170" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K170">
         <v>10</v>
@@ -7799,31 +7793,31 @@
         <v>244</v>
       </c>
       <c r="B171" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E171" t="s">
         <v>9</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H171" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I171" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J171" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K171">
         <v>10</v>
@@ -7834,31 +7828,31 @@
         <v>245</v>
       </c>
       <c r="B172" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G172" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H172" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I172" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J172" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K172">
         <v>10</v>
@@ -7869,31 +7863,31 @@
         <v>246</v>
       </c>
       <c r="B173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G173" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H173" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I173" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J173" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K173">
         <v>10</v>
@@ -7904,31 +7898,31 @@
         <v>247</v>
       </c>
       <c r="B174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G174" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H174" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K174">
         <v>10</v>
@@ -7939,31 +7933,31 @@
         <v>248</v>
       </c>
       <c r="B175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G175" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H175" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I175" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J175" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K175">
         <v>10</v>
@@ -7974,31 +7968,31 @@
         <v>249</v>
       </c>
       <c r="B176" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G176" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H176" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K176">
         <v>10</v>
@@ -8009,13 +8003,13 @@
         <v>250</v>
       </c>
       <c r="B177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E177" t="s">
         <v>9</v>
@@ -8024,13 +8018,13 @@
         <v>401</v>
       </c>
       <c r="G177" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H177" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I177" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="J177" t="s">
         <v>443</v>
@@ -8044,13 +8038,13 @@
         <v>251</v>
       </c>
       <c r="B178" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
@@ -8059,27 +8053,27 @@
         <v>402</v>
       </c>
       <c r="G178" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H178" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I178" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="J178" t="s">
-        <v>444</v>
-      </c>
-      <c r="K178">
-        <v>10</v>
+        <v>351</v>
+      </c>
+      <c r="K178" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B179" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -8091,30 +8085,30 @@
         <v>9</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="G179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H179" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="I179" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="J179" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="K179" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B180" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -8126,30 +8120,30 @@
         <v>9</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G180" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H180" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I180" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J180" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K180" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B181" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -8161,57 +8155,57 @@
         <v>9</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
       <c r="G181" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H181" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I181" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="J181" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="K181" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B182" t="s">
         <v>258</v>
       </c>
-      <c r="B182" t="s">
-        <v>259</v>
-      </c>
       <c r="C182" t="s">
         <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E182" t="s">
         <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G182" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H182" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I182" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J182" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K182" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -8219,34 +8213,34 @@
         <v>260</v>
       </c>
       <c r="B183" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E183" t="s">
         <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G183" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H183" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I183" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J183" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K183" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -8254,13 +8248,13 @@
         <v>261</v>
       </c>
       <c r="B184" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
@@ -8269,54 +8263,54 @@
         <v>404</v>
       </c>
       <c r="G184" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H184" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I184" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="J184" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="K184" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B185" t="s">
         <v>262</v>
       </c>
-      <c r="B185" t="s">
-        <v>263</v>
-      </c>
       <c r="C185" t="s">
         <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
         <v>9</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="G185" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H185" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I185" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J185" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K185" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -8324,34 +8318,34 @@
         <v>264</v>
       </c>
       <c r="B186" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G186" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H186" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I186" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J186" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K186" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -8359,34 +8353,34 @@
         <v>265</v>
       </c>
       <c r="B187" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E187" t="s">
         <v>9</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G187" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K187" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -8394,34 +8388,34 @@
         <v>266</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="G188" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H188" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I188" t="s">
-        <v>335</v>
+        <v>453</v>
       </c>
       <c r="J188" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="K188" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -8429,34 +8423,34 @@
         <v>267</v>
       </c>
       <c r="B189" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E189" t="s">
         <v>9</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G189" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H189" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I189" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J189" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K189" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -8464,34 +8458,34 @@
         <v>268</v>
       </c>
       <c r="B190" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G190" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H190" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="I190" t="s">
-        <v>455</v>
+        <v>334</v>
       </c>
       <c r="J190" t="s">
-        <v>444</v>
+        <v>334</v>
       </c>
       <c r="K190" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -8499,34 +8493,34 @@
         <v>269</v>
       </c>
       <c r="B191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E191" t="s">
         <v>9</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="G191" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H191" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I191" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J191" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K191" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -8534,34 +8528,34 @@
         <v>270</v>
       </c>
       <c r="B192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E192" t="s">
         <v>9</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G192" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H192" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I192" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J192" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K192" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -8569,34 +8563,34 @@
         <v>271</v>
       </c>
       <c r="B193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E193" t="s">
         <v>9</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G193" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H193" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I193" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J193" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K193" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -8604,34 +8598,34 @@
         <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E194" t="s">
         <v>9</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G194" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H194" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I194" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J194" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K194" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -8639,34 +8633,34 @@
         <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E195" t="s">
         <v>9</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G195" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H195" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I195" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J195" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K195" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -8674,34 +8668,34 @@
         <v>274</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E196" t="s">
         <v>9</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G196" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K196" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -8709,34 +8703,34 @@
         <v>275</v>
       </c>
       <c r="B197" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G197" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H197" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I197" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J197" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K197" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -8744,42 +8738,42 @@
         <v>276</v>
       </c>
       <c r="B198" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C198" t="s">
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="G198" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H198" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I198" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="J198" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="K198" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B199" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
@@ -8794,27 +8788,27 @@
         <v>407</v>
       </c>
       <c r="G199" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H199" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I199" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="J199" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K199" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B200" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -8829,51 +8823,51 @@
         <v>408</v>
       </c>
       <c r="G200" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H200" t="s">
+        <v>438</v>
+      </c>
+      <c r="I200" t="s">
+        <v>454</v>
+      </c>
+      <c r="J200" t="s">
         <v>439</v>
       </c>
-      <c r="I200" t="s">
-        <v>451</v>
-      </c>
-      <c r="J200" t="s">
-        <v>451</v>
-      </c>
-      <c r="K200" t="s">
-        <v>437</v>
+      <c r="K200">
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B201" t="s">
         <v>281</v>
       </c>
-      <c r="B201" t="s">
-        <v>282</v>
-      </c>
       <c r="C201" t="s">
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G201" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H201" t="s">
+        <v>438</v>
+      </c>
+      <c r="I201" t="s">
+        <v>454</v>
+      </c>
+      <c r="J201" t="s">
         <v>439</v>
-      </c>
-      <c r="I201" t="s">
-        <v>456</v>
-      </c>
-      <c r="J201" t="s">
-        <v>440</v>
       </c>
       <c r="K201">
         <v>10</v>
@@ -8884,34 +8878,34 @@
         <v>283</v>
       </c>
       <c r="B202" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E202" t="s">
         <v>9</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="G202" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H202" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I202" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="J202" t="s">
-        <v>440</v>
-      </c>
-      <c r="K202">
-        <v>10</v>
+        <v>435</v>
+      </c>
+      <c r="K202" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -8919,69 +8913,69 @@
         <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E203" t="s">
         <v>9</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="G203" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H203" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I203" t="s">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="J203" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="K203" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B204" t="s">
         <v>285</v>
       </c>
-      <c r="B204" t="s">
-        <v>286</v>
-      </c>
       <c r="C204" t="s">
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E204" t="s">
         <v>9</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G204" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K204" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
@@ -8989,13 +8983,13 @@
         <v>287</v>
       </c>
       <c r="B205" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
@@ -9004,33 +8998,33 @@
         <v>410</v>
       </c>
       <c r="G205" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H205" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="I205" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="J205" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="K205" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B206" t="s">
         <v>288</v>
       </c>
-      <c r="B206" t="s">
-        <v>289</v>
-      </c>
       <c r="C206" t="s">
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E206" t="s">
         <v>9</v>
@@ -9039,19 +9033,19 @@
         <v>411</v>
       </c>
       <c r="G206" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H206" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I206" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J206" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K206" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
@@ -9059,34 +9053,34 @@
         <v>290</v>
       </c>
       <c r="B207" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C207" t="s">
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E207" t="s">
         <v>9</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G207" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H207" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I207" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J207" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K207" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
@@ -9094,34 +9088,34 @@
         <v>291</v>
       </c>
       <c r="B208" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E208" t="s">
         <v>9</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G208" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H208" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I208" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J208" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K208" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -9129,34 +9123,34 @@
         <v>292</v>
       </c>
       <c r="B209" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E209" t="s">
         <v>9</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G209" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H209" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I209" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J209" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K209" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -9164,69 +9158,69 @@
         <v>293</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C210" t="s">
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E210" t="s">
         <v>9</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G210" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H210" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="I210" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="J210" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="K210" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B211" t="s">
         <v>294</v>
       </c>
-      <c r="B211" t="s">
-        <v>295</v>
-      </c>
       <c r="C211" t="s">
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G211" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H211" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I211" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="J211" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="K211" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -9234,34 +9228,34 @@
         <v>296</v>
       </c>
       <c r="B212" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E212" t="s">
         <v>9</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G212" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K212" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -9269,34 +9263,34 @@
         <v>297</v>
       </c>
       <c r="B213" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E213" t="s">
         <v>9</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G213" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H213" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I213" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J213" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K213" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -9304,34 +9298,34 @@
         <v>298</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E214" t="s">
         <v>9</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G214" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H214" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I214" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J214" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K214" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -9339,34 +9333,34 @@
         <v>299</v>
       </c>
       <c r="B215" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E215" t="s">
         <v>9</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H215" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I215" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J215" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K215" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -9374,34 +9368,34 @@
         <v>300</v>
       </c>
       <c r="B216" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E216" t="s">
         <v>9</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H216" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I216" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J216" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K216" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -9409,34 +9403,34 @@
         <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C217" t="s">
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E217" t="s">
         <v>9</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G217" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H217" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I217" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J217" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K217" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -9444,34 +9438,34 @@
         <v>302</v>
       </c>
       <c r="B218" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E218" t="s">
         <v>9</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G218" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K218" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -9479,34 +9473,34 @@
         <v>303</v>
       </c>
       <c r="B219" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G219" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H219" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I219" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J219" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K219" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -9514,34 +9508,34 @@
         <v>304</v>
       </c>
       <c r="B220" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G220" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H220" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I220" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J220" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K220" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -9549,34 +9543,34 @@
         <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E221" t="s">
         <v>9</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G221" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H221" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I221" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="J221" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="K221" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -9584,34 +9578,34 @@
         <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E222" t="s">
         <v>9</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G222" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H222" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I222" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="J222" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K222" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -9619,13 +9613,13 @@
         <v>307</v>
       </c>
       <c r="B223" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E223" t="s">
         <v>9</v>
@@ -9634,19 +9628,19 @@
         <v>421</v>
       </c>
       <c r="G223" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H223" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I223" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J223" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K223" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -9654,13 +9648,13 @@
         <v>308</v>
       </c>
       <c r="B224" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E224" t="s">
         <v>9</v>
@@ -9669,19 +9663,19 @@
         <v>422</v>
       </c>
       <c r="G224" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H224" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I224" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J224" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K224" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -9689,34 +9683,34 @@
         <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G225" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H225" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I225" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J225" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K225" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -9724,34 +9718,34 @@
         <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G226" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H226" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I226" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J226" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K226" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -9759,34 +9753,34 @@
         <v>311</v>
       </c>
       <c r="B227" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G227" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H227" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I227" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K227" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -9794,34 +9788,34 @@
         <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G228" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H228" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I228" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J228" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K228" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -9829,34 +9823,34 @@
         <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G229" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H229" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I229" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J229" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="K229" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
@@ -9864,13 +9858,13 @@
         <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
@@ -9879,19 +9873,19 @@
         <v>415</v>
       </c>
       <c r="G230" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H230" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I230" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="J230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K230" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
@@ -9899,13 +9893,13 @@
         <v>315</v>
       </c>
       <c r="B231" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E231" t="s">
         <v>9</v>
@@ -9914,19 +9908,19 @@
         <v>416</v>
       </c>
       <c r="G231" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H231" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I231" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="J231" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="K231" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
@@ -9934,13 +9928,13 @@
         <v>316</v>
       </c>
       <c r="B232" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
@@ -9949,19 +9943,19 @@
         <v>417</v>
       </c>
       <c r="G232" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H232" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I232" t="s">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="J232" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="K232" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
@@ -9969,13 +9963,13 @@
         <v>317</v>
       </c>
       <c r="B233" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E233" t="s">
         <v>9</v>
@@ -9984,19 +9978,19 @@
         <v>418</v>
       </c>
       <c r="G233" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H233" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I233" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J233" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="K233" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
@@ -10004,13 +9998,13 @@
         <v>318</v>
       </c>
       <c r="B234" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
@@ -10019,19 +10013,19 @@
         <v>419</v>
       </c>
       <c r="G234" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H234" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I234" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="J234" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="K234" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -10039,34 +10033,34 @@
         <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E235" t="s">
         <v>9</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G235" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H235" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I235" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J235" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K235" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
@@ -10074,48 +10068,48 @@
         <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E236" t="s">
         <v>9</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G236" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H236" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I236" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="J236" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="K236" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B237" t="s">
         <v>321</v>
       </c>
-      <c r="B237" t="s">
-        <v>322</v>
-      </c>
       <c r="C237" t="s">
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
@@ -10124,19 +10118,19 @@
         <v>424</v>
       </c>
       <c r="G237" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H237" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I237" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="J237" t="s">
-        <v>454</v>
-      </c>
-      <c r="K237" t="s">
-        <v>437</v>
+        <v>443</v>
+      </c>
+      <c r="K237">
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
@@ -10144,28 +10138,28 @@
         <v>323</v>
       </c>
       <c r="B238" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G238" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H238" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I238" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J238" t="s">
         <v>443</v>
@@ -10179,13 +10173,13 @@
         <v>324</v>
       </c>
       <c r="B239" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
@@ -10194,19 +10188,19 @@
         <v>425</v>
       </c>
       <c r="G239" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H239" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I239" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="J239" t="s">
-        <v>443</v>
-      </c>
-      <c r="K239">
-        <v>10</v>
+        <v>452</v>
+      </c>
+      <c r="K239" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -10214,13 +10208,13 @@
         <v>325</v>
       </c>
       <c r="B240" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
@@ -10229,54 +10223,54 @@
         <v>426</v>
       </c>
       <c r="G240" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H240" t="s">
-        <v>435</v>
+        <v>334</v>
       </c>
       <c r="I240" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="J240" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="K240" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B241" t="s">
         <v>326</v>
       </c>
-      <c r="B241" t="s">
-        <v>327</v>
-      </c>
       <c r="C241" t="s">
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E241" t="s">
         <v>9</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G241" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H241" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I241" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J241" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
@@ -10284,34 +10278,34 @@
         <v>328</v>
       </c>
       <c r="B242" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E242" t="s">
         <v>9</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G242" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K242" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
@@ -10319,34 +10313,34 @@
         <v>329</v>
       </c>
       <c r="B243" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E243" t="s">
         <v>9</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G243" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H243" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I243" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J243" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K243" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
@@ -10354,34 +10348,34 @@
         <v>330</v>
       </c>
       <c r="B244" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G244" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H244" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I244" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J244" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -10389,13 +10383,13 @@
         <v>331</v>
       </c>
       <c r="B245" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E245" t="s">
         <v>9</v>
@@ -10404,53 +10398,18 @@
         <v>427</v>
       </c>
       <c r="G245" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H245" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I245" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J245" t="s">
-        <v>335</v>
-      </c>
-      <c r="K245" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B246" t="s">
-        <v>333</v>
-      </c>
-      <c r="C246" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" t="s">
-        <v>8</v>
-      </c>
-      <c r="E246" t="s">
-        <v>9</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G246" t="s">
-        <v>434</v>
-      </c>
-      <c r="H246" t="s">
-        <v>335</v>
-      </c>
-      <c r="I246" t="s">
-        <v>335</v>
-      </c>
-      <c r="J246" t="s">
-        <v>335</v>
-      </c>
-      <c r="K246">
+        <v>334</v>
+      </c>
+      <c r="K245">
         <v>10</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7524A0CD-E458-4B47-A68E-D5D938F46518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C37ED6-C70A-1744-B161-0C30FD2209CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="183" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="183" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5988,7 +5988,7 @@
         <v>378</v>
       </c>
       <c r="G119" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H119" t="s">
         <v>351</v>

--- a/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C37ED6-C70A-1744-B161-0C30FD2209CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6F568-86E2-454E-B624-65D43E65857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="456">
   <si>
     <t>Fig Index</t>
   </si>
@@ -792,18 +792,6 @@
   </si>
   <si>
     <t>10.1016:j.cell.2023.07.004</t>
-  </si>
-  <si>
-    <t>10.1016:j.cell.2023.07.023_zero_fig1</t>
-  </si>
-  <si>
-    <t>10.1016:j.cell.2023.07.023</t>
-  </si>
-  <si>
-    <t>10.1016:j.cell.2023.07.034_zero_fig1</t>
-  </si>
-  <si>
-    <t>10.1016:j.cell.2023.07.034</t>
   </si>
   <si>
     <t>10.1016:j.cell.2023.07.038_zero_fig1</t>
@@ -1823,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K245"/>
+  <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="183" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="183" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179:XFD179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1855,22 +1843,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1890,22 +1878,22 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1925,22 +1913,22 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1960,22 +1948,22 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1995,22 +1983,22 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2030,22 +2018,22 @@
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2065,22 +2053,22 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2100,22 +2088,22 @@
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2135,22 +2123,22 @@
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2170,22 +2158,22 @@
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2205,22 +2193,22 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2240,22 +2228,22 @@
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G12" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2275,22 +2263,22 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H13" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I13" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J13" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2310,22 +2298,22 @@
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H14" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2345,22 +2333,22 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K15" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2380,22 +2368,22 @@
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G16" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I16" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J16" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2415,22 +2403,22 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2450,22 +2438,22 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I18" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J18" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2485,22 +2473,22 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G19" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2520,22 +2508,22 @@
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2555,22 +2543,22 @@
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H21" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I21" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J21" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K21" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2590,22 +2578,22 @@
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H22" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2625,22 +2613,22 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G23" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H23" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I23" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J23" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2660,22 +2648,22 @@
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G24" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H24" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I24" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J24" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K24" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2695,22 +2683,22 @@
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G25" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H25" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I25" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J25" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K25" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2730,22 +2718,22 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G26" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H26" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I26" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J26" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K26" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2765,22 +2753,22 @@
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H27" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K27" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2800,22 +2788,22 @@
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G28" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I28" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J28" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K28" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2835,22 +2823,22 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G29" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H29" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K29" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2870,22 +2858,22 @@
         <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G30" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H30" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I30" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J30" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K30" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2905,22 +2893,22 @@
         <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G31" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H31" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I31" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J31" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K31" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2940,22 +2928,22 @@
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G32" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H32" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K32" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2975,22 +2963,22 @@
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K33" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3010,22 +2998,22 @@
         <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I34" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J34" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K34" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3045,22 +3033,22 @@
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H35" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I35" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J35" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K35" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3080,22 +3068,22 @@
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G36" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H36" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K36" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3115,22 +3103,22 @@
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H37" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I37" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J37" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K37" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3150,22 +3138,22 @@
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H38" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I38" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J38" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3185,22 +3173,22 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H39" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I39" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J39" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K39" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3220,22 +3208,22 @@
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H40" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I40" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J40" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K40" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3255,22 +3243,22 @@
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G41" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H41" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3290,22 +3278,22 @@
         <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H42" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I42" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J42" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K42" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3325,22 +3313,22 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G43" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H43" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K43" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3360,22 +3348,22 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G44" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H44" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I44" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K44" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3395,22 +3383,22 @@
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G45" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H45" t="s">
+        <v>434</v>
+      </c>
+      <c r="I45" t="s">
         <v>438</v>
       </c>
-      <c r="I45" t="s">
-        <v>442</v>
-      </c>
       <c r="J45" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K45" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3430,22 +3418,22 @@
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G46" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H46" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I46" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K46" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3465,22 +3453,22 @@
         <v>9</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H47" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I47" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J47" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3500,22 +3488,22 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G48" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H48" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I48" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J48" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K48" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3535,22 +3523,22 @@
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G49" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H49" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I49" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K49" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3570,22 +3558,22 @@
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G50" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H50" t="s">
+        <v>434</v>
+      </c>
+      <c r="I50" t="s">
         <v>438</v>
       </c>
-      <c r="I50" t="s">
-        <v>442</v>
-      </c>
       <c r="J50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3605,22 +3593,22 @@
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -3640,22 +3628,22 @@
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G52" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H52" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I52" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J52" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -3675,22 +3663,22 @@
         <v>9</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G53" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H53" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I53" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J53" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K53" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -3710,22 +3698,22 @@
         <v>9</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G54" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H54" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I54" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J54" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K54" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -3745,22 +3733,22 @@
         <v>9</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G55" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H55" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I55" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J55" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K55" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -3780,22 +3768,22 @@
         <v>9</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G56" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H56" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I56" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J56" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K56" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3815,22 +3803,22 @@
         <v>9</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G57" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H57" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I57" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J57" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K57" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -3850,22 +3838,22 @@
         <v>9</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -3885,22 +3873,22 @@
         <v>9</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -3920,22 +3908,22 @@
         <v>9</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -3955,22 +3943,22 @@
         <v>9</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G61" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K61" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3990,22 +3978,22 @@
         <v>9</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G62" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H62" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I62" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J62" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K62" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4025,22 +4013,22 @@
         <v>9</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K63" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4060,19 +4048,19 @@
         <v>9</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G64" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K64">
         <v>10</v>
@@ -4095,22 +4083,22 @@
         <v>9</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G65" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H65" t="s">
+        <v>434</v>
+      </c>
+      <c r="I65" t="s">
         <v>438</v>
       </c>
-      <c r="I65" t="s">
-        <v>442</v>
-      </c>
       <c r="J65" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K65" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -4130,22 +4118,22 @@
         <v>9</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G66" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H66" t="s">
+        <v>434</v>
+      </c>
+      <c r="I66" t="s">
         <v>438</v>
       </c>
-      <c r="I66" t="s">
-        <v>442</v>
-      </c>
       <c r="J66" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K66" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -4165,22 +4153,22 @@
         <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G67" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H67" t="s">
+        <v>434</v>
+      </c>
+      <c r="I67" t="s">
         <v>438</v>
       </c>
-      <c r="I67" t="s">
-        <v>442</v>
-      </c>
       <c r="J67" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K67" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -4200,22 +4188,22 @@
         <v>9</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K68" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -4235,22 +4223,22 @@
         <v>9</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K69" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -4270,22 +4258,22 @@
         <v>9</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G70" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H70" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I70" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J70" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K70" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -4305,22 +4293,22 @@
         <v>9</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G71" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H71" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I71" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J71" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K71" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -4340,19 +4328,19 @@
         <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G72" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H72" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I72" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J72" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -4375,22 +4363,22 @@
         <v>9</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G73" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H73" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I73" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J73" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K73" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -4410,22 +4398,22 @@
         <v>9</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G74" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H74" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I74" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J74" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K74" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -4445,22 +4433,22 @@
         <v>9</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G75" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H75" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I75" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J75" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K75" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -4480,22 +4468,22 @@
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G76" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H76" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I76" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J76" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K76" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -4515,22 +4503,22 @@
         <v>9</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G77" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H77" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I77" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J77" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K77" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -4550,22 +4538,22 @@
         <v>9</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G78" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H78" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I78" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J78" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K78" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -4585,22 +4573,22 @@
         <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G79" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H79" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I79" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J79" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K79" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -4620,22 +4608,22 @@
         <v>9</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G80" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K80" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -4655,22 +4643,22 @@
         <v>9</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G81" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H81" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I81" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J81" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K81" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -4690,22 +4678,22 @@
         <v>9</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G82" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H82" t="s">
+        <v>434</v>
+      </c>
+      <c r="I82" t="s">
         <v>438</v>
       </c>
-      <c r="I82" t="s">
-        <v>442</v>
-      </c>
       <c r="J82" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K82" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -4725,22 +4713,22 @@
         <v>9</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G83" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H83" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I83" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J83" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K83" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -4760,19 +4748,19 @@
         <v>9</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G84" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H84" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I84" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J84" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4795,19 +4783,19 @@
         <v>9</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G85" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H85" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I85" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J85" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K85">
         <v>10</v>
@@ -4830,19 +4818,19 @@
         <v>9</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G86" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H86" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I86" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J86" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -4865,19 +4853,19 @@
         <v>9</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G87" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H87" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I87" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J87" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -4900,22 +4888,22 @@
         <v>9</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G88" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H88" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I88" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J88" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K88" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -4935,22 +4923,22 @@
         <v>9</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G89" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H89" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I89" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J89" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K89" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4970,22 +4958,22 @@
         <v>9</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G90" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H90" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I90" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J90" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K90" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -5005,22 +4993,22 @@
         <v>9</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G91" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H91" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I91" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J91" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K91" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -5040,22 +5028,22 @@
         <v>9</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G92" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H92" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I92" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J92" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K92" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -5075,22 +5063,22 @@
         <v>9</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G93" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H93" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I93" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J93" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -5110,22 +5098,22 @@
         <v>9</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G94" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H94" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I94" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J94" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K94" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -5145,22 +5133,22 @@
         <v>9</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G95" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H95" t="s">
+        <v>434</v>
+      </c>
+      <c r="I95" t="s">
         <v>438</v>
       </c>
-      <c r="I95" t="s">
-        <v>442</v>
-      </c>
       <c r="J95" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K95" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -5180,22 +5168,22 @@
         <v>9</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G96" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H96" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I96" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J96" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K96" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -5215,22 +5203,22 @@
         <v>9</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G97" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H97" t="s">
+        <v>434</v>
+      </c>
+      <c r="I97" t="s">
+        <v>444</v>
+      </c>
+      <c r="J97" t="s">
         <v>438</v>
       </c>
-      <c r="I97" t="s">
-        <v>448</v>
-      </c>
-      <c r="J97" t="s">
-        <v>442</v>
-      </c>
       <c r="K97" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -5250,19 +5238,19 @@
         <v>9</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G98" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H98" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I98" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J98" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K98">
         <v>10</v>
@@ -5285,22 +5273,22 @@
         <v>9</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G99" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H99" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I99" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J99" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K99" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -5320,22 +5308,22 @@
         <v>9</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G100" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H100" t="s">
+        <v>434</v>
+      </c>
+      <c r="I100" t="s">
+        <v>444</v>
+      </c>
+      <c r="J100" t="s">
         <v>438</v>
       </c>
-      <c r="I100" t="s">
-        <v>448</v>
-      </c>
-      <c r="J100" t="s">
-        <v>442</v>
-      </c>
       <c r="K100" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -5355,22 +5343,22 @@
         <v>9</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G101" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H101" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I101" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J101" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K101" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -5390,22 +5378,22 @@
         <v>9</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G102" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H102" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I102" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J102" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K102" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -5425,22 +5413,22 @@
         <v>9</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G103" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H103" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I103" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J103" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K103" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -5460,22 +5448,22 @@
         <v>9</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G104" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H104" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I104" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J104" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K104" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -5495,22 +5483,22 @@
         <v>9</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G105" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H105" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I105" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J105" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K105" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -5530,22 +5518,22 @@
         <v>9</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G106" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H106" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I106" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J106" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K106" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -5565,22 +5553,22 @@
         <v>9</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G107" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H107" t="s">
+        <v>434</v>
+      </c>
+      <c r="I107" t="s">
+        <v>444</v>
+      </c>
+      <c r="J107" t="s">
         <v>438</v>
       </c>
-      <c r="I107" t="s">
-        <v>448</v>
-      </c>
-      <c r="J107" t="s">
-        <v>442</v>
-      </c>
       <c r="K107" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -5600,22 +5588,22 @@
         <v>9</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G108" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H108" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I108" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J108" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K108" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -5635,22 +5623,22 @@
         <v>9</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G109" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H109" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I109" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J109" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K109" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -5670,22 +5658,22 @@
         <v>9</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G110" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H110" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I110" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J110" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K110" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -5705,22 +5693,22 @@
         <v>9</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G111" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H111" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I111" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J111" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K111" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -5740,22 +5728,22 @@
         <v>9</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G112" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H112" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I112" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J112" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K112" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -5775,22 +5763,22 @@
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G113" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H113" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I113" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J113" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K113" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -5810,22 +5798,22 @@
         <v>9</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G114" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H114" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I114" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J114" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -5845,22 +5833,22 @@
         <v>9</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G115" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H115" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I115" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J115" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K115" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -5880,22 +5868,22 @@
         <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G116" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H116" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I116" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J116" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K116" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -5915,22 +5903,22 @@
         <v>9</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G117" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H117" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I117" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J117" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K117" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -5950,22 +5938,22 @@
         <v>9</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G118" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H118" t="s">
+        <v>434</v>
+      </c>
+      <c r="I118" t="s">
+        <v>444</v>
+      </c>
+      <c r="J118" t="s">
         <v>438</v>
       </c>
-      <c r="I118" t="s">
-        <v>448</v>
-      </c>
-      <c r="J118" t="s">
-        <v>442</v>
-      </c>
       <c r="K118" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -5985,22 +5973,22 @@
         <v>9</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G119" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K119" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -6020,22 +6008,22 @@
         <v>9</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G120" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H120" t="s">
+        <v>434</v>
+      </c>
+      <c r="I120" t="s">
+        <v>444</v>
+      </c>
+      <c r="J120" t="s">
         <v>438</v>
       </c>
-      <c r="I120" t="s">
-        <v>448</v>
-      </c>
-      <c r="J120" t="s">
-        <v>442</v>
-      </c>
       <c r="K120" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -6055,22 +6043,22 @@
         <v>9</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G121" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H121" t="s">
+        <v>434</v>
+      </c>
+      <c r="I121" t="s">
+        <v>444</v>
+      </c>
+      <c r="J121" t="s">
         <v>438</v>
       </c>
-      <c r="I121" t="s">
-        <v>448</v>
-      </c>
-      <c r="J121" t="s">
-        <v>442</v>
-      </c>
       <c r="K121" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -6090,22 +6078,22 @@
         <v>9</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G122" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H122" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I122" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J122" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K122" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -6125,22 +6113,22 @@
         <v>9</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G123" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H123" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I123" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J123" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K123" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -6160,22 +6148,22 @@
         <v>9</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G124" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H124" t="s">
+        <v>434</v>
+      </c>
+      <c r="I124" t="s">
+        <v>444</v>
+      </c>
+      <c r="J124" t="s">
         <v>438</v>
       </c>
-      <c r="I124" t="s">
-        <v>448</v>
-      </c>
-      <c r="J124" t="s">
-        <v>442</v>
-      </c>
       <c r="K124" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -6195,22 +6183,22 @@
         <v>9</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G125" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H125" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K125" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -6230,22 +6218,22 @@
         <v>9</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G126" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H126" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I126" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J126" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K126" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -6265,22 +6253,22 @@
         <v>9</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G127" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H127" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I127" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J127" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K127" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -6300,22 +6288,22 @@
         <v>9</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G128" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H128" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I128" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J128" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K128" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -6335,22 +6323,22 @@
         <v>9</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G129" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K129" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -6370,22 +6358,22 @@
         <v>9</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G130" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H130" t="s">
+        <v>434</v>
+      </c>
+      <c r="I130" t="s">
+        <v>444</v>
+      </c>
+      <c r="J130" t="s">
         <v>438</v>
       </c>
-      <c r="I130" t="s">
-        <v>448</v>
-      </c>
-      <c r="J130" t="s">
-        <v>442</v>
-      </c>
       <c r="K130" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -6405,22 +6393,22 @@
         <v>9</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G131" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H131" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I131" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J131" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K131" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -6440,22 +6428,22 @@
         <v>9</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G132" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H132" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I132" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J132" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K132" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -6475,22 +6463,22 @@
         <v>9</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G133" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H133" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I133" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J133" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K133" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -6510,22 +6498,22 @@
         <v>9</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G134" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H134" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I134" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J134" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K134" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -6545,22 +6533,22 @@
         <v>9</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G135" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H135" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I135" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J135" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K135" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -6580,22 +6568,22 @@
         <v>9</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G136" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H136" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I136" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J136" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K136" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -6615,22 +6603,22 @@
         <v>9</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G137" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H137" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I137" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J137" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K137" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -6650,22 +6638,22 @@
         <v>9</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G138" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H138" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I138" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J138" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K138" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -6685,22 +6673,22 @@
         <v>9</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G139" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H139" t="s">
+        <v>434</v>
+      </c>
+      <c r="I139" t="s">
+        <v>444</v>
+      </c>
+      <c r="J139" t="s">
         <v>438</v>
       </c>
-      <c r="I139" t="s">
-        <v>448</v>
-      </c>
-      <c r="J139" t="s">
-        <v>442</v>
-      </c>
       <c r="K139" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -6720,22 +6708,22 @@
         <v>9</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G140" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H140" t="s">
+        <v>434</v>
+      </c>
+      <c r="I140" t="s">
+        <v>444</v>
+      </c>
+      <c r="J140" t="s">
         <v>438</v>
       </c>
-      <c r="I140" t="s">
-        <v>448</v>
-      </c>
-      <c r="J140" t="s">
-        <v>442</v>
-      </c>
       <c r="K140" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -6755,22 +6743,22 @@
         <v>9</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G141" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H141" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I141" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J141" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K141" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -6790,22 +6778,22 @@
         <v>9</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G142" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H142" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I142" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J142" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K142" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -6825,22 +6813,22 @@
         <v>9</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G143" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H143" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I143" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J143" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K143" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -6860,22 +6848,22 @@
         <v>9</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G144" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H144" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I144" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J144" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K144" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -6895,22 +6883,22 @@
         <v>9</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G145" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H145" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I145" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J145" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K145" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -6930,22 +6918,22 @@
         <v>9</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G146" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H146" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I146" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J146" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K146" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -6965,22 +6953,22 @@
         <v>9</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G147" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H147" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I147" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J147" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K147" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -7000,22 +6988,22 @@
         <v>9</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G148" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H148" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I148" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J148" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K148" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -7035,22 +7023,22 @@
         <v>9</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G149" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H149" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I149" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J149" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K149" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -7070,22 +7058,22 @@
         <v>9</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G150" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H150" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I150" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J150" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K150" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -7105,22 +7093,22 @@
         <v>9</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G151" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H151" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I151" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J151" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K151" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -7140,22 +7128,22 @@
         <v>9</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G152" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H152" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I152" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J152" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K152" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -7175,22 +7163,22 @@
         <v>9</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G153" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H153" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I153" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J153" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K153" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -7210,22 +7198,22 @@
         <v>9</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G154" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H154" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I154" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J154" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K154" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -7245,22 +7233,22 @@
         <v>9</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G155" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H155" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I155" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J155" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K155" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -7280,22 +7268,22 @@
         <v>9</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G156" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H156" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I156" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J156" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K156" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -7315,22 +7303,22 @@
         <v>9</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G157" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H157" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I157" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J157" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K157" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -7350,22 +7338,22 @@
         <v>9</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G158" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H158" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I158" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J158" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K158" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -7385,22 +7373,22 @@
         <v>9</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G159" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H159" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I159" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J159" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -7420,22 +7408,22 @@
         <v>9</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G160" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H160" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I160" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J160" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K160" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -7455,22 +7443,22 @@
         <v>9</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G161" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H161" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I161" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J161" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K161" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -7490,19 +7478,19 @@
         <v>9</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G162" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H162" t="s">
+        <v>434</v>
+      </c>
+      <c r="I162" t="s">
         <v>438</v>
       </c>
-      <c r="I162" t="s">
-        <v>442</v>
-      </c>
       <c r="J162" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K162">
         <v>10</v>
@@ -7525,19 +7513,19 @@
         <v>9</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G163" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H163" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I163" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J163" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K163">
         <v>10</v>
@@ -7560,19 +7548,19 @@
         <v>9</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G164" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H164" t="s">
+        <v>434</v>
+      </c>
+      <c r="I164" t="s">
         <v>438</v>
       </c>
-      <c r="I164" t="s">
-        <v>442</v>
-      </c>
       <c r="J164" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K164">
         <v>10</v>
@@ -7595,19 +7583,19 @@
         <v>9</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G165" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H165" t="s">
+        <v>434</v>
+      </c>
+      <c r="I165" t="s">
         <v>438</v>
       </c>
-      <c r="I165" t="s">
-        <v>442</v>
-      </c>
       <c r="J165" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K165">
         <v>10</v>
@@ -7630,19 +7618,19 @@
         <v>9</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G166" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H166" t="s">
+        <v>434</v>
+      </c>
+      <c r="I166" t="s">
         <v>438</v>
       </c>
-      <c r="I166" t="s">
-        <v>442</v>
-      </c>
       <c r="J166" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K166">
         <v>10</v>
@@ -7665,19 +7653,19 @@
         <v>9</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G167" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H167" t="s">
+        <v>434</v>
+      </c>
+      <c r="I167" t="s">
         <v>438</v>
       </c>
-      <c r="I167" t="s">
-        <v>442</v>
-      </c>
       <c r="J167" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K167">
         <v>10</v>
@@ -7700,19 +7688,19 @@
         <v>9</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G168" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H168" t="s">
+        <v>434</v>
+      </c>
+      <c r="I168" t="s">
         <v>438</v>
       </c>
-      <c r="I168" t="s">
-        <v>442</v>
-      </c>
       <c r="J168" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K168">
         <v>10</v>
@@ -7735,19 +7723,19 @@
         <v>9</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G169" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H169" t="s">
+        <v>434</v>
+      </c>
+      <c r="I169" t="s">
         <v>438</v>
       </c>
-      <c r="I169" t="s">
-        <v>442</v>
-      </c>
       <c r="J169" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K169">
         <v>10</v>
@@ -7770,19 +7758,19 @@
         <v>9</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G170" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H170" t="s">
+        <v>434</v>
+      </c>
+      <c r="I170" t="s">
         <v>438</v>
       </c>
-      <c r="I170" t="s">
-        <v>442</v>
-      </c>
       <c r="J170" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K170">
         <v>10</v>
@@ -7805,19 +7793,19 @@
         <v>9</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G171" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H171" t="s">
+        <v>434</v>
+      </c>
+      <c r="I171" t="s">
         <v>438</v>
       </c>
-      <c r="I171" t="s">
-        <v>442</v>
-      </c>
       <c r="J171" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K171">
         <v>10</v>
@@ -7840,19 +7828,19 @@
         <v>9</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G172" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H172" t="s">
+        <v>434</v>
+      </c>
+      <c r="I172" t="s">
         <v>438</v>
       </c>
-      <c r="I172" t="s">
-        <v>442</v>
-      </c>
       <c r="J172" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K172">
         <v>10</v>
@@ -7875,19 +7863,19 @@
         <v>9</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G173" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H173" t="s">
+        <v>434</v>
+      </c>
+      <c r="I173" t="s">
         <v>438</v>
       </c>
-      <c r="I173" t="s">
-        <v>442</v>
-      </c>
       <c r="J173" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K173">
         <v>10</v>
@@ -7910,19 +7898,19 @@
         <v>9</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G174" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H174" t="s">
+        <v>434</v>
+      </c>
+      <c r="I174" t="s">
         <v>438</v>
       </c>
-      <c r="I174" t="s">
-        <v>442</v>
-      </c>
       <c r="J174" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K174">
         <v>10</v>
@@ -7945,19 +7933,19 @@
         <v>9</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G175" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H175" t="s">
+        <v>434</v>
+      </c>
+      <c r="I175" t="s">
         <v>438</v>
       </c>
-      <c r="I175" t="s">
-        <v>442</v>
-      </c>
       <c r="J175" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K175">
         <v>10</v>
@@ -7980,19 +7968,19 @@
         <v>9</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H176" t="s">
+        <v>434</v>
+      </c>
+      <c r="I176" t="s">
         <v>438</v>
       </c>
-      <c r="I176" t="s">
-        <v>442</v>
-      </c>
       <c r="J176" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K176">
         <v>10</v>
@@ -8015,19 +8003,19 @@
         <v>9</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G177" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H177" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I177" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J177" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K177">
         <v>10</v>
@@ -8050,22 +8038,22 @@
         <v>9</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G178" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H178" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I178" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J178" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K178" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -8085,22 +8073,22 @@
         <v>9</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="G179" t="s">
         <v>433</v>
       </c>
       <c r="H179" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="I179" t="s">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="J179" t="s">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="K179" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -8108,74 +8096,74 @@
         <v>255</v>
       </c>
       <c r="B180" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="G180" t="s">
         <v>433</v>
       </c>
       <c r="H180" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="I180" t="s">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="J180" t="s">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="K180" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B181" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E181" t="s">
         <v>9</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G181" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H181" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I181" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J181" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K181" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B182" t="s">
         <v>258</v>
@@ -8184,33 +8172,33 @@
         <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E182" t="s">
         <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G182" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H182" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="I182" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="J182" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="K182" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B183" t="s">
         <v>258</v>
@@ -8219,518 +8207,518 @@
         <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
         <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="G183" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H183" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="I183" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="J183" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="K183" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B184" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="G184" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H184" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I184" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J184" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K184" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B185" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E185" t="s">
         <v>9</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G185" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H185" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I185" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J185" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K185" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B186" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="G186" t="s">
         <v>433</v>
       </c>
       <c r="H186" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="I186" t="s">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="J186" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="K186" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B187" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E187" t="s">
         <v>9</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="G187" t="s">
         <v>433</v>
       </c>
       <c r="H187" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="I187" t="s">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="J187" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="K187" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B188" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G188" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H188" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="I188" t="s">
-        <v>453</v>
+        <v>330</v>
       </c>
       <c r="J188" t="s">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="K188" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E189" t="s">
         <v>9</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="G189" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H189" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="I189" t="s">
-        <v>453</v>
+        <v>330</v>
       </c>
       <c r="J189" t="s">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="K189" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="G190" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H190" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I190" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J190" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K190" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B191" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E191" t="s">
         <v>9</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G191" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H191" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I191" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J191" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K191" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B192" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E192" t="s">
         <v>9</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G192" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H192" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I192" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J192" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K192" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B193" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E193" t="s">
         <v>9</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G193" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H193" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I193" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J193" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K193" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B194" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E194" t="s">
         <v>9</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G194" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H194" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I194" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J194" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K194" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B195" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E195" t="s">
         <v>9</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G195" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H195" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I195" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J195" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K195" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B196" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E196" t="s">
         <v>9</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="G196" t="s">
         <v>433</v>
       </c>
       <c r="H196" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="I196" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="J196" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="K196" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B197" t="s">
         <v>275</v>
       </c>
-      <c r="B197" t="s">
-        <v>262</v>
-      </c>
       <c r="C197" t="s">
         <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="G197" t="s">
         <v>433</v>
       </c>
       <c r="H197" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="I197" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="J197" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="K197" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -8750,22 +8738,22 @@
         <v>9</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G198" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H198" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I198" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="J198" t="s">
-        <v>442</v>
-      </c>
-      <c r="K198" t="s">
-        <v>436</v>
+        <v>435</v>
+      </c>
+      <c r="K198">
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -8773,74 +8761,74 @@
         <v>278</v>
       </c>
       <c r="B199" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G199" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H199" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I199" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J199" t="s">
-        <v>449</v>
-      </c>
-      <c r="K199" t="s">
-        <v>436</v>
+        <v>435</v>
+      </c>
+      <c r="K199">
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B200" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="G200" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H200" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I200" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="J200" t="s">
-        <v>439</v>
-      </c>
-      <c r="K200">
-        <v>10</v>
+        <v>431</v>
+      </c>
+      <c r="K200" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B201" t="s">
         <v>281</v>
@@ -8849,33 +8837,33 @@
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G201" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H201" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="I201" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="J201" t="s">
-        <v>439</v>
-      </c>
-      <c r="K201">
-        <v>10</v>
+        <v>347</v>
+      </c>
+      <c r="K201" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B202" t="s">
         <v>281</v>
@@ -8884,36 +8872,36 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E202" t="s">
         <v>9</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="G202" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H202" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="I202" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="J202" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="K202" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B203" t="s">
         <v>284</v>
-      </c>
-      <c r="B203" t="s">
-        <v>285</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -8925,30 +8913,30 @@
         <v>9</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G203" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H203" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="I203" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="J203" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="K203" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B204" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -8960,1051 +8948,1051 @@
         <v>9</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G204" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H204" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="I204" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="J204" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="K204" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G205" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H205" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I205" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J205" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K205" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B206" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E206" t="s">
         <v>9</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G206" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H206" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I206" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J206" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K206" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B207" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C207" t="s">
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E207" t="s">
         <v>9</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G207" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H207" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I207" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J207" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K207" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B208" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E208" t="s">
         <v>9</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G208" t="s">
         <v>433</v>
       </c>
       <c r="H208" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="I208" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="J208" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="K208" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
         <v>9</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G209" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H209" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="I209" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="J209" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K209" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B210" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E210" t="s">
         <v>9</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G210" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H210" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="I210" t="s">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="J210" t="s">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="K210" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B211" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E211" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G211" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H211" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I211" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J211" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K211" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B212" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E212" t="s">
         <v>9</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G212" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H212" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I212" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J212" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K212" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E213" t="s">
         <v>9</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G213" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H213" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I213" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J213" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K213" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B214" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E214" t="s">
         <v>9</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G214" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H214" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I214" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J214" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K214" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B215" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E215" t="s">
         <v>9</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G215" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H215" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I215" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J215" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K215" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B216" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E216" t="s">
         <v>9</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G216" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H216" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I216" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J216" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K216" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B217" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C217" t="s">
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E217" t="s">
         <v>9</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G217" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H217" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I217" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J217" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K217" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B218" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E218" t="s">
         <v>9</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G218" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H218" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I218" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J218" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K218" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B219" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G219" t="s">
         <v>433</v>
       </c>
       <c r="H219" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="I219" t="s">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="J219" t="s">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="K219" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B220" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G220" t="s">
         <v>433</v>
       </c>
       <c r="H220" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="I220" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="J220" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="K220" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B221" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E221" t="s">
         <v>9</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G221" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H221" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I221" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J221" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K221" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B222" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E222" t="s">
         <v>9</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G222" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H222" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I222" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J222" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K222" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E223" t="s">
         <v>9</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G223" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H223" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I223" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J223" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K223" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B224" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E224" t="s">
         <v>9</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G224" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H224" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I224" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J224" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K224" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B225" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G225" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H225" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I225" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J225" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K225" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B226" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G226" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H226" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I226" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J226" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K226" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B227" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H227" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I227" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="J227" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="K227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B228" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G228" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H228" t="s">
+        <v>434</v>
+      </c>
+      <c r="I228" t="s">
+        <v>444</v>
+      </c>
+      <c r="J228" t="s">
         <v>438</v>
       </c>
-      <c r="I228" t="s">
-        <v>455</v>
-      </c>
-      <c r="J228" t="s">
-        <v>452</v>
-      </c>
       <c r="K228" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B229" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G229" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H229" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I229" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="J229" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="K229" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B230" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G230" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H230" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I230" t="s">
+        <v>451</v>
+      </c>
+      <c r="J230" t="s">
         <v>448</v>
       </c>
-      <c r="J230" t="s">
-        <v>442</v>
-      </c>
       <c r="K230" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B231" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E231" t="s">
         <v>9</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G231" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H231" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I231" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="J231" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="K231" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B232" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G232" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H232" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="I232" t="s">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="J232" t="s">
-        <v>452</v>
+        <v>347</v>
       </c>
       <c r="K232" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B233" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E233" t="s">
         <v>9</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G233" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H233" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="I233" t="s">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="J233" t="s">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="K233" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B234" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
@@ -10016,400 +10004,330 @@
         <v>433</v>
       </c>
       <c r="H234" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="I234" t="s">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="J234" t="s">
-        <v>351</v>
+        <v>448</v>
       </c>
       <c r="K234" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B235" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E235" t="s">
         <v>9</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G235" t="s">
         <v>433</v>
       </c>
       <c r="H235" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="I235" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="J235" t="s">
-        <v>351</v>
-      </c>
-      <c r="K235" t="s">
-        <v>436</v>
+        <v>439</v>
+      </c>
+      <c r="K235">
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B236" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E236" t="s">
         <v>9</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G236" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H236" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I236" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J236" t="s">
-        <v>452</v>
-      </c>
-      <c r="K236" t="s">
-        <v>436</v>
+        <v>439</v>
+      </c>
+      <c r="K236">
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B237" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G237" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H237" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="I237" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J237" t="s">
-        <v>443</v>
-      </c>
-      <c r="K237">
-        <v>10</v>
+        <v>448</v>
+      </c>
+      <c r="K237" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B238" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G238" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H238" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="I238" t="s">
-        <v>451</v>
+        <v>330</v>
       </c>
       <c r="J238" t="s">
-        <v>443</v>
-      </c>
-      <c r="K238">
-        <v>10</v>
+        <v>330</v>
+      </c>
+      <c r="K238" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G239" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H239" t="s">
-        <v>434</v>
+        <v>330</v>
       </c>
       <c r="I239" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="J239" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="K239" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B240" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G240" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H240" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I240" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J240" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K240" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B241" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E241" t="s">
         <v>9</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G241" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H241" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I241" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J241" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K241" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B242" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E242" t="s">
         <v>9</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G242" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H242" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I242" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J242" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K242" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B243" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E243" t="s">
         <v>9</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G243" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H243" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I243" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J243" t="s">
-        <v>334</v>
-      </c>
-      <c r="K243" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B244" t="s">
-        <v>326</v>
-      </c>
-      <c r="C244" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" t="s">
-        <v>49</v>
-      </c>
-      <c r="E244" t="s">
-        <v>9</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G244" t="s">
-        <v>433</v>
-      </c>
-      <c r="H244" t="s">
-        <v>334</v>
-      </c>
-      <c r="I244" t="s">
-        <v>334</v>
-      </c>
-      <c r="J244" t="s">
-        <v>334</v>
-      </c>
-      <c r="K244" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B245" t="s">
-        <v>332</v>
-      </c>
-      <c r="C245" t="s">
-        <v>7</v>
-      </c>
-      <c r="D245" t="s">
-        <v>8</v>
-      </c>
-      <c r="E245" t="s">
-        <v>9</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="G245" t="s">
-        <v>433</v>
-      </c>
-      <c r="H245" t="s">
-        <v>334</v>
-      </c>
-      <c r="I245" t="s">
-        <v>334</v>
-      </c>
-      <c r="J245" t="s">
-        <v>334</v>
-      </c>
-      <c r="K245">
+        <v>330</v>
+      </c>
+      <c r="K243">
         <v>10</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6F568-86E2-454E-B624-65D43E65857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88CEBB8-9764-444B-9CFF-4DAD396736E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,9 +1022,6 @@
     <t>10.1016:j.cell.2023.11.008</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
@@ -1313,12 +1310,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -1401,6 +1392,15 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="183" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179:XFD179"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1843,22 +1843,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1878,22 +1878,22 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1913,22 +1913,22 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1948,22 +1948,22 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1983,22 +1983,22 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2018,22 +2018,22 @@
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2053,22 +2053,22 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2088,22 +2088,22 @@
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2123,22 +2123,22 @@
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2158,22 +2158,22 @@
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2193,22 +2193,22 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2228,22 +2228,22 @@
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2263,22 +2263,22 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2298,22 +2298,22 @@
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2333,22 +2333,22 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H15" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2368,22 +2368,22 @@
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I16" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J16" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2403,22 +2403,22 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2438,22 +2438,22 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2473,22 +2473,22 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2508,22 +2508,22 @@
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2543,22 +2543,22 @@
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I21" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J21" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K21" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2578,22 +2578,22 @@
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I22" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J22" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2613,22 +2613,22 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H23" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K23" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2648,22 +2648,22 @@
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I24" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J24" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K24" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2683,22 +2683,22 @@
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H25" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2718,22 +2718,22 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I26" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J26" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K26" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2753,22 +2753,22 @@
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H27" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2788,22 +2788,22 @@
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G28" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K28" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2823,22 +2823,22 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G29" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I29" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J29" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K29" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2858,22 +2858,22 @@
         <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G30" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H30" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K30" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2893,22 +2893,22 @@
         <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K31" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2928,22 +2928,22 @@
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2963,22 +2963,22 @@
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H33" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I33" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J33" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K33" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -2998,22 +2998,22 @@
         <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K34" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3033,22 +3033,22 @@
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G35" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I35" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J35" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K35" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3068,22 +3068,22 @@
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3103,22 +3103,22 @@
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H37" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3138,22 +3138,22 @@
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I38" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J38" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K38" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3173,22 +3173,22 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H39" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K39" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3208,22 +3208,22 @@
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G40" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H40" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I40" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J40" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K40" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3243,22 +3243,22 @@
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H41" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I41" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J41" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3278,22 +3278,22 @@
         <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I42" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J42" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K42" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3313,22 +3313,22 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G43" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H43" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I43" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J43" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K43" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3348,22 +3348,22 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G44" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I44" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J44" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K44" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3383,22 +3383,22 @@
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H45" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K45" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3418,22 +3418,22 @@
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G46" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H46" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I46" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J46" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K46" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3453,22 +3453,22 @@
         <v>9</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H47" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I47" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J47" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3488,22 +3488,22 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H48" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I48" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J48" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3523,22 +3523,22 @@
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H49" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J49" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K49" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3558,22 +3558,22 @@
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G50" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I50" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J50" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K50" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3593,22 +3593,22 @@
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -3628,22 +3628,22 @@
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G52" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -3663,22 +3663,22 @@
         <v>9</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G53" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K53" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -3698,22 +3698,22 @@
         <v>9</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G54" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K54" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -3733,22 +3733,22 @@
         <v>9</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G55" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K55" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -3768,22 +3768,22 @@
         <v>9</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G56" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3803,22 +3803,22 @@
         <v>9</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G57" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K57" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -3838,22 +3838,22 @@
         <v>9</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -3873,22 +3873,22 @@
         <v>9</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -3908,22 +3908,22 @@
         <v>9</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -3943,22 +3943,22 @@
         <v>9</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G61" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K61" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3978,22 +3978,22 @@
         <v>9</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G62" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K62" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4013,22 +4013,22 @@
         <v>9</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K63" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4048,19 +4048,19 @@
         <v>9</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G64" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K64">
         <v>10</v>
@@ -4083,22 +4083,22 @@
         <v>9</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G65" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H65" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I65" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J65" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K65" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -4118,22 +4118,22 @@
         <v>9</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G66" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H66" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I66" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J66" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -4153,22 +4153,22 @@
         <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H67" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I67" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J67" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K67" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -4188,22 +4188,22 @@
         <v>9</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K68" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -4223,22 +4223,22 @@
         <v>9</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K69" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -4258,22 +4258,22 @@
         <v>9</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G70" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K70" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -4293,22 +4293,22 @@
         <v>9</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G71" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K71" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -4328,19 +4328,19 @@
         <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G72" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H72" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I72" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J72" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -4363,22 +4363,22 @@
         <v>9</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K73" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -4398,22 +4398,22 @@
         <v>9</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G74" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K74" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -4433,22 +4433,22 @@
         <v>9</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G75" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K75" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -4468,22 +4468,22 @@
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G76" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K76" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -4503,22 +4503,22 @@
         <v>9</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G77" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H77" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K77" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -4538,22 +4538,22 @@
         <v>9</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G78" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -4573,22 +4573,22 @@
         <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G79" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K79" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -4608,22 +4608,22 @@
         <v>9</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G80" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K80" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -4643,22 +4643,22 @@
         <v>9</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G81" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -4678,22 +4678,22 @@
         <v>9</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G82" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H82" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I82" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J82" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K82" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -4713,22 +4713,22 @@
         <v>9</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G83" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K83" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -4748,19 +4748,19 @@
         <v>9</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G84" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H84" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I84" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J84" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4783,19 +4783,19 @@
         <v>9</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G85" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H85" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I85" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J85" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K85">
         <v>10</v>
@@ -4818,19 +4818,19 @@
         <v>9</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G86" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H86" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I86" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J86" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -4853,19 +4853,19 @@
         <v>9</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G87" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H87" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I87" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J87" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -4888,22 +4888,22 @@
         <v>9</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G88" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H88" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I88" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J88" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K88" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -4923,22 +4923,22 @@
         <v>9</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G89" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H89" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I89" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J89" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K89" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4958,22 +4958,22 @@
         <v>9</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G90" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H90" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I90" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J90" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K90" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4993,22 +4993,22 @@
         <v>9</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G91" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H91" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I91" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J91" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K91" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -5028,22 +5028,22 @@
         <v>9</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G92" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K92" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -5063,22 +5063,22 @@
         <v>9</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J93" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K93" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -5098,22 +5098,22 @@
         <v>9</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G94" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H94" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K94" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -5133,22 +5133,22 @@
         <v>9</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G95" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H95" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I95" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J95" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -5168,22 +5168,22 @@
         <v>9</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G96" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H96" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K96" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -5203,22 +5203,22 @@
         <v>9</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G97" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H97" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I97" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J97" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K97" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -5238,19 +5238,19 @@
         <v>9</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G98" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H98" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I98" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J98" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K98">
         <v>10</v>
@@ -5273,22 +5273,22 @@
         <v>9</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G99" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H99" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I99" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J99" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K99" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -5308,22 +5308,22 @@
         <v>9</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G100" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H100" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I100" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J100" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K100" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -5343,22 +5343,22 @@
         <v>9</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G101" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K101" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -5378,22 +5378,22 @@
         <v>9</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G102" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H102" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I102" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J102" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K102" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -5413,22 +5413,22 @@
         <v>9</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G103" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K103" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -5448,22 +5448,22 @@
         <v>9</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G104" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K104" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -5483,22 +5483,22 @@
         <v>9</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G105" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K105" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -5518,22 +5518,22 @@
         <v>9</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G106" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H106" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I106" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J106" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K106" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -5553,22 +5553,22 @@
         <v>9</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G107" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H107" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I107" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J107" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K107" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -5588,22 +5588,22 @@
         <v>9</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G108" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H108" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I108" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J108" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K108" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -5623,22 +5623,22 @@
         <v>9</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G109" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H109" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I109" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J109" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K109" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -5658,22 +5658,22 @@
         <v>9</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G110" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K110" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -5693,22 +5693,22 @@
         <v>9</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G111" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K111" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -5728,22 +5728,22 @@
         <v>9</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G112" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H112" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I112" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K112" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -5763,22 +5763,22 @@
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G113" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H113" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I113" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J113" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K113" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -5798,22 +5798,22 @@
         <v>9</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G114" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H114" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I114" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J114" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K114" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -5833,22 +5833,22 @@
         <v>9</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G115" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H115" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I115" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J115" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K115" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -5868,22 +5868,22 @@
         <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G116" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H116" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I116" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K116" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -5903,22 +5903,22 @@
         <v>9</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G117" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H117" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I117" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J117" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K117" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -5938,22 +5938,22 @@
         <v>9</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G118" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H118" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I118" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J118" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K118" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -5973,22 +5973,22 @@
         <v>9</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G119" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K119" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -6008,22 +6008,22 @@
         <v>9</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G120" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H120" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I120" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J120" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K120" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -6043,22 +6043,22 @@
         <v>9</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G121" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H121" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I121" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J121" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K121" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -6078,22 +6078,22 @@
         <v>9</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G122" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H122" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I122" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J122" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K122" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -6113,22 +6113,22 @@
         <v>9</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G123" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H123" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K123" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -6148,22 +6148,22 @@
         <v>9</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G124" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H124" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I124" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J124" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K124" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -6183,22 +6183,22 @@
         <v>9</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G125" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H125" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I125" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J125" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K125" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -6218,22 +6218,22 @@
         <v>9</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G126" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K126" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -6253,22 +6253,22 @@
         <v>9</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G127" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H127" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I127" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J127" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K127" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -6288,22 +6288,22 @@
         <v>9</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G128" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H128" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I128" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J128" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K128" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -6323,22 +6323,22 @@
         <v>9</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G129" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H129" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I129" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J129" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K129" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -6358,22 +6358,22 @@
         <v>9</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G130" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H130" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I130" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J130" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K130" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -6393,22 +6393,22 @@
         <v>9</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G131" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H131" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I131" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J131" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K131" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -6428,22 +6428,22 @@
         <v>9</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G132" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H132" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I132" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J132" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K132" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -6463,22 +6463,22 @@
         <v>9</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G133" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H133" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I133" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J133" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K133" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -6498,22 +6498,22 @@
         <v>9</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G134" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H134" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I134" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J134" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K134" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -6533,22 +6533,22 @@
         <v>9</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G135" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H135" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I135" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J135" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K135" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -6568,22 +6568,22 @@
         <v>9</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G136" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H136" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I136" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J136" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K136" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -6603,22 +6603,22 @@
         <v>9</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G137" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H137" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I137" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J137" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K137" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -6638,22 +6638,22 @@
         <v>9</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G138" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H138" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I138" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J138" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K138" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -6673,22 +6673,22 @@
         <v>9</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G139" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H139" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I139" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J139" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K139" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -6708,22 +6708,22 @@
         <v>9</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G140" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H140" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I140" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J140" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K140" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -6743,22 +6743,22 @@
         <v>9</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G141" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K141" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -6778,22 +6778,22 @@
         <v>9</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G142" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K142" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -6813,22 +6813,22 @@
         <v>9</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G143" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H143" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I143" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J143" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K143" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -6848,22 +6848,22 @@
         <v>9</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G144" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H144" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I144" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J144" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K144" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -6883,22 +6883,22 @@
         <v>9</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G145" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H145" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I145" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J145" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K145" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -6918,22 +6918,22 @@
         <v>9</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G146" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H146" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I146" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J146" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K146" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -6953,22 +6953,22 @@
         <v>9</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G147" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H147" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I147" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J147" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K147" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -6988,22 +6988,22 @@
         <v>9</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G148" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H148" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I148" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J148" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K148" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -7023,22 +7023,22 @@
         <v>9</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G149" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K149" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -7058,22 +7058,22 @@
         <v>9</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G150" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H150" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I150" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J150" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K150" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -7093,22 +7093,22 @@
         <v>9</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G151" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H151" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K151" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -7128,22 +7128,22 @@
         <v>9</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G152" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H152" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K152" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -7163,22 +7163,22 @@
         <v>9</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G153" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H153" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I153" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J153" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K153" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -7198,22 +7198,22 @@
         <v>9</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G154" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H154" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I154" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J154" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K154" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -7233,22 +7233,22 @@
         <v>9</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G155" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H155" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I155" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J155" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K155" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -7268,22 +7268,22 @@
         <v>9</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G156" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H156" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I156" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J156" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K156" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -7303,22 +7303,22 @@
         <v>9</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G157" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H157" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I157" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J157" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K157" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -7338,22 +7338,22 @@
         <v>9</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G158" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H158" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I158" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J158" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K158" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -7373,22 +7373,22 @@
         <v>9</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G159" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H159" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I159" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J159" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K159" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -7408,22 +7408,22 @@
         <v>9</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G160" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H160" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I160" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J160" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K160" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -7443,22 +7443,22 @@
         <v>9</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G161" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H161" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I161" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J161" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K161" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -7478,19 +7478,19 @@
         <v>9</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G162" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H162" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I162" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J162" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K162">
         <v>10</v>
@@ -7513,19 +7513,19 @@
         <v>9</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G163" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H163" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I163" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J163" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K163">
         <v>10</v>
@@ -7548,19 +7548,19 @@
         <v>9</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G164" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H164" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I164" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J164" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K164">
         <v>10</v>
@@ -7583,19 +7583,19 @@
         <v>9</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G165" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H165" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I165" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J165" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K165">
         <v>10</v>
@@ -7618,19 +7618,19 @@
         <v>9</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G166" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H166" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I166" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J166" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K166">
         <v>10</v>
@@ -7653,19 +7653,19 @@
         <v>9</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G167" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H167" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I167" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J167" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K167">
         <v>10</v>
@@ -7688,19 +7688,19 @@
         <v>9</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G168" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H168" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I168" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J168" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K168">
         <v>10</v>
@@ -7723,19 +7723,19 @@
         <v>9</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G169" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H169" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I169" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J169" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K169">
         <v>10</v>
@@ -7758,19 +7758,19 @@
         <v>9</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G170" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H170" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I170" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J170" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K170">
         <v>10</v>
@@ -7793,19 +7793,19 @@
         <v>9</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G171" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H171" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I171" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J171" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K171">
         <v>10</v>
@@ -7828,19 +7828,19 @@
         <v>9</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G172" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H172" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I172" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J172" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K172">
         <v>10</v>
@@ -7863,19 +7863,19 @@
         <v>9</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G173" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H173" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I173" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J173" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K173">
         <v>10</v>
@@ -7898,19 +7898,19 @@
         <v>9</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G174" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H174" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I174" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J174" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K174">
         <v>10</v>
@@ -7933,19 +7933,19 @@
         <v>9</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G175" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H175" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I175" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J175" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K175">
         <v>10</v>
@@ -7968,19 +7968,19 @@
         <v>9</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G176" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H176" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I176" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J176" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K176">
         <v>10</v>
@@ -8003,19 +8003,19 @@
         <v>9</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G177" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H177" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I177" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J177" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K177">
         <v>10</v>
@@ -8038,22 +8038,22 @@
         <v>9</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G178" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H178" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I178" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J178" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K178" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -8073,22 +8073,22 @@
         <v>9</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G179" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H179" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I179" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J179" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K179" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -8108,22 +8108,22 @@
         <v>9</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G180" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H180" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I180" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J180" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K180" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -8143,22 +8143,22 @@
         <v>9</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G181" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H181" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I181" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J181" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K181" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -8178,22 +8178,22 @@
         <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G182" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K182" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -8213,22 +8213,22 @@
         <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G183" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K183" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -8248,22 +8248,22 @@
         <v>9</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G184" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K184" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -8283,22 +8283,22 @@
         <v>9</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G185" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H185" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I185" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J185" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K185" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -8318,22 +8318,22 @@
         <v>9</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G186" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H186" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I186" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J186" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K186" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -8353,22 +8353,22 @@
         <v>9</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G187" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H187" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I187" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J187" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K187" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -8388,22 +8388,22 @@
         <v>9</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G188" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K188" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -8423,22 +8423,22 @@
         <v>9</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G189" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K189" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -8458,22 +8458,22 @@
         <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G190" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H190" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I190" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J190" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K190" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -8493,22 +8493,22 @@
         <v>9</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G191" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K191" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -8528,22 +8528,22 @@
         <v>9</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G192" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H192" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I192" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J192" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K192" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -8563,22 +8563,22 @@
         <v>9</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G193" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H193" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I193" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J193" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K193" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -8598,22 +8598,22 @@
         <v>9</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G194" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H194" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I194" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J194" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K194" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -8633,22 +8633,22 @@
         <v>9</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G195" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K195" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -8668,22 +8668,22 @@
         <v>9</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G196" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H196" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I196" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J196" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K196" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -8703,22 +8703,22 @@
         <v>9</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G197" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H197" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I197" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J197" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K197" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -8738,19 +8738,19 @@
         <v>9</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G198" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H198" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I198" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J198" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K198">
         <v>10</v>
@@ -8773,19 +8773,19 @@
         <v>9</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G199" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H199" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I199" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J199" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K199">
         <v>10</v>
@@ -8808,22 +8808,22 @@
         <v>9</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G200" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H200" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I200" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J200" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K200" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -8843,22 +8843,22 @@
         <v>9</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G201" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H201" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I201" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J201" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K201" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -8878,22 +8878,22 @@
         <v>9</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G202" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H202" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I202" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J202" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K202" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -8913,22 +8913,22 @@
         <v>9</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G203" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H203" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I203" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J203" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K203" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -8948,22 +8948,22 @@
         <v>9</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G204" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K204" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
@@ -8983,22 +8983,22 @@
         <v>9</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G205" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H205" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I205" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J205" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K205" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
@@ -9018,22 +9018,22 @@
         <v>9</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G206" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H206" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I206" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J206" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K206" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
@@ -9053,22 +9053,22 @@
         <v>9</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G207" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H207" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I207" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J207" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K207" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
@@ -9088,22 +9088,22 @@
         <v>9</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G208" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H208" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I208" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J208" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K208" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -9123,22 +9123,22 @@
         <v>9</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G209" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H209" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I209" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J209" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K209" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -9158,22 +9158,22 @@
         <v>9</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G210" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H210" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I210" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J210" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K210" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -9193,22 +9193,22 @@
         <v>9</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G211" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H211" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I211" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J211" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K211" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -9228,22 +9228,22 @@
         <v>9</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G212" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H212" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I212" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J212" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K212" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -9263,22 +9263,22 @@
         <v>9</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G213" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H213" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I213" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J213" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K213" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -9298,22 +9298,22 @@
         <v>9</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G214" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H214" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I214" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J214" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K214" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -9333,22 +9333,22 @@
         <v>9</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G215" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H215" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I215" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J215" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K215" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -9368,22 +9368,22 @@
         <v>9</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G216" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H216" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I216" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J216" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K216" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -9403,22 +9403,22 @@
         <v>9</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G217" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H217" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I217" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J217" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K217" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -9438,22 +9438,22 @@
         <v>9</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H218" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I218" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J218" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K218" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -9473,22 +9473,22 @@
         <v>9</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G219" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H219" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I219" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J219" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -9508,22 +9508,22 @@
         <v>9</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I220" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J220" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K220" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -9543,22 +9543,22 @@
         <v>9</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G221" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H221" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I221" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J221" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K221" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -9578,22 +9578,22 @@
         <v>9</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G222" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H222" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I222" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J222" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K222" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -9613,22 +9613,22 @@
         <v>9</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G223" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H223" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I223" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J223" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K223" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -9648,22 +9648,22 @@
         <v>9</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G224" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H224" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I224" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J224" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K224" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -9683,22 +9683,22 @@
         <v>9</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G225" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H225" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I225" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J225" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -9718,22 +9718,22 @@
         <v>9</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H226" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I226" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J226" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K226" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -9753,22 +9753,22 @@
         <v>9</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G227" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H227" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I227" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J227" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K227" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -9788,22 +9788,22 @@
         <v>9</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G228" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H228" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I228" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J228" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -9823,22 +9823,22 @@
         <v>9</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I229" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J229" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K229" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
@@ -9858,22 +9858,22 @@
         <v>9</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G230" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H230" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I230" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J230" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K230" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
@@ -9893,22 +9893,22 @@
         <v>9</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H231" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I231" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J231" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K231" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
@@ -9928,22 +9928,22 @@
         <v>9</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G232" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H232" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I232" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J232" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K232" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
@@ -9963,22 +9963,22 @@
         <v>9</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G233" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H233" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I233" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J233" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K233" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
@@ -9998,22 +9998,22 @@
         <v>9</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G234" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H234" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I234" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J234" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K234" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -10033,19 +10033,19 @@
         <v>9</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G235" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H235" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I235" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J235" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K235">
         <v>10</v>
@@ -10068,19 +10068,19 @@
         <v>9</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G236" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H236" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I236" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J236" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K236">
         <v>10</v>
@@ -10103,22 +10103,22 @@
         <v>9</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G237" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H237" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I237" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J237" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K237" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
@@ -10138,22 +10138,22 @@
         <v>9</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G238" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H238" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I238" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J238" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K238" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
@@ -10173,22 +10173,22 @@
         <v>9</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G239" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H239" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I239" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J239" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K239" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -10208,22 +10208,22 @@
         <v>9</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G240" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K240" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
@@ -10243,22 +10243,22 @@
         <v>9</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G241" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H241" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I241" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J241" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K241" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
@@ -10278,22 +10278,22 @@
         <v>9</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G242" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H242" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I242" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J242" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K242" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
@@ -10313,19 +10313,19 @@
         <v>9</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G243" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H243" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I243" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J243" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K243">
         <v>10</v>
